--- a/Results/Neural Networks/Results.xlsx
+++ b/Results/Neural Networks/Results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Neural Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB58402-3D0F-4608-AABE-420A6ACDEC39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4507EE2F-5046-4D9B-B6F6-9B0578B4742B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Random Forest - Results" sheetId="8" r:id="rId1"/>
-    <sheet name="Believed Significant Features" sheetId="12" r:id="rId2"/>
+    <sheet name="Single Layer Results" sheetId="8" r:id="rId1"/>
+    <sheet name="Two Layer Results" sheetId="14" r:id="rId2"/>
+    <sheet name="Computation Record" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="48">
   <si>
     <t>Accuracy</t>
   </si>
@@ -52,94 +53,10 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>de_ratio</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Debt to equity ratio</t>
-  </si>
-  <si>
-    <t>Current ratio</t>
-  </si>
-  <si>
-    <t>curr_ratio</t>
-  </si>
-  <si>
-    <t>Quick ratio</t>
-  </si>
-  <si>
-    <t>quick_ratio</t>
-  </si>
-  <si>
-    <t>Return on equity</t>
-  </si>
-  <si>
-    <t>roe</t>
-  </si>
-  <si>
-    <t>npm</t>
-  </si>
-  <si>
-    <t>Net profit margin</t>
-  </si>
-  <si>
-    <t>pe_exi</t>
-  </si>
-  <si>
-    <t>P/E (Diluted, Excl EI)</t>
-  </si>
-  <si>
-    <t>P/E (Diluted, Incl EI)</t>
-  </si>
-  <si>
-    <t>pe_inc</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
-    <t>Price to sales</t>
-  </si>
-  <si>
-    <t>Price to book</t>
-  </si>
-  <si>
-    <t>roa</t>
-  </si>
-  <si>
-    <t>Return on assets</t>
-  </si>
-  <si>
-    <t>intcov_ratio</t>
-  </si>
-  <si>
-    <t>Interest Coverage Ratio</t>
-  </si>
-  <si>
-    <t>Asset Turnover Ratio</t>
-  </si>
-  <si>
-    <t>at_turn</t>
-  </si>
-  <si>
-    <t>ptb</t>
-  </si>
-  <si>
-    <t>Filled in blanks</t>
-  </si>
-  <si>
     <t>Seed</t>
   </si>
   <si>
     <t>neurons</t>
-  </si>
-  <si>
-    <t>lambda</t>
   </si>
   <si>
     <t>epochs</t>
@@ -151,13 +68,109 @@
     <t>activation function</t>
   </si>
   <si>
-    <t>L2 regression?</t>
-  </si>
-  <si>
     <t>tanh</t>
   </si>
   <si>
     <t>sigmoid</t>
+  </si>
+  <si>
+    <t>4 class, single layer</t>
+  </si>
+  <si>
+    <t>ml5</t>
+  </si>
+  <si>
+    <t>Instance-5</t>
+  </si>
+  <si>
+    <t>ml4</t>
+  </si>
+  <si>
+    <t>ml3</t>
+  </si>
+  <si>
+    <t>ml2</t>
+  </si>
+  <si>
+    <t>ml1</t>
+  </si>
+  <si>
+    <t>Instance-6</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>memory_frac</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Tmux Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Google Cloud (Tesla K80, 12GB VRAM)</t>
+  </si>
+  <si>
+    <t>Laptop (GTX 970M, 3GB VRAM)</t>
+  </si>
+  <si>
+    <t>BEFORE NEXT DELETEING VM ADD PREDICTORLIGHT.PY TO IMAGE</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>softmax</t>
+  </si>
+  <si>
+    <t>lambda for regularization</t>
+  </si>
+  <si>
+    <t>L2 regularization?</t>
+  </si>
+  <si>
+    <t>Single Layer Neural Network Random Search</t>
+  </si>
+  <si>
+    <t>4 class, two layer</t>
+  </si>
+  <si>
+    <t>fst neurons</t>
+  </si>
+  <si>
+    <t>fst activation</t>
+  </si>
+  <si>
+    <t>fst lambda</t>
+  </si>
+  <si>
+    <t>snd neurons</t>
+  </si>
+  <si>
+    <t>snd activation</t>
+  </si>
+  <si>
+    <t>snd lambda</t>
+  </si>
+  <si>
+    <t>fst L2 regularization?</t>
+  </si>
+  <si>
+    <t>snd L2 regularization?</t>
   </si>
 </sst>
 </file>
@@ -167,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +311,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -641,10 +669,78 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -658,6 +754,26 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -709,12 +825,11 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,7 +851,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,7 +1018,113 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="78">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -825,235 +1164,22 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1065,14 +1191,1065 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1089,24 +2266,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="D4:O6" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="D4:O6" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
-  <sortState ref="D5:O6">
-    <sortCondition descending="1" ref="O4:O6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C4:O64" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+  <autoFilter ref="C4:O64" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
+  <sortState ref="C5:O64">
+    <sortCondition descending="1" ref="O4:O64"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="neurons" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="lambda" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="epochs" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="batch size" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{24F530F9-DE02-4399-8645-3C0C5F5DF324}" name="activation function" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{ECF95DDC-BE5B-412C-975B-DD91E0308F9D}" name="L2 regression?" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="2"/>
+  <tableColumns count="13">
+    <tableColumn id="13" xr3:uid="{EE2C5B4A-1B3A-4EB1-A894-4751D2C028F6}" name="Seed" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="neurons" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="lambda for regularization" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="epochs" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="batch size" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{24F530F9-DE02-4399-8645-3C0C5F5DF324}" name="activation function" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{ECF95DDC-BE5B-412C-975B-DD91E0308F9D}" name="L2 regularization?" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="22" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B626D81A-C02C-4E76-AFEC-DB56EAC289A8}" name="Table62" displayName="Table62" ref="C4:S32" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="C4:S32" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
+  <sortState ref="C5:S32">
+    <sortCondition descending="1" ref="S4:S32"/>
+  </sortState>
+  <tableColumns count="17">
+    <tableColumn id="13" xr3:uid="{452FFD92-6934-49FF-9D05-6F560AF5344A}" name="Seed" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E211E446-DB45-4B2F-8FDE-865764964C4D}" name="fst neurons" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2EC2EDFF-0EFF-4F71-9940-8CC8668BC8E6}" name="fst activation" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{22296FAD-856C-4ECC-AF57-6A26A43504CF}" name="fst L2 regularization?" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{65D1305B-A0A6-4CAC-A5C1-9DDE6AE12195}" name="fst lambda" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{1BC0484B-7EB1-43A5-AD2A-4E6B52D74DE6}" name="snd neurons" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{1EC5378D-3595-4261-8F58-0AFAC8260C63}" name="snd activation" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{5C688FFA-D11B-4D06-8E43-6B55E9DA6959}" name="snd L2 regularization?" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{9F9B91EE-FC3B-4A59-BC66-DC774FCDE125}" name="snd lambda" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{C5D2E6BF-EF52-4FB1-A6D3-1C816201B2DA}" name="batch size" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{E0656082-56E5-4465-89B4-696632D69AF8}" name="epochs" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DBCA6EB0-E4C0-42EF-BE92-1A9E8442469D}" name="Fold 1" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{EC12F9E1-C75D-4875-A833-0F15BC178545}" name="Fold 2" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{26A3F004-7925-4AC1-B8AA-61B5BFFF8E9C}" name="Fold 3" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{515B2D70-36D2-4551-8AF8-FB856656F166}" name="Fold 4" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{B7C360CC-32DA-421D-97D5-43E7B4BF762C}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{06DFEA4B-3831-4FEC-B841-9586DC6F5715}" name="Average" dataDxfId="0" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50F8C802-D311-4C69-8481-D273E90B8433}" name="Table2" displayName="Table2" ref="B7:G17" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+  <autoFilter ref="B7:G17" xr:uid="{70C82073-811F-4A54-B2B3-3DB77FF5C36C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{18FC7DFE-397D-4DDB-859B-4A104BD44CCD}" name="Name " dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{01B6744D-B816-40D4-84B3-175F903B295E}" name="Tmux Session" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{47B77FC0-D447-4D1E-8BFB-6E36FCD91316}" name="Problem" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{BAF46EA2-DA73-4B0F-AEB3-6697ED34B0D4}" name="Seed" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{AE7FC2B8-0BBE-4228-9773-538D5A9CA57B}" name="Iterations" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{36E77298-3202-4BD7-B390-CD219E2979DF}" name="memory_frac" dataDxfId="68"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F37C1BB-14AB-4ED5-B695-8219BE02F724}" name="Table4" displayName="Table4" ref="J21:N26" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
+  <autoFilter ref="J21:N26" xr:uid="{AD4FD850-4C47-4712-B179-3C0B538018A4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6186C0A3-B1B9-48C3-87BB-452371F2A06B}" name="Problem" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{E63CCF47-A735-4887-9F29-B0454106EC9E}" name="Seed" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{A0A69E40-405F-4807-B314-BF1FEBC75551}" name="Iterations" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{8F5D51A8-8898-4C0F-94B9-62EF59F4A6C2}" name="memory_frac" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{12B3A7AC-1E5D-4371-9B5A-57C8BFBF0B25}" name="Completed" dataDxfId="58"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FBFF0E64-1CE7-40BA-A8FD-1E70546B81F2}" name="Table5" displayName="Table5" ref="J7:M9" totalsRowShown="0" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+  <autoFilter ref="J7:M9" xr:uid="{4B443EFB-2A03-42D5-9ACF-9FF9F1212F43}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{960C5177-250E-4233-AF2A-BA6973714243}" name="Problem" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{3115131B-F046-4B1D-9D89-92E1E8B330C7}" name="Seed" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{58062F58-4774-43B7-BE3D-A3867AFE7A44}" name="Iterations" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{BEC89436-CE5F-4668-8732-3B2902052FC8}" name="memory_frac" dataDxfId="51"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4ADA31A-F24C-4F99-BDA3-3D90F7BFCB10}" name="Table3" displayName="Table3" ref="B21:H41" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+  <autoFilter ref="B21:H41" xr:uid="{E48B09AF-DF99-4634-B72D-76260B2094E2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9FBD64CA-D43C-4696-B8DA-24C92108326A}" name="Name " dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{078173AE-DF7C-4E92-B4B6-A3FF25932F07}" name="Tmux Session" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{EE8E8CA3-BADD-4408-9166-BD1D4AE032B6}" name="Problem" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{D6C58D65-DD4C-4644-8CEE-AD9275A25E8B}" name="Seed" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{254C4F23-D96E-4A1E-BC1F-1690DAA9AAC5}" name="Iterations" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{C9647215-55F5-4756-819F-DB4FC6BBE28E}" name="memory_frac" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{26F1C347-D9D8-4020-8F4D-46C153498856}" name="Completed" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1409,16 +2674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5F8B0E-17AA-4631-8565-91D998A20F4E}">
-  <dimension ref="B2:O6"/>
+  <dimension ref="B2:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" customWidth="1"/>
@@ -1427,155 +2692,2711 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>400</v>
+      </c>
+      <c r="G5" s="5">
+        <v>768</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.320726503314397</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.31883046918059998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.32317345837320199</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.321235645753226</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="O5" s="37">
+        <v>0.32099151893701999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E6" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>500</v>
+      </c>
+      <c r="G6" s="5">
+        <v>768</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.320189889669175</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.31932415416478199</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.322189667818019</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.320885057043859</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="O6" s="37">
+        <v>0.32064719196122299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>400</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1024</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.319356350437763</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.316358471907973</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.32145271905265199</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.32082781815249101</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.97E-3</v>
+      </c>
+      <c r="O7" s="37">
+        <v>0.31949883869913998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="45">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="F8" s="15">
+        <v>500</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1024</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40">
+        <v>0.31961392475668898</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0.31477367444056598</v>
+      </c>
+      <c r="L8" s="40">
+        <v>0.32012549593658302</v>
+      </c>
+      <c r="M8" s="40">
+        <v>0.32051658136355898</v>
+      </c>
+      <c r="N8" s="40">
+        <v>2.32E-3</v>
+      </c>
+      <c r="O8" s="41">
+        <v>0.31875741755103199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>500</v>
+      </c>
+      <c r="G9" s="5">
+        <v>128</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.31894136964843001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.31682353656095502</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.32135255123894102</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.31779773190553001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.6900000000000001E-3</v>
+      </c>
+      <c r="O9" s="37">
+        <v>0.318728798171168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="45">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="15">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15">
+        <v>512</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="40">
+        <v>0.31734941744165801</v>
+      </c>
+      <c r="K10" s="40">
+        <v>0.31556070703525302</v>
+      </c>
+      <c r="L10" s="40">
+        <v>0.32022566368573802</v>
+      </c>
+      <c r="M10" s="40">
+        <v>0.317744070402186</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1.66E-3</v>
+      </c>
+      <c r="O10" s="41">
+        <v>0.31771996461965002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <v>512</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.31494539065538701</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.31351442238007399</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.31853712109842802</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.31698923194036899</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.92E-3</v>
+      </c>
+      <c r="O11" s="37">
+        <v>0.315996540630746</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>300</v>
+      </c>
+      <c r="G12" s="5">
+        <v>768</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.31558217124545801</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.31263437647366199</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.31882331524277002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.31638464538376299</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="O12" s="37">
+        <v>0.31585612661373003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5">
+        <v>768</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.31707753394412402</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.31298496490883398</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.31546053903640497</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.31582656598443298</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.48E-3</v>
+      </c>
+      <c r="O13" s="37">
+        <v>0.31533740053096099</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23">
+        <v>47</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="23">
+        <v>300</v>
+      </c>
+      <c r="G14" s="23">
+        <v>256</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0.31599715237318798</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0.31124991502442201</v>
+      </c>
+      <c r="L14" s="24">
+        <v>0.31658027195254002</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0.31515043109268298</v>
+      </c>
+      <c r="N14" s="24">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="O14" s="25">
+        <v>0.31474444224761</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="5">
+        <v>500</v>
+      </c>
+      <c r="G15" s="5">
+        <v>512</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.31445528400703698</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.31152895384141599</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.31764276591969398</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.31448860588800498</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2.16E-3</v>
+      </c>
+      <c r="O15" s="37">
+        <v>0.31452890245007797</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="5">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5">
+        <v>128</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.31538541342580101</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.31089217296284399</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.315152881076388</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.31654563016641202</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.15E-3</v>
+      </c>
+      <c r="O16" s="37">
+        <v>0.31449402257299502</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="19">
+        <v>9</v>
+      </c>
+      <c r="D17" s="20">
+        <v>54</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="20">
+        <v>300</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1024</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0.31484880031365597</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0.31309586413064899</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0.31811140804620203</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0.31124387365293599</v>
+      </c>
+      <c r="N17" s="21">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="O17" s="22">
+        <v>0.31432498929147301</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15">
+        <v>45</v>
+      </c>
+      <c r="E18" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F18" s="15">
+        <v>50</v>
+      </c>
+      <c r="G18" s="15">
+        <v>768</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0.314043880786118</v>
+      </c>
+      <c r="K18" s="40">
+        <v>0.31168993708861598</v>
+      </c>
+      <c r="L18" s="40">
+        <v>0.31643002086097799</v>
+      </c>
+      <c r="M18" s="40">
+        <v>0.31435623988543798</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="O18" s="41">
+        <v>0.31413001945296598</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>500</v>
+      </c>
+      <c r="G19" s="5">
+        <v>128</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.31422632910295001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.31162912163428302</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.31470212606083198</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.31449576074316299</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.24E-3</v>
+      </c>
+      <c r="O19" s="37">
+        <v>0.313763333730257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="5">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1024</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.31345718360658198</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.31144309571374801</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.31336774808780199</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.31484634917895299</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="O20" s="37">
+        <v>0.31327859274463998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>500</v>
+      </c>
+      <c r="G21" s="5">
+        <v>768</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.31344645119933101</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.31064175361399798</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.31448390374577501</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.31279290230339102</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.41E-3</v>
+      </c>
+      <c r="O21" s="37">
+        <v>0.31284125275886598</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>17</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="15">
+        <v>200</v>
+      </c>
+      <c r="G22" s="15">
+        <v>256</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="40">
+        <v>0.31063817608759098</v>
+      </c>
+      <c r="K22" s="40">
+        <v>0.31147886995708302</v>
+      </c>
+      <c r="L22" s="40">
+        <v>0.31450179049945898</v>
+      </c>
+      <c r="M22" s="40">
+        <v>0.31299681609650798</v>
+      </c>
+      <c r="N22" s="40">
+        <v>1.48E-3</v>
+      </c>
+      <c r="O22" s="41">
+        <v>0.31240391262989398</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="5">
+        <v>400</v>
+      </c>
+      <c r="G23" s="5">
+        <v>768</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.312698769964663</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.30846310331207599</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.312906260457255</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.31266053705907498</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="O23" s="37">
+        <v>0.311682166823257</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5">
+        <v>128</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.31219793153777298</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.30941469818524697</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.31279893822248001</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.31154437806232399</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="O24" s="37">
+        <v>0.31148898645241602</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="8">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F25" s="5">
+        <v>100</v>
+      </c>
+      <c r="G25" s="5">
+        <v>768</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.31210491905349003</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.30932884084781298</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.31221581904538898</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.31098272095331098</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.16E-3</v>
+      </c>
+      <c r="O25" s="37">
+        <v>0.31115807513183003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>22</v>
+      </c>
+      <c r="C26" s="45">
+        <v>16</v>
+      </c>
+      <c r="D26" s="15">
+        <v>18</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="15">
+        <v>300</v>
+      </c>
+      <c r="G26" s="15">
+        <v>256</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="40">
+        <v>0.31099949559230899</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0.302267011529813</v>
+      </c>
+      <c r="L26" s="40">
+        <v>0.31817580160117198</v>
+      </c>
+      <c r="M26" s="40">
+        <v>0.310864665688941</v>
+      </c>
+      <c r="N26" s="40">
+        <v>5.64E-3</v>
+      </c>
+      <c r="O26" s="41">
+        <v>0.31057674334555402</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5">
+        <v>63</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>400</v>
+      </c>
+      <c r="G27" s="5">
+        <v>256</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.30769395879806299</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.30892459153860302</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.31224086058929301</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.31332593998153901</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2.31E-3</v>
+      </c>
+      <c r="O27" s="37">
+        <v>0.31054633524092101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>24</v>
+      </c>
+      <c r="C28" s="8">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5">
+        <v>34</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="5">
+        <v>300</v>
+      </c>
+      <c r="G28" s="5">
+        <v>256</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.30880653666298302</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.308677749509223</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.31098160848119699</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.31322934927677798</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="O28" s="37">
+        <v>0.31042380847339501</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>57</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>10</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1024</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.30942185303410602</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.310502234100964</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.31076696318932201</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.30934425643214197</v>
+      </c>
+      <c r="N29" s="1">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="O29" s="37">
+        <v>0.31000882728349599</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>26</v>
+      </c>
+      <c r="C30" s="45">
+        <v>14</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="F30" s="15">
+        <v>300</v>
+      </c>
+      <c r="G30" s="15">
+        <v>512</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="40">
+        <v>0.30815544606057299</v>
+      </c>
+      <c r="K30" s="40">
+        <v>0.30838440099205999</v>
+      </c>
+      <c r="L30" s="40">
+        <v>0.31255925103225701</v>
+      </c>
+      <c r="M30" s="40">
+        <v>0.31012771440009401</v>
+      </c>
+      <c r="N30" s="40">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="O30" s="41">
+        <v>0.30980670283414802</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="8">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F31" s="5">
+        <v>400</v>
+      </c>
+      <c r="G31" s="5">
+        <v>512</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.30810178477830402</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.30166600483220601</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.312273057350413</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.31437412797626302</v>
+      </c>
+      <c r="N31" s="1">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="O31" s="37">
+        <v>0.30910373902069699</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>28</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5">
+        <v>62</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F32" s="5">
+        <v>400</v>
+      </c>
+      <c r="G32" s="5">
+        <v>128</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.30531855143452002</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.306202174353987</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.31323896097652898</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.310864665690327</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3.2699999999999999E-3</v>
+      </c>
+      <c r="O32" s="37">
+        <v>0.30890608636217498</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>29</v>
+      </c>
+      <c r="C33" s="8">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="5">
+        <v>200</v>
+      </c>
+      <c r="G33" s="5">
+        <v>512</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.30468177051841999</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.30773331043709401</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.30884946573662497</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.30941222767618698</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.83E-3</v>
+      </c>
+      <c r="O33" s="37">
+        <v>0.30766919203318799</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>30</v>
+      </c>
+      <c r="C34" s="45">
+        <v>6</v>
+      </c>
+      <c r="D34" s="15">
+        <v>18</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F34" s="15">
+        <v>500</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1024</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="40">
+        <v>0.30885662058025998</v>
+      </c>
+      <c r="K34" s="40">
+        <v>0.30996562101067598</v>
+      </c>
+      <c r="L34" s="40">
+        <v>0.30541514182753299</v>
+      </c>
+      <c r="M34" s="40">
+        <v>0.30607805964759299</v>
+      </c>
+      <c r="N34" s="40">
+        <v>1.89E-3</v>
+      </c>
+      <c r="O34" s="41">
+        <v>0.307578862108766</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="8">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5">
+        <v>49</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F35" s="5">
+        <v>200</v>
+      </c>
+      <c r="G35" s="5">
+        <v>768</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.30531497369765498</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.30402710253523901</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.310373447281871</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.30847136189535601</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="O35" s="37">
+        <v>0.30704672007839401</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>32</v>
+      </c>
+      <c r="C36" s="45">
+        <v>13</v>
+      </c>
+      <c r="D36" s="15">
+        <v>2</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="15">
+        <v>400</v>
+      </c>
+      <c r="G36" s="15">
+        <v>256</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="40">
+        <v>0.30631307440399003</v>
+      </c>
+      <c r="K36" s="40">
+        <v>0.30599110652721401</v>
+      </c>
+      <c r="L36" s="40">
+        <v>0.30881369150688398</v>
+      </c>
+      <c r="M36" s="40">
+        <v>0.30364540479790703</v>
+      </c>
+      <c r="N36" s="40">
+        <v>1.83E-3</v>
+      </c>
+      <c r="O36" s="41">
+        <v>0.30619082158550598</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>33</v>
+      </c>
+      <c r="C37" s="8">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5">
+        <v>46</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>300</v>
+      </c>
+      <c r="G37" s="5">
+        <v>512</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.30256751485265598</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.30392335731895498</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.30713945860145903</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.30646084498106102</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="O37" s="37">
+        <v>0.30502279265240301</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>34</v>
+      </c>
+      <c r="C38" s="8">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5">
+        <v>69</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>100</v>
+      </c>
+      <c r="G38" s="5">
+        <v>512</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.30686757463343101</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.300184952671813</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.30721100699292098</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.30566665475723998</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="O38" s="37">
+        <v>0.30498254665201602</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>35</v>
+      </c>
+      <c r="C39" s="8">
+        <v>11</v>
+      </c>
+      <c r="D39" s="5">
+        <v>52</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F39" s="5">
+        <v>500</v>
+      </c>
+      <c r="G39" s="5">
+        <v>256</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.30544376116390398</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.30413800257596701</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.30345113780517302</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.30432153973742099</v>
+      </c>
+      <c r="N39" s="1">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="O39" s="37">
+        <v>0.304338610335883</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C40" s="45">
+        <v>14</v>
+      </c>
+      <c r="D40" s="15">
+        <v>67</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="15">
+        <v>400</v>
+      </c>
+      <c r="G40" s="15">
+        <v>512</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="40">
+        <v>0.30242441806589498</v>
+      </c>
+      <c r="K40" s="40">
+        <v>0.29677209327336901</v>
+      </c>
+      <c r="L40" s="40">
+        <v>0.30566556122115801</v>
+      </c>
+      <c r="M40" s="40">
+        <v>0.30495116802331101</v>
+      </c>
+      <c r="N40" s="40">
+        <v>3.49E-3</v>
+      </c>
+      <c r="O40" s="41">
+        <v>0.30245330791195901</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
         <v>37</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>19</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>200</v>
+      </c>
+      <c r="G41" s="5">
+        <v>512</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.30469965766546198</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.30221692765667502</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.29928702003629198</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.30267234286656203</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1.9300000000000001E-3</v>
+      </c>
+      <c r="O41" s="37">
+        <v>0.302218986650786</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
         <v>38</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="C42" s="8">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5">
+        <v>42</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F42" s="5">
+        <v>100</v>
+      </c>
+      <c r="G42" s="5">
+        <v>768</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.28757454427152102</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.290568845858304</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.29302295617430502</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.29196150696341999</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="O42" s="37">
+        <v>0.29078196226195502</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
         <v>39</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="C43" s="8">
+        <v>14</v>
+      </c>
+      <c r="D43" s="5">
+        <v>14</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F43" s="5">
+        <v>10</v>
+      </c>
+      <c r="G43" s="5">
+        <v>768</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.279124676452633</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.29273318522011799</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.29783816437351901</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.289929524461847</v>
+      </c>
+      <c r="N43" s="1">
+        <v>6.8399999999999997E-3</v>
+      </c>
+      <c r="O43" s="37">
+        <v>0.28990638760633702</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
         <v>40</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="C44" s="8">
+        <v>12</v>
+      </c>
+      <c r="D44" s="15">
+        <v>27</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F44" s="15">
+        <v>100</v>
+      </c>
+      <c r="G44" s="15">
+        <v>256</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="40">
+        <v>0.28064508050505599</v>
+      </c>
+      <c r="K44" s="40">
+        <v>0.28731697021486802</v>
+      </c>
+      <c r="L44" s="40">
+        <v>0.29117700720630502</v>
+      </c>
+      <c r="M44" s="40">
+        <v>0.29266268380131</v>
+      </c>
+      <c r="N44" s="40">
+        <v>4.6499999999999996E-3</v>
+      </c>
+      <c r="O44" s="41">
+        <v>0.287950431217457</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
         <v>41</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="C45" s="8">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>200</v>
+      </c>
+      <c r="G45" s="5">
+        <v>512</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.247772161251826</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.28915576445986801</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.301118659477212</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.295742854081816</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2.103E-2</v>
+      </c>
+      <c r="O45" s="37">
+        <v>0.28344734882113198</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>42</v>
+      </c>
+      <c r="C46" s="8">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5">
+        <v>67</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F46" s="5">
+        <v>500</v>
+      </c>
+      <c r="G46" s="5">
+        <v>128</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.26567357466709601</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.27879913140266799</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.28648700859510201</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.29006546703842701</v>
+      </c>
+      <c r="N46" s="1">
+        <v>9.3500000000000007E-3</v>
+      </c>
+      <c r="O46" s="37">
+        <v>0.28025628665293201</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>43</v>
+      </c>
+      <c r="C47" s="8">
+        <v>15</v>
+      </c>
+      <c r="D47" s="5">
         <v>3</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="E47" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F47" s="5">
+        <v>500</v>
+      </c>
+      <c r="G47" s="5">
+        <v>256</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.29296214016301297</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.30427752198494401</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.24625891224678101</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.25215898115886598</v>
+      </c>
+      <c r="N47" s="1">
+        <v>2.511E-2</v>
+      </c>
+      <c r="O47" s="37">
+        <v>0.27391440834547998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>44</v>
+      </c>
+      <c r="C48" s="45">
+        <v>15</v>
+      </c>
+      <c r="D48" s="15">
+        <v>12</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="15">
+        <v>300</v>
+      </c>
+      <c r="G48" s="15">
+        <v>512</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="40">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="K48" s="40">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="L48" s="40">
+        <v>0.30617713240307798</v>
+      </c>
+      <c r="M48" s="40">
+        <v>0.25311415592694297</v>
+      </c>
+      <c r="N48" s="40">
+        <v>2.4760000000000001E-2</v>
+      </c>
+      <c r="O48" s="41">
+        <v>0.263490689315652</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>45</v>
+      </c>
+      <c r="C49" s="8">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5">
+        <v>48</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="5">
+        <v>10</v>
+      </c>
+      <c r="G49" s="5">
+        <v>768</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.25365701820201803</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.25356042817693403</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.252180445885754</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="O49" s="37">
+        <v>0.252000897885301</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>46</v>
+      </c>
+      <c r="C50" s="19">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20">
+        <v>10</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="20">
+        <v>10</v>
+      </c>
+      <c r="G50" s="20">
+        <v>128</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="21">
+        <v>0.25365701836257998</v>
+      </c>
+      <c r="K50" s="21">
+        <v>0.25251939856386302</v>
+      </c>
+      <c r="L50" s="21">
+        <v>0.24625891225467</v>
+      </c>
+      <c r="M50" s="21">
+        <v>0.25218044574693999</v>
+      </c>
+      <c r="N50" s="21">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="O50" s="22">
+        <v>0.25115394281395498</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>47</v>
+      </c>
+      <c r="C51" s="8">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5">
+        <v>35</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F51" s="5">
+        <v>400</v>
+      </c>
+      <c r="G51" s="5">
+        <v>256</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.244255556617267</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.25251939855858502</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.25356042800144502</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.25215898115886598</v>
+      </c>
+      <c r="N51" s="1">
+        <v>3.7100000000000002E-3</v>
+      </c>
+      <c r="O51" s="37">
+        <v>0.25062358971085602</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>48</v>
+      </c>
+      <c r="C52" s="45">
+        <v>3</v>
+      </c>
+      <c r="D52" s="15">
+        <v>34</v>
+      </c>
+      <c r="E52" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F52" s="15">
+        <v>300</v>
+      </c>
+      <c r="G52" s="15">
+        <v>256</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="40">
+        <v>0.253657018365406</v>
+      </c>
+      <c r="K52" s="40">
+        <v>0.246974396390301</v>
+      </c>
+      <c r="L52" s="40">
+        <v>0.246144434782743</v>
+      </c>
+      <c r="M52" s="40">
+        <v>0.25215898115886598</v>
+      </c>
+      <c r="N52" s="40">
+        <v>3.2299999999999998E-3</v>
+      </c>
+      <c r="O52" s="41">
+        <v>0.24973370550527099</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>49</v>
+      </c>
+      <c r="C53" s="8">
         <v>4</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="D53" s="5">
+        <v>52</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F53" s="5">
+        <v>400</v>
+      </c>
+      <c r="G53" s="5">
+        <v>768</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.24425555704522101</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.25356042817693403</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.25215898132582598</v>
+      </c>
+      <c r="N53" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="O53" s="37">
+        <v>0.24964516436845399</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8">
+        <v>4</v>
+      </c>
+      <c r="D54" s="5">
+        <v>40</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="5">
+        <v>400</v>
+      </c>
+      <c r="G54" s="5">
+        <v>256</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.24769703538662499</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.25190050477444098</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.24625891224678101</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.25215898115886598</v>
+      </c>
+      <c r="N54" s="1">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="O54" s="37">
+        <v>0.24950385601705299</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>51</v>
+      </c>
+      <c r="C55" s="8">
+        <v>14</v>
+      </c>
+      <c r="D55" s="5">
+        <v>14</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F55" s="5">
+        <v>200</v>
+      </c>
+      <c r="G55" s="5">
+        <v>128</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.247697035387798</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.25190050477300102</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.24625891225467</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.252158981145645</v>
+      </c>
+      <c r="N55" s="1">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="O55" s="37">
+        <v>0.249503856015654</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>52</v>
+      </c>
+      <c r="C56" s="45">
         <v>5</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="D56" s="15">
+        <v>41</v>
+      </c>
+      <c r="E56" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="15">
+        <v>300</v>
+      </c>
+      <c r="G56" s="15">
+        <v>256</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="40">
+        <v>0.244255556617267</v>
+      </c>
+      <c r="K56" s="40">
+        <v>0.25251939855858502</v>
+      </c>
+      <c r="L56" s="40">
+        <v>0.25356042800144502</v>
+      </c>
+      <c r="M56" s="40">
+        <v>0.247182771082052</v>
+      </c>
+      <c r="N56" s="40">
+        <v>3.82E-3</v>
+      </c>
+      <c r="O56" s="41">
+        <v>0.24937954052953001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>53</v>
+      </c>
+      <c r="C57" s="8">
+        <v>4</v>
+      </c>
+      <c r="D57" s="5">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F57" s="5">
+        <v>400</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1024</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.24614443477005499</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.25215898109660201</v>
+      </c>
+      <c r="N57" s="1">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="O57" s="37">
+        <v>0.248651534739735</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>54</v>
+      </c>
+      <c r="C58" s="8">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5">
+        <v>17</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F58" s="5">
+        <v>400</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1024</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.25190050475349102</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.24614443477005499</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.24718277110284201</v>
+      </c>
+      <c r="N58" s="1">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="O58" s="37">
+        <v>0.248231187438191</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>55</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>42</v>
+      </c>
+      <c r="E59" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F59" s="5">
+        <v>500</v>
+      </c>
+      <c r="G59" s="5">
+        <v>256</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.244255556617267</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.25251939855858502</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.24625891224678101</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.24847780202749201</v>
+      </c>
+      <c r="N59" s="1">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="O59" s="37">
+        <v>0.24787791682602101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>56</v>
+      </c>
+      <c r="C60" s="45">
+        <v>7</v>
+      </c>
+      <c r="D60" s="15">
+        <v>14</v>
+      </c>
+      <c r="E60" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F60" s="15">
+        <v>200</v>
+      </c>
+      <c r="G60" s="15">
+        <v>768</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="40">
+        <v>0.24425555704522101</v>
+      </c>
+      <c r="K60" s="40">
+        <v>0.25187904034977898</v>
+      </c>
+      <c r="L60" s="40">
+        <v>0.246144435011699</v>
+      </c>
+      <c r="M60" s="40">
+        <v>0.24847780223326099</v>
+      </c>
+      <c r="N60" s="40">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="O60" s="41">
+        <v>0.247689207954707</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>57</v>
+      </c>
+      <c r="C61" s="8">
         <v>2</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>47</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D61" s="5">
+        <v>14</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F61" s="5">
+        <v>400</v>
+      </c>
+      <c r="G61" s="5">
+        <v>768</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.24769703547383701</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.246144435011699</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.24718277108855599</v>
+      </c>
+      <c r="N61" s="1">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="O61" s="37">
+        <v>0.247407485574202</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>58</v>
+      </c>
+      <c r="C62" s="8">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5">
+        <v>69</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F62" s="5">
         <v>300</v>
       </c>
-      <c r="G5" s="6">
-        <v>256</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="6" t="b">
+      <c r="G62" s="5">
+        <v>128</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>0.31599715237318798</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.31124991502442201</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.31658027195254002</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.31515043109268298</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2.0799999999999998E-3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.31474444224761</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="J62" s="1">
+        <v>0.24425555662974099</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.24860570025732001</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.24625891225467</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.248477802026106</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1.7899999999999999E-3</v>
+      </c>
+      <c r="O62" s="37">
+        <v>0.246899491380389</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>59</v>
+      </c>
+      <c r="C63" s="19">
+        <v>9</v>
+      </c>
+      <c r="D63" s="20">
+        <v>8</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="F63" s="20">
+        <v>400</v>
+      </c>
+      <c r="G63" s="20">
+        <v>512</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="21">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="K63" s="21">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="L63" s="21">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="M63" s="21">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="N63" s="21">
+        <v>1.8E-3</v>
+      </c>
+      <c r="O63" s="22">
+        <v>0.24687087197417701</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>60</v>
+      </c>
+      <c r="C64" s="45">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6">
-        <v>128</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="6" t="b">
+      <c r="D64" s="15">
+        <v>25</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F64" s="15">
+        <v>50</v>
+      </c>
+      <c r="G64" s="15">
+        <v>768</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.25365701836257998</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.25251939856386302</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.24625891225467</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.25218044574693999</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2.8800000000000002E-3</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.25115394281395498</v>
+      <c r="J64" s="40">
+        <v>0.24425555704522101</v>
+      </c>
+      <c r="K64" s="40">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="L64" s="40">
+        <v>0.24625891275645601</v>
+      </c>
+      <c r="M64" s="40">
+        <v>0.24718277108855599</v>
+      </c>
+      <c r="N64" s="40">
+        <v>1.58E-3</v>
+      </c>
+      <c r="O64" s="41">
+        <v>0.24657573465935601</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="J3:O3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1586,138 +5407,2648 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C261FB40-C053-4933-B9D1-58028D6413F2}">
-  <dimension ref="B2:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FC45D7-5B1D-4989-90D7-BD2FD38564A0}">
+  <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="19" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="48"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="N4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M5" s="5">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.31317814477306299</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.31166847321115798</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.31452683245596502</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.31310413914115198</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.01E-3</v>
+      </c>
+      <c r="S5" s="37">
+        <v>0.31311939740898098</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="J6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M6" s="5">
+        <v>200</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.31214427020091801</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.30863839791699599</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.31333912870441399</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.31159088468886798</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.73E-3</v>
+      </c>
+      <c r="S6" s="37">
+        <v>0.31142817023227498</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>38</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="5">
+        <v>512</v>
+      </c>
+      <c r="M7" s="5">
+        <v>100</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.30767964910610202</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.30913923677599803</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.31208345407778698</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.311497871402729</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="S7" s="37">
+        <v>0.31010005159050702</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>70</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="5">
+        <v>512</v>
+      </c>
+      <c r="M8" s="5">
+        <v>400</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.30849530103556</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.30482844477988003</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.30892816894986502</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.30883983827718697</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="S8" s="37">
+        <v>0.30777293730643501</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>256</v>
+      </c>
+      <c r="M9" s="5">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.30329015386678498</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.29936572330060102</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.30880295924068601</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.30709762817349701</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3.64E-3</v>
+      </c>
+      <c r="S9" s="37">
+        <v>0.30463911394660698</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>59</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="5">
+        <v>68</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M10" s="5">
+        <v>200</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.30230994057083099</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.29896862957930798</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.29497265060758898</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.30023968805248502</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="S10" s="37">
+        <v>0.29912272620359298</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="5">
+        <v>58</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M11" s="5">
+        <v>300</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.24425555657824599</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.25190050475349102</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.25356042798939799</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.25215898109660201</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3.64E-3</v>
+      </c>
+      <c r="S11" s="37">
+        <v>0.250468866092871</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="45">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15">
+        <v>25</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="15">
+        <v>18</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="15">
+        <v>128</v>
+      </c>
+      <c r="M12" s="15">
+        <v>100</v>
+      </c>
+      <c r="N12" s="40">
+        <v>0.24425555662974099</v>
+      </c>
+      <c r="O12" s="40">
+        <v>0.25190050477300102</v>
+      </c>
+      <c r="P12" s="40">
+        <v>0.25403622496311201</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>0.24718277108130601</v>
+      </c>
+      <c r="R12" s="40">
+        <v>3.8400000000000001E-3</v>
+      </c>
+      <c r="S12" s="41">
+        <v>0.24934376629448701</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="5">
+        <v>49</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="5">
+        <v>512</v>
+      </c>
+      <c r="M13" s="5">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.25356042801253298</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="S13" s="37">
+        <v>0.24926148554835301</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="5">
+        <v>63</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="5">
+        <v>50</v>
+      </c>
+      <c r="M14" s="5">
+        <v>256</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.25439038961817301</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.24625891224678101</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.247182771082052</v>
+      </c>
+      <c r="R14" s="1">
+        <v>3.16E-3</v>
+      </c>
+      <c r="S14" s="37">
+        <v>0.249109445025918</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>66</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>53</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L15" s="5">
+        <v>128</v>
+      </c>
+      <c r="M15" s="5">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.25365701836257998</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.24860570025732001</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.24625891225467</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.24718277108130601</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="S15" s="37">
+        <v>0.24892610204812601</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C16" s="45">
+        <v>10</v>
+      </c>
+      <c r="D16" s="15">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="15">
+        <v>19</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="15">
+        <v>256</v>
+      </c>
+      <c r="M16" s="15">
+        <v>10</v>
+      </c>
+      <c r="N16" s="40">
+        <v>0.24769703538662499</v>
+      </c>
+      <c r="O16" s="40">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P16" s="40">
+        <v>0.24625891224678101</v>
+      </c>
+      <c r="Q16" s="40">
+        <v>0.25218044575653598</v>
+      </c>
+      <c r="R16" s="40">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="S16" s="41">
+        <v>0.24868552028781701</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="D4" t="b">
+      <c r="C17" s="8">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="G17" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="5">
+        <v>30</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="L17" s="5">
+        <v>512</v>
+      </c>
+      <c r="M17" s="5">
+        <v>200</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.25190050478398301</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="S17" s="37">
+        <v>0.248554944316522</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="5">
+        <v>61</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M18" s="5">
+        <v>10</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.24697439637921301</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.24614443477005499</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.25215898109660201</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2.33E-3</v>
+      </c>
+      <c r="S18" s="37">
+        <v>0.248243708403761</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="D5" t="b">
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>58</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>256</v>
+      </c>
+      <c r="M19" s="5">
+        <v>50</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.244255556617267</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.24625891224678101</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.25218044575653598</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="S19" s="37">
+        <v>0.24782514982600001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="45">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15">
+        <v>67</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="15">
+        <v>19</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="L20" s="15">
+        <v>1024</v>
+      </c>
+      <c r="M20" s="15">
+        <v>400</v>
+      </c>
+      <c r="N20" s="40">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O20" s="40">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P20" s="40">
+        <v>0.24625891222785601</v>
+      </c>
+      <c r="Q20" s="40">
+        <v>0.248477802043058</v>
+      </c>
+      <c r="R20" s="40">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="S20" s="41">
+        <v>0.247759861835609</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C21" s="8">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H21" s="5">
+        <v>65</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L21" s="5">
+        <v>768</v>
+      </c>
+      <c r="M21" s="5">
+        <v>500</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.24425555704522101</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.252519398211552</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.24625891275645601</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.24718277108855599</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3.0599999999999998E-3</v>
+      </c>
+      <c r="S21" s="37">
+        <v>0.24755416010760001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>50</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L22" s="5">
+        <v>512</v>
+      </c>
+      <c r="M22" s="5">
+        <v>300</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R22" s="1">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="S22" s="37">
+        <v>0.24743610497344301</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C23" s="8">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>24</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="5">
+        <v>58</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="L23" s="5">
+        <v>768</v>
+      </c>
+      <c r="M23" s="5">
+        <v>500</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.24769703547383701</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.24697439667005999</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.246144435011699</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.24847780223326099</v>
+      </c>
+      <c r="R23" s="1">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="S23" s="37">
+        <v>0.247323416314783</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
+        <v>20</v>
+      </c>
+      <c r="C24" s="45">
+        <v>4</v>
+      </c>
+      <c r="D24" s="15">
+        <v>27</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H24" s="15">
+        <v>29</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L24" s="15">
+        <v>512</v>
+      </c>
+      <c r="M24" s="15">
+        <v>100</v>
+      </c>
+      <c r="N24" s="40">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O24" s="40">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P24" s="40">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R24" s="40">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="S24" s="41">
+        <v>0.24702827864850399</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>49</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H25" s="5">
+        <v>71</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L25" s="5">
+        <v>512</v>
+      </c>
+      <c r="M25" s="5">
+        <v>10</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="S25" s="37">
+        <v>0.24687087197417701</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="20">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>57</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H26" s="5">
+        <v>71</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="L26" s="5">
+        <v>500</v>
+      </c>
+      <c r="M26" s="5">
+        <v>512</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="S26" s="37">
+        <v>0.24657573450475001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>8</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M27" s="5">
+        <v>300</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.24425555657824599</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.24625891222785601</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.24718277110284201</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="S27" s="37">
+        <v>0.24657573450036599</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C28" s="45">
+        <v>3</v>
+      </c>
+      <c r="D28" s="15">
+        <v>50</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="H28" s="15">
+        <v>4</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L28" s="15">
+        <v>768</v>
+      </c>
+      <c r="M28" s="15">
+        <v>200</v>
+      </c>
+      <c r="N28" s="40">
+        <v>0.24425555704522101</v>
+      </c>
+      <c r="O28" s="40">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="P28" s="40">
+        <v>0.246144435011699</v>
+      </c>
+      <c r="Q28" s="40">
+        <v>0.24718277108855599</v>
+      </c>
+      <c r="R28" s="40">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S28" s="41">
+        <v>0.246547115197571</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>51</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="5">
+        <v>14</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="5">
+        <v>500</v>
+      </c>
+      <c r="M29" s="5">
+        <v>512</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S29" s="37">
+        <v>0.24654711511178501</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="20">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C30" s="8">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
+        <v>58</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>35</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L30" s="5">
+        <v>512</v>
+      </c>
+      <c r="M30" s="5">
+        <v>100</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="S30" s="37">
+        <v>0.24646304564923799</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>54</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="5">
+        <v>49</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M31" s="5">
+        <v>100</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.24425555657824599</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.24697439637921301</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.24625891222785601</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.24718277110284201</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1.16E-3</v>
+      </c>
+      <c r="S31" s="37">
+        <v>0.24616790816439099</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="20">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
+      <c r="C32" s="45">
+        <v>2</v>
+      </c>
+      <c r="D32" s="15">
+        <v>67</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H32" s="15">
+        <v>24</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L32" s="15">
+        <v>400</v>
+      </c>
+      <c r="M32" s="15">
+        <v>512</v>
+      </c>
+      <c r="N32" s="40">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O32" s="40">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P32" s="40">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q32" s="40">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R32" s="40">
+        <v>1.15E-3</v>
+      </c>
+      <c r="S32" s="41">
+        <v>0.24613928878684599</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="N3:S3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED12A95D-6B4E-4050-8800-A1B9AE46B969}">
+  <dimension ref="B1:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="9">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="33">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15">
+        <v>4</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="33">
+        <v>16</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="9">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="9">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="33">
+        <v>13</v>
+      </c>
+      <c r="F17" s="15">
+        <v>4</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="42">
+        <v>6</v>
+      </c>
+      <c r="F22" s="42">
+        <v>4</v>
+      </c>
+      <c r="G22" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H22" s="43">
+        <v>43329</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N22" s="34">
+        <v>43327</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="42">
+        <v>3</v>
+      </c>
+      <c r="F23" s="42">
+        <v>4</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H23" s="43">
+        <v>43329</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="15">
+        <v>9</v>
+      </c>
+      <c r="L23" s="15">
+        <v>2</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="N23" s="36">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="42">
+        <v>4</v>
+      </c>
+      <c r="F24" s="42">
+        <v>4</v>
+      </c>
+      <c r="G24" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H24" s="43">
+        <v>43329</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="15">
+        <v>10</v>
+      </c>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="N24" s="36">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="42">
+        <v>0</v>
+      </c>
+      <c r="F25" s="42">
+        <v>4</v>
+      </c>
+      <c r="G25" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H25" s="43">
+        <v>43329</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="15">
+        <v>16</v>
+      </c>
+      <c r="L25" s="15">
+        <v>2</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="N25" s="36">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="42">
+        <v>11</v>
+      </c>
+      <c r="F26" s="42">
+        <v>4</v>
+      </c>
+      <c r="G26" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H26" s="43">
+        <v>43329</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="36"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="42">
+        <v>12</v>
+      </c>
+      <c r="F27" s="42">
+        <v>4</v>
+      </c>
+      <c r="G27" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H27" s="43">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="42">
+        <v>8</v>
+      </c>
+      <c r="F28" s="42">
+        <v>4</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H28" s="43">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="42">
+        <v>7</v>
+      </c>
+      <c r="F29" s="42">
+        <v>4</v>
+      </c>
+      <c r="G29" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H29" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="42">
+        <v>0</v>
+      </c>
+      <c r="F30" s="42">
+        <v>4</v>
+      </c>
+      <c r="G30" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H30" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="42">
+        <v>1</v>
+      </c>
+      <c r="F31" s="42">
+        <v>4</v>
+      </c>
+      <c r="G31" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H31" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="42">
+        <v>15</v>
+      </c>
+      <c r="F32" s="42">
+        <v>4</v>
+      </c>
+      <c r="G32" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H32" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="42">
+        <v>4</v>
+      </c>
+      <c r="F33" s="42">
+        <v>4</v>
+      </c>
+      <c r="G33" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H33" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="42">
+        <v>3</v>
+      </c>
+      <c r="F34" s="42">
+        <v>4</v>
+      </c>
+      <c r="G34" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H34" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="42">
+        <v>2</v>
+      </c>
+      <c r="F35" s="42">
+        <v>4</v>
+      </c>
+      <c r="G35" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H35" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="42">
+        <v>13</v>
+      </c>
+      <c r="F36" s="42">
+        <v>4</v>
+      </c>
+      <c r="G36" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H36" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="42">
+        <v>14</v>
+      </c>
+      <c r="F37" s="42">
+        <v>4</v>
+      </c>
+      <c r="G37" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H37" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="42">
+        <v>5</v>
+      </c>
+      <c r="F38" s="42">
+        <v>4</v>
+      </c>
+      <c r="G38" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H38" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="42">
+        <v>5</v>
+      </c>
+      <c r="F39" s="42">
+        <v>4</v>
+      </c>
+      <c r="G39" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H39" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="42">
+        <v>2</v>
+      </c>
+      <c r="F40" s="42">
+        <v>4</v>
+      </c>
+      <c r="G40" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H40" s="43">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="39"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="J3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Results/Neural Networks/Results.xlsx
+++ b/Results/Neural Networks/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Neural Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4507EE2F-5046-4D9B-B6F6-9B0578B4742B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037BF7F8-4D53-4490-92DC-8606C368377E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Layer Results" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="49">
   <si>
     <t>Accuracy</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Laptop (GTX 970M, 3GB VRAM)</t>
   </si>
   <si>
-    <t>BEFORE NEXT DELETEING VM ADD PREDICTORLIGHT.PY TO IMAGE</t>
-  </si>
-  <si>
     <t>Current</t>
   </si>
   <si>
@@ -172,6 +169,12 @@
   <si>
     <t>snd L2 regularization?</t>
   </si>
+  <si>
+    <t>Seeds greater than 6 only consider relu, tanh, and leaky relu for activation functions</t>
+  </si>
+  <si>
+    <t>leaky relu</t>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +328,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -825,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,6 +965,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,6 +984,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1020,6 +1055,193 @@
   </cellStyles>
   <dxfs count="78">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1365,275 +1587,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1751,15 +1704,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1767,6 +1711,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2066,8 +2019,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2078,13 +2032,101 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2097,38 +2139,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2141,19 +2156,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2166,20 +2173,14 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2189,19 +2190,66 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2217,29 +2265,16 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2266,112 +2301,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C4:O64" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C4:O64" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="C4:O64" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C5:O64">
     <sortCondition descending="1" ref="O4:O64"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="13" xr3:uid="{EE2C5B4A-1B3A-4EB1-A894-4751D2C028F6}" name="Seed" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="neurons" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="lambda for regularization" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="epochs" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="batch size" dataDxfId="30"/>
-    <tableColumn id="1" xr3:uid="{24F530F9-DE02-4399-8645-3C0C5F5DF324}" name="activation function" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{ECF95DDC-BE5B-412C-975B-DD91E0308F9D}" name="L2 regularization?" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{EE2C5B4A-1B3A-4EB1-A894-4751D2C028F6}" name="Seed" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="neurons" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="lambda for regularization" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="epochs" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="batch size" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{24F530F9-DE02-4399-8645-3C0C5F5DF324}" name="activation function" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{ECF95DDC-BE5B-412C-975B-DD91E0308F9D}" name="L2 regularization?" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="65" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="64" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="63" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="62" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="61" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="60" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B626D81A-C02C-4E76-AFEC-DB56EAC289A8}" name="Table62" displayName="Table62" ref="C4:S32" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
-  <autoFilter ref="C4:S32" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
-  <sortState ref="C5:S32">
-    <sortCondition descending="1" ref="S4:S32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B626D81A-C02C-4E76-AFEC-DB56EAC289A8}" name="Table62" displayName="Table62" ref="C4:S60" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+  <autoFilter ref="C4:S60" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
+  <sortState ref="C5:S60">
+    <sortCondition descending="1" ref="S4:S60"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="13" xr3:uid="{452FFD92-6934-49FF-9D05-6F560AF5344A}" name="Seed" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E211E446-DB45-4B2F-8FDE-865764964C4D}" name="fst neurons" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{2EC2EDFF-0EFF-4F71-9940-8CC8668BC8E6}" name="fst activation" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{22296FAD-856C-4ECC-AF57-6A26A43504CF}" name="fst L2 regularization?" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{65D1305B-A0A6-4CAC-A5C1-9DDE6AE12195}" name="fst lambda" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{1BC0484B-7EB1-43A5-AD2A-4E6B52D74DE6}" name="snd neurons" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{1EC5378D-3595-4261-8F58-0AFAC8260C63}" name="snd activation" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{5C688FFA-D11B-4D06-8E43-6B55E9DA6959}" name="snd L2 regularization?" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{9F9B91EE-FC3B-4A59-BC66-DC774FCDE125}" name="snd lambda" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{C5D2E6BF-EF52-4FB1-A6D3-1C816201B2DA}" name="batch size" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{E0656082-56E5-4465-89B4-696632D69AF8}" name="epochs" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{DBCA6EB0-E4C0-42EF-BE92-1A9E8442469D}" name="Fold 1" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{EC12F9E1-C75D-4875-A833-0F15BC178545}" name="Fold 2" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{26A3F004-7925-4AC1-B8AA-61B5BFFF8E9C}" name="Fold 3" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{515B2D70-36D2-4551-8AF8-FB856656F166}" name="Fold 4" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{B7C360CC-32DA-421D-97D5-43E7B4BF762C}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{06DFEA4B-3831-4FEC-B841-9586DC6F5715}" name="Average" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{452FFD92-6934-49FF-9D05-6F560AF5344A}" name="Seed" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{E211E446-DB45-4B2F-8FDE-865764964C4D}" name="fst neurons" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2EC2EDFF-0EFF-4F71-9940-8CC8668BC8E6}" name="fst activation" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{22296FAD-856C-4ECC-AF57-6A26A43504CF}" name="fst L2 regularization?" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{65D1305B-A0A6-4CAC-A5C1-9DDE6AE12195}" name="fst lambda" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{1BC0484B-7EB1-43A5-AD2A-4E6B52D74DE6}" name="snd neurons" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{1EC5378D-3595-4261-8F58-0AFAC8260C63}" name="snd activation" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{5C688FFA-D11B-4D06-8E43-6B55E9DA6959}" name="snd L2 regularization?" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{9F9B91EE-FC3B-4A59-BC66-DC774FCDE125}" name="snd lambda" dataDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{C5D2E6BF-EF52-4FB1-A6D3-1C816201B2DA}" name="batch size" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{E0656082-56E5-4465-89B4-696632D69AF8}" name="epochs" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{DBCA6EB0-E4C0-42EF-BE92-1A9E8442469D}" name="Fold 1" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{EC12F9E1-C75D-4875-A833-0F15BC178545}" name="Fold 2" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{26A3F004-7925-4AC1-B8AA-61B5BFFF8E9C}" name="Fold 3" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{515B2D70-36D2-4551-8AF8-FB856656F166}" name="Fold 4" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{B7C360CC-32DA-421D-97D5-43E7B4BF762C}" name="Std" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{06DFEA4B-3831-4FEC-B841-9586DC6F5715}" name="Average" dataDxfId="10" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50F8C802-D311-4C69-8481-D273E90B8433}" name="Table2" displayName="Table2" ref="B7:G17" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50F8C802-D311-4C69-8481-D273E90B8433}" name="Table2" displayName="Table2" ref="B7:G17" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="B7:G17" xr:uid="{70C82073-811F-4A54-B2B3-3DB77FF5C36C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{18FC7DFE-397D-4DDB-859B-4A104BD44CCD}" name="Name " dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{01B6744D-B816-40D4-84B3-175F903B295E}" name="Tmux Session" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{47B77FC0-D447-4D1E-8BFB-6E36FCD91316}" name="Problem" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{BAF46EA2-DA73-4B0F-AEB3-6697ED34B0D4}" name="Seed" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{AE7FC2B8-0BBE-4228-9773-538D5A9CA57B}" name="Iterations" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{36E77298-3202-4BD7-B390-CD219E2979DF}" name="memory_frac" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{18FC7DFE-397D-4DDB-859B-4A104BD44CCD}" name="Name " dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{01B6744D-B816-40D4-84B3-175F903B295E}" name="Tmux Session" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{47B77FC0-D447-4D1E-8BFB-6E36FCD91316}" name="Problem" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BAF46EA2-DA73-4B0F-AEB3-6697ED34B0D4}" name="Seed" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AE7FC2B8-0BBE-4228-9773-538D5A9CA57B}" name="Iterations" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{36E77298-3202-4BD7-B390-CD219E2979DF}" name="memory_frac" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F37C1BB-14AB-4ED5-B695-8219BE02F724}" name="Table4" displayName="Table4" ref="J21:N26" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
-  <autoFilter ref="J21:N26" xr:uid="{AD4FD850-4C47-4712-B179-3C0B538018A4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F37C1BB-14AB-4ED5-B695-8219BE02F724}" name="Table4" displayName="Table4" ref="J21:N30" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+  <autoFilter ref="J21:N30" xr:uid="{AD4FD850-4C47-4712-B179-3C0B538018A4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6186C0A3-B1B9-48C3-87BB-452371F2A06B}" name="Problem" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{E63CCF47-A735-4887-9F29-B0454106EC9E}" name="Seed" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{A0A69E40-405F-4807-B314-BF1FEBC75551}" name="Iterations" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{8F5D51A8-8898-4C0F-94B9-62EF59F4A6C2}" name="memory_frac" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{12B3A7AC-1E5D-4371-9B5A-57C8BFBF0B25}" name="Completed" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{6186C0A3-B1B9-48C3-87BB-452371F2A06B}" name="Problem" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{E63CCF47-A735-4887-9F29-B0454106EC9E}" name="Seed" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{A0A69E40-405F-4807-B314-BF1FEBC75551}" name="Iterations" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{8F5D51A8-8898-4C0F-94B9-62EF59F4A6C2}" name="memory_frac" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{12B3A7AC-1E5D-4371-9B5A-57C8BFBF0B25}" name="Completed" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FBFF0E64-1CE7-40BA-A8FD-1E70546B81F2}" name="Table5" displayName="Table5" ref="J7:M9" totalsRowShown="0" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FBFF0E64-1CE7-40BA-A8FD-1E70546B81F2}" name="Table5" displayName="Table5" ref="J7:M9" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <autoFilter ref="J7:M9" xr:uid="{4B443EFB-2A03-42D5-9ACF-9FF9F1212F43}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{960C5177-250E-4233-AF2A-BA6973714243}" name="Problem" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{3115131B-F046-4B1D-9D89-92E1E8B330C7}" name="Seed" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{58062F58-4774-43B7-BE3D-A3867AFE7A44}" name="Iterations" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{BEC89436-CE5F-4668-8732-3B2902052FC8}" name="memory_frac" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{960C5177-250E-4233-AF2A-BA6973714243}" name="Problem" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{3115131B-F046-4B1D-9D89-92E1E8B330C7}" name="Seed" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{58062F58-4774-43B7-BE3D-A3867AFE7A44}" name="Iterations" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{BEC89436-CE5F-4668-8732-3B2902052FC8}" name="memory_frac" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4ADA31A-F24C-4F99-BDA3-3D90F7BFCB10}" name="Table3" displayName="Table3" ref="B21:H41" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="47">
-  <autoFilter ref="B21:H41" xr:uid="{E48B09AF-DF99-4634-B72D-76260B2094E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4ADA31A-F24C-4F99-BDA3-3D90F7BFCB10}" name="Table3" displayName="Table3" ref="B21:H46" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
+  <autoFilter ref="B21:H46" xr:uid="{E48B09AF-DF99-4634-B72D-76260B2094E2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9FBD64CA-D43C-4696-B8DA-24C92108326A}" name="Name " dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{078173AE-DF7C-4E92-B4B6-A3FF25932F07}" name="Tmux Session" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{EE8E8CA3-BADD-4408-9166-BD1D4AE032B6}" name="Problem" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{D6C58D65-DD4C-4644-8CEE-AD9275A25E8B}" name="Seed" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{254C4F23-D96E-4A1E-BC1F-1690DAA9AAC5}" name="Iterations" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{C9647215-55F5-4756-819F-DB4FC6BBE28E}" name="memory_frac" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{26F1C347-D9D8-4020-8F4D-46C153498856}" name="Completed" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{9FBD64CA-D43C-4696-B8DA-24C92108326A}" name="Name " dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{078173AE-DF7C-4E92-B4B6-A3FF25932F07}" name="Tmux Session" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{EE8E8CA3-BADD-4408-9166-BD1D4AE032B6}" name="Problem" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{D6C58D65-DD4C-4644-8CEE-AD9275A25E8B}" name="Seed" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{254C4F23-D96E-4A1E-BC1F-1690DAA9AAC5}" name="Iterations" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{C9647215-55F5-4756-819F-DB4FC6BBE28E}" name="memory_frac" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{26F1C347-D9D8-4020-8F4D-46C153498856}" name="Completed" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2677,7 +2712,7 @@
   <dimension ref="B2:O64"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,22 +2727,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -2720,7 +2755,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>10</v>
@@ -2732,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>3</v>
@@ -2773,7 +2808,7 @@
         <v>768</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="5" t="b">
         <v>1</v>
@@ -2817,7 +2852,7 @@
         <v>768</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="5" t="b">
         <v>1</v>
@@ -2861,7 +2896,7 @@
         <v>1024</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="5" t="b">
         <v>1</v>
@@ -2905,7 +2940,7 @@
         <v>1024</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="15" t="b">
         <v>0</v>
@@ -2949,7 +2984,7 @@
         <v>128</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="5" t="b">
         <v>1</v>
@@ -2993,7 +3028,7 @@
         <v>512</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="15" t="b">
         <v>0</v>
@@ -3037,7 +3072,7 @@
         <v>512</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="5" t="b">
         <v>1</v>
@@ -3125,7 +3160,7 @@
         <v>768</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="5" t="b">
         <v>1</v>
@@ -3213,7 +3248,7 @@
         <v>512</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="5" t="b">
         <v>0</v>
@@ -3257,7 +3292,7 @@
         <v>128</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="5" t="b">
         <v>1</v>
@@ -3301,7 +3336,7 @@
         <v>1024</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="20" t="b">
         <v>0</v>
@@ -3433,7 +3468,7 @@
         <v>1024</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -3653,7 +3688,7 @@
         <v>768</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="5" t="b">
         <v>0</v>
@@ -3697,7 +3732,7 @@
         <v>256</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" s="15" t="b">
         <v>0</v>
@@ -3873,7 +3908,7 @@
         <v>512</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" s="15" t="b">
         <v>0</v>
@@ -3917,7 +3952,7 @@
         <v>512</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" s="5" t="b">
         <v>0</v>
@@ -4005,7 +4040,7 @@
         <v>512</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" s="5" t="b">
         <v>0</v>
@@ -4313,7 +4348,7 @@
         <v>512</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I40" s="15" t="b">
         <v>0</v>
@@ -4445,7 +4480,7 @@
         <v>768</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="5" t="b">
         <v>1</v>
@@ -4533,7 +4568,7 @@
         <v>512</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I45" s="5" t="b">
         <v>1</v>
@@ -4621,7 +4656,7 @@
         <v>256</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I47" s="5" t="b">
         <v>0</v>
@@ -4665,7 +4700,7 @@
         <v>512</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I48" s="15" t="b">
         <v>1</v>
@@ -4709,7 +4744,7 @@
         <v>768</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I49" s="5" t="b">
         <v>0</v>
@@ -4841,7 +4876,7 @@
         <v>256</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52" s="15" t="b">
         <v>0</v>
@@ -4885,7 +4920,7 @@
         <v>768</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53" s="5" t="b">
         <v>0</v>
@@ -5105,7 +5140,7 @@
         <v>1024</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I58" s="5" t="b">
         <v>0</v>
@@ -5149,7 +5184,7 @@
         <v>256</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59" s="5" t="b">
         <v>0</v>
@@ -5193,7 +5228,7 @@
         <v>768</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I60" s="15" t="b">
         <v>1</v>
@@ -5369,7 +5404,7 @@
         <v>768</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I64" s="15" t="b">
         <v>0</v>
@@ -5408,10 +5443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FC45D7-5B1D-4989-90D7-BD2FD38564A0}">
-  <dimension ref="B2:S32"/>
+  <dimension ref="B2:S60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5426,22 +5461,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -5451,28 +5489,28 @@
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="H4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>11</v>
@@ -5504,55 +5542,55 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5">
         <v>59</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="5">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="J5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L5" s="5">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M5" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1">
-        <v>0.31317814477306299</v>
+        <v>0.31529240048029999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.31166847321115798</v>
+        <v>0.312036947599172</v>
       </c>
       <c r="P5" s="1">
-        <v>0.31452683245596502</v>
+        <v>0.31720989800293597</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.31310413914115198</v>
+        <v>0.316806782814329</v>
       </c>
       <c r="R5" s="1">
-        <v>1.01E-3</v>
+        <v>2.0300000000000001E-3</v>
       </c>
       <c r="S5" s="37">
-        <v>0.31311939740898098</v>
+        <v>0.31533650590923501</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -5560,25 +5598,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="5">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J6" s="5" t="b">
         <v>1</v>
@@ -5587,28 +5625,28 @@
         <v>0.05</v>
       </c>
       <c r="L6" s="5">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M6" s="5">
         <v>200</v>
       </c>
       <c r="N6" s="1">
-        <v>0.31214427020091801</v>
+        <v>0.31492392612725501</v>
       </c>
       <c r="O6" s="1">
-        <v>0.30863839791699599</v>
+        <v>0.31462342281112898</v>
       </c>
       <c r="P6" s="1">
-        <v>0.31333912870441399</v>
+        <v>0.31584332325647202</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.31159088468886798</v>
+        <v>0.31570493329323102</v>
       </c>
       <c r="R6" s="1">
-        <v>1.73E-3</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="S6" s="37">
-        <v>0.31142817023227498</v>
+        <v>0.31527390098652602</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -5616,10 +5654,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
@@ -5631,40 +5669,40 @@
         <v>1E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J7" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L7" s="5">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M7" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1">
-        <v>0.30767964910610202</v>
+        <v>0.31543191991848901</v>
       </c>
       <c r="O7" s="1">
-        <v>0.30913923677599803</v>
+        <v>0.31190100565700501</v>
       </c>
       <c r="P7" s="1">
-        <v>0.31208345407778698</v>
+        <v>0.31627261376015497</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.311497871402729</v>
+        <v>0.31427038238372001</v>
       </c>
       <c r="R7" s="1">
-        <v>1.7799999999999999E-3</v>
+        <v>1.64E-3</v>
       </c>
       <c r="S7" s="37">
-        <v>0.31010005159050702</v>
+        <v>0.31446898060745998</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -5672,22 +5710,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>13</v>
@@ -5696,31 +5734,31 @@
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L8" s="5">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M8" s="5">
         <v>400</v>
       </c>
       <c r="N8" s="1">
-        <v>0.30849530103556</v>
+        <v>0.31688077528540398</v>
       </c>
       <c r="O8" s="1">
-        <v>0.30482844477988003</v>
+        <v>0.31190100565199402</v>
       </c>
       <c r="P8" s="1">
-        <v>0.30892816894986502</v>
+        <v>0.31388289672075098</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.30883983827718697</v>
+        <v>0.31503595324555</v>
       </c>
       <c r="R8" s="1">
-        <v>1.7099999999999999E-3</v>
+        <v>1.81E-3</v>
       </c>
       <c r="S8" s="37">
-        <v>0.30777293730643501</v>
+        <v>0.31442515717965602</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
@@ -5728,22 +5766,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="H9" s="5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>13</v>
@@ -5752,31 +5790,31 @@
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <v>1E-3</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="5">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M9" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N9" s="1">
-        <v>0.30329015386678498</v>
+        <v>0.314133316163419</v>
       </c>
       <c r="O9" s="1">
-        <v>0.29936572330060102</v>
+        <v>0.31356450626398003</v>
       </c>
       <c r="P9" s="1">
-        <v>0.30880295924068601</v>
+        <v>0.31501336163089599</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.30709762817349701</v>
+        <v>0.31188065686136501</v>
       </c>
       <c r="R9" s="1">
-        <v>3.64E-3</v>
+        <v>1.14E-3</v>
       </c>
       <c r="S9" s="37">
-        <v>0.30463911394660698</v>
+        <v>0.31364796181051302</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
@@ -5784,22 +5822,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5">
         <v>59</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" s="5">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
@@ -5808,31 +5846,31 @@
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L10" s="5">
         <v>1024</v>
       </c>
       <c r="M10" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="1">
-        <v>0.30230994057083099</v>
+        <v>0.31317814477306299</v>
       </c>
       <c r="O10" s="1">
-        <v>0.29896862957930798</v>
+        <v>0.31166847321115798</v>
       </c>
       <c r="P10" s="1">
-        <v>0.29497265060758898</v>
+        <v>0.31452683245596502</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.30023968805248502</v>
+        <v>0.31310413914115198</v>
       </c>
       <c r="R10" s="1">
-        <v>2.6800000000000001E-3</v>
+        <v>1.01E-3</v>
       </c>
       <c r="S10" s="37">
-        <v>0.29912272620359298</v>
+        <v>0.31311939740898098</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -5840,111 +5878,111 @@
         <v>7</v>
       </c>
       <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="b">
-        <v>0</v>
-      </c>
       <c r="G11" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="H11" s="5">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J11" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L11" s="5">
         <v>1024</v>
       </c>
       <c r="M11" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" s="1">
-        <v>0.24425555657824599</v>
+        <v>0.31214427020091801</v>
       </c>
       <c r="O11" s="1">
-        <v>0.25190050475349102</v>
+        <v>0.30863839791699599</v>
       </c>
       <c r="P11" s="1">
-        <v>0.25356042798939799</v>
+        <v>0.31333912870441399</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.25215898109660201</v>
+        <v>0.31159088468886798</v>
       </c>
       <c r="R11" s="1">
-        <v>3.64E-3</v>
+        <v>1.73E-3</v>
       </c>
       <c r="S11" s="37">
-        <v>0.250468866092871</v>
+        <v>0.31142817023227498</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="46">
+        <v>14</v>
+      </c>
+      <c r="D12" s="15">
+        <v>50</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>60</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1024</v>
+      </c>
+      <c r="M12" s="15">
         <v>10</v>
       </c>
-      <c r="D12" s="15">
-        <v>25</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="15">
-        <v>18</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="L12" s="15">
-        <v>128</v>
-      </c>
-      <c r="M12" s="15">
-        <v>100</v>
-      </c>
       <c r="N12" s="40">
-        <v>0.24425555662974099</v>
+        <v>0.31294561249140301</v>
       </c>
       <c r="O12" s="40">
-        <v>0.25190050477300102</v>
+        <v>0.307940800840663</v>
       </c>
       <c r="P12" s="40">
-        <v>0.25403622496311201</v>
+        <v>0.31283828980671102</v>
       </c>
       <c r="Q12" s="40">
-        <v>0.24718277108130601</v>
+        <v>0.310864665678386</v>
       </c>
       <c r="R12" s="40">
-        <v>3.8400000000000001E-3</v>
+        <v>2.0300000000000001E-3</v>
       </c>
       <c r="S12" s="41">
-        <v>0.24934376629448701</v>
+        <v>0.31114734245710401</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -5952,25 +5990,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="H13" s="5">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="5" t="b">
         <v>1</v>
@@ -5985,22 +6023,22 @@
         <v>100</v>
       </c>
       <c r="N13" s="1">
-        <v>0.24769703541605101</v>
+        <v>0.30767964910610202</v>
       </c>
       <c r="O13" s="1">
-        <v>0.24860570023610401</v>
+        <v>0.30913923677599803</v>
       </c>
       <c r="P13" s="1">
-        <v>0.25356042801253298</v>
+        <v>0.31208345407778698</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.24718277109228801</v>
+        <v>0.311497871402729</v>
       </c>
       <c r="R13" s="1">
-        <v>2.5300000000000001E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="S13" s="37">
-        <v>0.24926148554835301</v>
+        <v>0.31010005159050702</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -6008,55 +6046,55 @@
         <v>10</v>
       </c>
       <c r="C14" s="8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="H14" s="5">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L14" s="5">
-        <v>50</v>
+        <v>768</v>
       </c>
       <c r="M14" s="5">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="N14" s="1">
-        <v>0.25439038961817301</v>
+        <v>0.31015880199458001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.248605700264144</v>
+        <v>0.30788356295207803</v>
       </c>
       <c r="P14" s="1">
-        <v>0.24625891224678101</v>
+        <v>0.31105315678011702</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.247182771082052</v>
+        <v>0.31033878297629702</v>
       </c>
       <c r="R14" s="1">
-        <v>3.16E-3</v>
+        <v>1.1900000000000001E-3</v>
       </c>
       <c r="S14" s="37">
-        <v>0.249109445025918</v>
+        <v>0.309858575746292</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -6064,31 +6102,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="H15" s="5">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="J15" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L15" s="5">
         <v>128</v>
@@ -6097,78 +6135,78 @@
         <v>10</v>
       </c>
       <c r="N15" s="1">
-        <v>0.25365701836257998</v>
+        <v>0.30976886284569199</v>
       </c>
       <c r="O15" s="1">
-        <v>0.24860570025732001</v>
+        <v>0.30871710114079198</v>
       </c>
       <c r="P15" s="1">
-        <v>0.24625891225467</v>
+        <v>0.30832000744050198</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.24718277108130601</v>
+        <v>0.308439165746974</v>
       </c>
       <c r="R15" s="1">
-        <v>2.8600000000000001E-3</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="S15" s="37">
-        <v>0.24892610204812601</v>
+        <v>0.30881128462629598</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <v>12</v>
       </c>
-      <c r="C16" s="45">
-        <v>10</v>
+      <c r="C16" s="46">
+        <v>13</v>
       </c>
       <c r="D16" s="15">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="15" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="15">
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H16" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="15">
-        <v>0.5</v>
+        <v>1E-3</v>
       </c>
       <c r="L16" s="15">
-        <v>256</v>
+        <v>768</v>
       </c>
       <c r="M16" s="15">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="N16" s="40">
-        <v>0.24769703538662499</v>
+        <v>0.30964007517825898</v>
       </c>
       <c r="O16" s="40">
-        <v>0.248605700264144</v>
+        <v>0.30527204518182399</v>
       </c>
       <c r="P16" s="40">
-        <v>0.24625891224678101</v>
+        <v>0.30991911438770398</v>
       </c>
       <c r="Q16" s="40">
-        <v>0.25218044575653598</v>
+        <v>0.30998819455500598</v>
       </c>
       <c r="R16" s="40">
-        <v>2.1800000000000001E-3</v>
+        <v>1.99E-3</v>
       </c>
       <c r="S16" s="41">
-        <v>0.24868552028781701</v>
+        <v>0.30870485617793803</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -6176,55 +6214,55 @@
         <v>13</v>
       </c>
       <c r="C17" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G17" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>70</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
         <v>0.05</v>
-      </c>
-      <c r="H17" s="5">
-        <v>30</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1E-3</v>
       </c>
       <c r="L17" s="5">
         <v>512</v>
       </c>
       <c r="M17" s="5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N17" s="1">
-        <v>0.24769703541605101</v>
+        <v>0.30849530103556</v>
       </c>
       <c r="O17" s="1">
-        <v>0.25190050478398301</v>
+        <v>0.30482844477988003</v>
       </c>
       <c r="P17" s="1">
-        <v>0.24614443477357401</v>
+        <v>0.30892816894986502</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.24847780201651101</v>
+        <v>0.30883983827718697</v>
       </c>
       <c r="R17" s="1">
-        <v>2.1099999999999999E-3</v>
+        <v>1.7099999999999999E-3</v>
       </c>
       <c r="S17" s="37">
-        <v>0.248554944316522</v>
+        <v>0.30777293730643501</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -6232,55 +6270,55 @@
         <v>14</v>
       </c>
       <c r="C18" s="8">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G18" s="5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H18" s="5">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="5">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="M18" s="5">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="N18" s="1">
-        <v>0.247697035375751</v>
+        <v>0.30671016856848399</v>
       </c>
       <c r="O18" s="1">
-        <v>0.24697439637921301</v>
+        <v>0.30531139690721398</v>
       </c>
       <c r="P18" s="1">
-        <v>0.24614443477005499</v>
+        <v>0.30608769647787998</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.25215898109660201</v>
+        <v>0.30599577883375401</v>
       </c>
       <c r="R18" s="1">
-        <v>2.33E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="S18" s="37">
-        <v>0.248243708403761</v>
+        <v>0.30602626022409402</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
@@ -6288,81 +6326,81 @@
         <v>15</v>
       </c>
       <c r="C19" s="8">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="5">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J19" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="L19" s="5">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="M19" s="5">
         <v>50</v>
       </c>
       <c r="N19" s="1">
-        <v>0.244255556617267</v>
+        <v>0.308541807546799</v>
       </c>
       <c r="O19" s="1">
-        <v>0.248605700264144</v>
+        <v>0.30145135961048403</v>
       </c>
       <c r="P19" s="1">
-        <v>0.24625891224678101</v>
+        <v>0.30329373131003201</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.25218044575653598</v>
+        <v>0.30883983828571698</v>
       </c>
       <c r="R19" s="1">
-        <v>2.9499999999999999E-3</v>
+        <v>3.2299999999999998E-3</v>
       </c>
       <c r="S19" s="37">
-        <v>0.24782514982600001</v>
+        <v>0.30553168122959001</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>16</v>
       </c>
-      <c r="C20" s="45">
-        <v>5</v>
+      <c r="C20" s="46">
+        <v>10</v>
       </c>
       <c r="D20" s="15">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="15" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="15">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="H20" s="15">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J20" s="15" t="b">
         <v>1</v>
@@ -6371,28 +6409,28 @@
         <v>1E-3</v>
       </c>
       <c r="L20" s="15">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M20" s="15">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="N20" s="40">
-        <v>0.247697035375751</v>
+        <v>0.30329015386678498</v>
       </c>
       <c r="O20" s="40">
-        <v>0.248605700264144</v>
+        <v>0.29936572330060102</v>
       </c>
       <c r="P20" s="40">
-        <v>0.24625891222785601</v>
+        <v>0.30880295924068601</v>
       </c>
       <c r="Q20" s="40">
-        <v>0.248477802043058</v>
+        <v>0.30709762817349701</v>
       </c>
       <c r="R20" s="40">
-        <v>9.3000000000000005E-4</v>
+        <v>3.64E-3</v>
       </c>
       <c r="S20" s="41">
-        <v>0.247759861835609</v>
+        <v>0.30463911394660698</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -6400,55 +6438,55 @@
         <v>17</v>
       </c>
       <c r="C21" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="5">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="5">
+        <v>68</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="F21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H21" s="5">
-        <v>65</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="J21" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L21" s="5">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="M21" s="5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N21" s="1">
-        <v>0.24425555704522101</v>
+        <v>0.30230994057083099</v>
       </c>
       <c r="O21" s="1">
-        <v>0.252519398211552</v>
+        <v>0.29896862957930798</v>
       </c>
       <c r="P21" s="1">
-        <v>0.24625891275645601</v>
+        <v>0.29497265060758898</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.24718277108855599</v>
+        <v>0.30023968805248502</v>
       </c>
       <c r="R21" s="1">
-        <v>3.0599999999999998E-3</v>
+        <v>2.6800000000000001E-3</v>
       </c>
       <c r="S21" s="37">
-        <v>0.24755416010760001</v>
+        <v>0.29912272620359298</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -6456,55 +6494,55 @@
         <v>18</v>
       </c>
       <c r="C22" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D22" s="5">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F22" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H22" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J22" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K22" s="5">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="5">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M22" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N22" s="1">
-        <v>0.24769703541605101</v>
+        <v>0.30856327205883199</v>
       </c>
       <c r="O22" s="1">
-        <v>0.24860570023610401</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P22" s="1">
-        <v>0.24625891224304899</v>
+        <v>0.312530631681814</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.24718277109228801</v>
+        <v>0.30934425641998797</v>
       </c>
       <c r="R22" s="1">
-        <v>8.4999999999999995E-4</v>
+        <v>2.6689999999999998E-2</v>
       </c>
       <c r="S22" s="37">
-        <v>0.24743610497344301</v>
+        <v>0.29476095206354003</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
@@ -6512,111 +6550,111 @@
         <v>19</v>
       </c>
       <c r="C23" s="8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D23" s="5">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="H23" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J23" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L23" s="5">
         <v>768</v>
       </c>
       <c r="M23" s="5">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="N23" s="1">
         <v>0.24769703547383701</v>
       </c>
       <c r="O23" s="1">
-        <v>0.24697439667005999</v>
+        <v>0.30326868967033399</v>
       </c>
       <c r="P23" s="1">
-        <v>0.246144435011699</v>
+        <v>0.30967585002940801</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.24847780223326099</v>
+        <v>0.30576682274863398</v>
       </c>
       <c r="R23" s="1">
-        <v>8.5999999999999998E-4</v>
+        <v>2.545E-2</v>
       </c>
       <c r="S23" s="37">
-        <v>0.247323416314783</v>
+        <v>0.29160208681224797</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <v>20</v>
       </c>
-      <c r="C24" s="45">
-        <v>4</v>
+      <c r="C24" s="46">
+        <v>1</v>
       </c>
       <c r="D24" s="15">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F24" s="15" t="b">
         <v>0</v>
       </c>
       <c r="G24" s="15">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H24" s="15">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24" s="15" t="b">
         <v>0</v>
       </c>
       <c r="K24" s="15">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="L24" s="15">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M24" s="15">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N24" s="40">
-        <v>0.24769703541605101</v>
+        <v>0.24425555657824599</v>
       </c>
       <c r="O24" s="40">
-        <v>0.24697439639531199</v>
+        <v>0.25190050475349102</v>
       </c>
       <c r="P24" s="40">
-        <v>0.24625891224304899</v>
+        <v>0.25356042798939799</v>
       </c>
       <c r="Q24" s="40">
-        <v>0.24718277109228801</v>
+        <v>0.25215898109660201</v>
       </c>
       <c r="R24" s="40">
-        <v>5.1999999999999995E-4</v>
+        <v>3.64E-3</v>
       </c>
       <c r="S24" s="41">
-        <v>0.24702827864850399</v>
+        <v>0.250468866092871</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
@@ -6624,13 +6662,13 @@
         <v>21</v>
       </c>
       <c r="C25" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D25" s="5">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5" t="b">
         <v>1</v>
@@ -6639,7 +6677,7 @@
         <v>0.05</v>
       </c>
       <c r="H25" s="5">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>13</v>
@@ -6648,31 +6686,31 @@
         <v>0</v>
       </c>
       <c r="K25" s="5">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="L25" s="5">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M25" s="5">
         <v>10</v>
       </c>
       <c r="N25" s="1">
-        <v>0.24425555661918599</v>
+        <v>0.247697035375751</v>
       </c>
       <c r="O25" s="1">
-        <v>0.24860570023610401</v>
+        <v>0.24697439637921301</v>
       </c>
       <c r="P25" s="1">
-        <v>0.24614443477357401</v>
+        <v>0.25356042798939799</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.24847780201651101</v>
+        <v>0.25215898109660201</v>
       </c>
       <c r="R25" s="1">
-        <v>1.8E-3</v>
+        <v>2.82E-3</v>
       </c>
       <c r="S25" s="37">
-        <v>0.24687087197417701</v>
+        <v>0.25009770836673101</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
@@ -6680,55 +6718,55 @@
         <v>22</v>
       </c>
       <c r="C26" s="8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D26" s="5">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F26" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="5">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="5">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="L26" s="5">
-        <v>500</v>
+        <v>256</v>
       </c>
       <c r="M26" s="5">
-        <v>512</v>
+        <v>50</v>
       </c>
       <c r="N26" s="1">
-        <v>0.24425555661918599</v>
+        <v>0.25439038961817301</v>
       </c>
       <c r="O26" s="1">
-        <v>0.24860570023610401</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P26" s="1">
-        <v>0.24625891224304899</v>
+        <v>0.246144434782743</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.24718277109228801</v>
+        <v>0.24847780202749201</v>
       </c>
       <c r="R26" s="1">
-        <v>1.58E-3</v>
+        <v>3.0400000000000002E-3</v>
       </c>
       <c r="S26" s="37">
-        <v>0.24657573450475001</v>
+        <v>0.249404582502009</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -6736,69 +6774,69 @@
         <v>23</v>
       </c>
       <c r="C27" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27" s="5">
         <v>25</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H27" s="5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J27" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K27" s="5">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="L27" s="5">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="M27" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N27" s="1">
-        <v>0.24425555657824599</v>
+        <v>0.24425555662974099</v>
       </c>
       <c r="O27" s="1">
-        <v>0.248605700264144</v>
+        <v>0.25190050477300102</v>
       </c>
       <c r="P27" s="1">
-        <v>0.24625891222785601</v>
+        <v>0.25403622496311201</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.24718277110284201</v>
+        <v>0.24718277108130601</v>
       </c>
       <c r="R27" s="1">
-        <v>1.58E-3</v>
+        <v>3.8400000000000001E-3</v>
       </c>
       <c r="S27" s="37">
-        <v>0.24657573450036599</v>
+        <v>0.24934376629448701</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <v>24</v>
       </c>
-      <c r="C28" s="45">
-        <v>3</v>
+      <c r="C28" s="46">
+        <v>4</v>
       </c>
       <c r="D28" s="15">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="15" t="b">
         <v>1</v>
@@ -6807,40 +6845,40 @@
         <v>0.01</v>
       </c>
       <c r="H28" s="15">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J28" s="15" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="15">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="L28" s="15">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="M28" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N28" s="40">
-        <v>0.24425555704522101</v>
+        <v>0.24769703541605101</v>
       </c>
       <c r="O28" s="40">
-        <v>0.24860569991881601</v>
+        <v>0.24860570023610401</v>
       </c>
       <c r="P28" s="40">
-        <v>0.246144435011699</v>
+        <v>0.25356042801253298</v>
       </c>
       <c r="Q28" s="40">
-        <v>0.24718277108855599</v>
+        <v>0.24718277109228801</v>
       </c>
       <c r="R28" s="40">
-        <v>1.5900000000000001E-3</v>
+        <v>2.5300000000000001E-3</v>
       </c>
       <c r="S28" s="41">
-        <v>0.246547115197571</v>
+        <v>0.24926148554835301</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
@@ -6851,52 +6889,52 @@
         <v>2</v>
       </c>
       <c r="D29" s="5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G29" s="5">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="H29" s="5">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L29" s="5">
-        <v>500</v>
+        <v>256</v>
       </c>
       <c r="M29" s="5">
-        <v>512</v>
+        <v>50</v>
       </c>
       <c r="N29" s="1">
-        <v>0.24425555661918599</v>
+        <v>0.25439038961817301</v>
       </c>
       <c r="O29" s="1">
-        <v>0.24860570023610401</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P29" s="1">
-        <v>0.24614443477357401</v>
+        <v>0.24625891224678101</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.24718277109228801</v>
+        <v>0.247182771082052</v>
       </c>
       <c r="R29" s="1">
-        <v>1.5900000000000001E-3</v>
+        <v>3.16E-3</v>
       </c>
       <c r="S29" s="37">
-        <v>0.24654711511178501</v>
+        <v>0.249109445025918</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -6904,55 +6942,55 @@
         <v>26</v>
       </c>
       <c r="C30" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F30" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G30" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="H30" s="5">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="L30" s="5">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="M30" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N30" s="1">
-        <v>0.24425555661918599</v>
+        <v>0.25365701836257998</v>
       </c>
       <c r="O30" s="1">
-        <v>0.24697439639531199</v>
+        <v>0.24860570025732001</v>
       </c>
       <c r="P30" s="1">
-        <v>0.24614443477357401</v>
+        <v>0.24625891225467</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.24847780201651101</v>
+        <v>0.24718277108130601</v>
       </c>
       <c r="R30" s="1">
-        <v>1.5200000000000001E-3</v>
+        <v>2.8600000000000001E-3</v>
       </c>
       <c r="S30" s="37">
-        <v>0.24646304564923799</v>
+        <v>0.24892610204812601</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
@@ -6960,110 +6998,1678 @@
         <v>27</v>
       </c>
       <c r="C31" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D31" s="5">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="5">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="5">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J31" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L31" s="5">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M31" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N31" s="1">
-        <v>0.24425555657824599</v>
+        <v>0.24769703538662499</v>
       </c>
       <c r="O31" s="1">
-        <v>0.24697439637921301</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P31" s="1">
-        <v>0.24625891222785601</v>
+        <v>0.24625891224678101</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.24718277110284201</v>
+        <v>0.25218044575653598</v>
       </c>
       <c r="R31" s="1">
-        <v>1.16E-3</v>
+        <v>2.1800000000000001E-3</v>
       </c>
       <c r="S31" s="37">
-        <v>0.24616790816439099</v>
+        <v>0.24868552028781701</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="20">
         <v>28</v>
       </c>
-      <c r="C32" s="45">
-        <v>2</v>
+      <c r="C32" s="46">
+        <v>20</v>
       </c>
       <c r="D32" s="15">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F32" s="15" t="b">
         <v>0</v>
       </c>
       <c r="G32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="15">
+        <v>44</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L32" s="15">
+        <v>256</v>
+      </c>
+      <c r="M32" s="15">
+        <v>10</v>
+      </c>
+      <c r="N32" s="40">
+        <v>0.24769703538662499</v>
+      </c>
+      <c r="O32" s="40">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P32" s="40">
+        <v>0.246144434782743</v>
+      </c>
+      <c r="Q32" s="40">
+        <v>0.25215898115886598</v>
+      </c>
+      <c r="R32" s="40">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="S32" s="41">
+        <v>0.24865153476119101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>29</v>
+      </c>
+      <c r="C33" s="8">
+        <v>17</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>37</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M33" s="5">
+        <v>500</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.24614443477005499</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.25215898109660201</v>
+      </c>
+      <c r="R33" s="1">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="S33" s="37">
+        <v>0.248651534739735</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="20">
+        <v>30</v>
+      </c>
+      <c r="C34" s="46">
+        <v>3</v>
+      </c>
+      <c r="D34" s="15">
+        <v>5</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="15">
+        <v>30</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
         <v>1E-3</v>
       </c>
-      <c r="H32" s="15">
+      <c r="L34" s="15">
+        <v>512</v>
+      </c>
+      <c r="M34" s="15">
+        <v>200</v>
+      </c>
+      <c r="N34" s="40">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O34" s="40">
+        <v>0.25190050478398301</v>
+      </c>
+      <c r="P34" s="40">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q34" s="40">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R34" s="40">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="S34" s="41">
+        <v>0.248554944316522</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="8">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5">
+        <v>18</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H35" s="5">
+        <v>54</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M35" s="5">
+        <v>300</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.24697439637921301</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.24625891222785601</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.25215898109660201</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="S35" s="37">
+        <v>0.24827232779380701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="20">
+        <v>32</v>
+      </c>
+      <c r="C36" s="46">
+        <v>3</v>
+      </c>
+      <c r="D36" s="15">
+        <v>49</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H36" s="15">
+        <v>61</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="L36" s="15">
+        <v>1024</v>
+      </c>
+      <c r="M36" s="15">
+        <v>10</v>
+      </c>
+      <c r="N36" s="40">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O36" s="40">
+        <v>0.24697439637921301</v>
+      </c>
+      <c r="P36" s="40">
+        <v>0.24614443477005499</v>
+      </c>
+      <c r="Q36" s="40">
+        <v>0.25215898109660201</v>
+      </c>
+      <c r="R36" s="40">
+        <v>2.33E-3</v>
+      </c>
+      <c r="S36" s="41">
+        <v>0.248243708403761</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>33</v>
+      </c>
+      <c r="C37" s="8">
+        <v>14</v>
+      </c>
+      <c r="D37" s="5">
+        <v>53</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="5">
+        <v>60</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L37" s="5">
+        <v>512</v>
+      </c>
+      <c r="M37" s="5">
+        <v>10</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.25190050478398301</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R37" s="1">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="S37" s="37">
+        <v>0.24823118745413</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="20">
+        <v>34</v>
+      </c>
+      <c r="C38" s="46">
+        <v>4</v>
+      </c>
+      <c r="D38" s="15">
+        <v>50</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H38" s="15">
+        <v>58</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="15">
+        <v>256</v>
+      </c>
+      <c r="M38" s="15">
+        <v>50</v>
+      </c>
+      <c r="N38" s="40">
+        <v>0.244255556617267</v>
+      </c>
+      <c r="O38" s="40">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P38" s="40">
+        <v>0.24625891224678101</v>
+      </c>
+      <c r="Q38" s="40">
+        <v>0.25218044575653598</v>
+      </c>
+      <c r="R38" s="40">
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="S38" s="41">
+        <v>0.24782514982600001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>35</v>
+      </c>
+      <c r="C39" s="8">
+        <v>20</v>
+      </c>
+      <c r="D39" s="5">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="5">
+        <v>67</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L39" s="5">
+        <v>512</v>
+      </c>
+      <c r="M39" s="5">
+        <v>50</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R39" s="1">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="S39" s="37">
+        <v>0.24775986183583501</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="20">
+        <v>36</v>
+      </c>
+      <c r="C40" s="8">
+        <v>14</v>
+      </c>
+      <c r="D40" s="5">
+        <v>46</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H40" s="5">
+        <v>36</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="5">
+        <v>512</v>
+      </c>
+      <c r="M40" s="5">
+        <v>500</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R40" s="1">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="S40" s="37">
+        <v>0.24775986183583501</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>37</v>
+      </c>
+      <c r="C41" s="8">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>67</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="5">
+        <v>19</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M41" s="5">
+        <v>400</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.24625891222785601</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.248477802043058</v>
+      </c>
+      <c r="R41" s="1">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="S41" s="37">
+        <v>0.247759861835609</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="20">
+        <v>38</v>
+      </c>
+      <c r="C42" s="46">
+        <v>19</v>
+      </c>
+      <c r="D42" s="15">
+        <v>37</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="15">
+        <v>30</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L42" s="15">
+        <v>1024</v>
+      </c>
+      <c r="M42" s="15">
+        <v>400</v>
+      </c>
+      <c r="N42" s="40">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O42" s="40">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P42" s="40">
+        <v>0.24614443477005499</v>
+      </c>
+      <c r="Q42" s="40">
+        <v>0.248477802043058</v>
+      </c>
+      <c r="R42" s="40">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="S42" s="41">
+        <v>0.24773124244556199</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>39</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="5">
+        <v>69</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H43" s="5">
+        <v>65</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L43" s="5">
+        <v>768</v>
+      </c>
+      <c r="M43" s="5">
+        <v>500</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.24425555704522101</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.252519398211552</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.24625891275645601</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.24718277108855599</v>
+      </c>
+      <c r="R43" s="1">
+        <v>3.0599999999999998E-3</v>
+      </c>
+      <c r="S43" s="37">
+        <v>0.24755416010760001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="20">
+        <v>40</v>
+      </c>
+      <c r="C44" s="46">
+        <v>5</v>
+      </c>
+      <c r="D44" s="15">
+        <v>50</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="15">
+        <v>50</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L44" s="15">
+        <v>512</v>
+      </c>
+      <c r="M44" s="15">
+        <v>300</v>
+      </c>
+      <c r="N44" s="40">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O44" s="40">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P44" s="40">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q44" s="40">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R44" s="40">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="S44" s="41">
+        <v>0.24743610497344301</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>41</v>
+      </c>
+      <c r="C45" s="8">
+        <v>16</v>
+      </c>
+      <c r="D45" s="5">
+        <v>32</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H45" s="5">
+        <v>64</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L45" s="5">
+        <v>256</v>
+      </c>
+      <c r="M45" s="5">
+        <v>50</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.24769703538662499</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.246144434782743</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.247182771082052</v>
+      </c>
+      <c r="R45" s="1">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="S45" s="37">
+        <v>0.247407485579866</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="20">
+        <v>42</v>
+      </c>
+      <c r="C46" s="8">
+        <v>19</v>
+      </c>
+      <c r="D46" s="5">
+        <v>22</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>69</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L46" s="5">
+        <v>768</v>
+      </c>
+      <c r="M46" s="5">
+        <v>10</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.24769703547383701</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.246144435011699</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.24718277108855599</v>
+      </c>
+      <c r="R46" s="1">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="S46" s="37">
+        <v>0.247407485574202</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>43</v>
+      </c>
+      <c r="C47" s="8">
+        <v>16</v>
+      </c>
+      <c r="D47" s="5">
+        <v>50</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="5">
+        <v>71</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L47" s="5">
+        <v>512</v>
+      </c>
+      <c r="M47" s="5">
+        <v>10</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R47" s="1">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="S47" s="37">
+        <v>0.24735203551089599</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="20">
+        <v>44</v>
+      </c>
+      <c r="C48" s="46">
+        <v>5</v>
+      </c>
+      <c r="D48" s="15">
         <v>24</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="E48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="H48" s="15">
+        <v>58</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="L48" s="15">
+        <v>768</v>
+      </c>
+      <c r="M48" s="15">
+        <v>500</v>
+      </c>
+      <c r="N48" s="40">
+        <v>0.24769703547383701</v>
+      </c>
+      <c r="O48" s="40">
+        <v>0.24697439667005999</v>
+      </c>
+      <c r="P48" s="40">
+        <v>0.246144435011699</v>
+      </c>
+      <c r="Q48" s="40">
+        <v>0.24847780223326099</v>
+      </c>
+      <c r="R48" s="40">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="S48" s="41">
+        <v>0.247323416314783</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>45</v>
+      </c>
+      <c r="C49" s="8">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="H49" s="5">
+        <v>29</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L49" s="5">
+        <v>512</v>
+      </c>
+      <c r="M49" s="5">
+        <v>100</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R49" s="1">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="S49" s="37">
+        <v>0.24702827864850399</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="20">
+        <v>46</v>
+      </c>
+      <c r="C50" s="8">
+        <v>17</v>
+      </c>
+      <c r="D50" s="5">
+        <v>30</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="5">
+        <v>26</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L50" s="5">
+        <v>512</v>
+      </c>
+      <c r="M50" s="5">
+        <v>400</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R50" s="1">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="S50" s="37">
+        <v>0.24702827864850399</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>47</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <v>49</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="15" t="b">
+      <c r="F51" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H51" s="5">
+        <v>71</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K51" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L51" s="5">
+        <v>512</v>
+      </c>
+      <c r="M51" s="5">
+        <v>10</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="S51" s="37">
+        <v>0.24687087197417701</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="20">
+        <v>48</v>
+      </c>
+      <c r="C52" s="46">
+        <v>2</v>
+      </c>
+      <c r="D52" s="15">
+        <v>57</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
         <v>0.01</v>
       </c>
-      <c r="L32" s="15">
+      <c r="H52" s="15">
+        <v>71</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="L52" s="15">
+        <v>512</v>
+      </c>
+      <c r="M52" s="15">
+        <v>500</v>
+      </c>
+      <c r="N52" s="40">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O52" s="40">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P52" s="40">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q52" s="40">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R52" s="40">
+        <v>1.58E-3</v>
+      </c>
+      <c r="S52" s="41">
+        <v>0.24657573450475001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>49</v>
+      </c>
+      <c r="C53" s="8">
+        <v>13</v>
+      </c>
+      <c r="D53" s="5">
+        <v>42</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H53" s="5">
+        <v>48</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="5">
+        <v>512</v>
+      </c>
+      <c r="M53" s="5">
+        <v>100</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R53" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="S53" s="37">
+        <v>0.24657573450475001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="20">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>25</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H54" s="5">
+        <v>8</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M54" s="5">
+        <v>300</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.24425555657824599</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0.24625891222785601</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0.24718277110284201</v>
+      </c>
+      <c r="R54" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="S54" s="37">
+        <v>0.24657573450036599</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>51</v>
+      </c>
+      <c r="C55" s="8">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5">
+        <v>50</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H55" s="5">
+        <v>4</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L55" s="5">
+        <v>768</v>
+      </c>
+      <c r="M55" s="5">
+        <v>200</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.24425555704522101</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.246144435011699</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0.24718277108855599</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S55" s="37">
+        <v>0.246547115197571</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="20">
+        <v>52</v>
+      </c>
+      <c r="C56" s="46">
+        <v>2</v>
+      </c>
+      <c r="D56" s="15">
+        <v>51</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="15">
+        <v>14</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L56" s="15">
+        <v>512</v>
+      </c>
+      <c r="M56" s="15">
+        <v>500</v>
+      </c>
+      <c r="N56" s="40">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O56" s="40">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P56" s="40">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q56" s="40">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R56" s="40">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S56" s="41">
+        <v>0.24654711511178501</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>53</v>
+      </c>
+      <c r="C57" s="8">
+        <v>17</v>
+      </c>
+      <c r="D57" s="5">
+        <v>30</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="5">
+        <v>13</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L57" s="5">
+        <v>512</v>
+      </c>
+      <c r="M57" s="5">
+        <v>300</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S57" s="37">
+        <v>0.24654711511178501</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="20">
+        <v>54</v>
+      </c>
+      <c r="C58" s="8">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5">
+        <v>58</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H58" s="5">
+        <v>35</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L58" s="5">
+        <v>512</v>
+      </c>
+      <c r="M58" s="5">
+        <v>100</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R58" s="1">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="S58" s="37">
+        <v>0.24646304564923799</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>55</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>54</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H59" s="5">
+        <v>49</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M59" s="5">
+        <v>100</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.24425555657824599</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0.24697439637921301</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.24625891222785601</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.24718277110284201</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1.16E-3</v>
+      </c>
+      <c r="S59" s="37">
+        <v>0.24616790816439099</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="20">
+        <v>56</v>
+      </c>
+      <c r="C60" s="46">
+        <v>2</v>
+      </c>
+      <c r="D60" s="15">
+        <v>67</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H60" s="15">
+        <v>24</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L60" s="15">
+        <v>512</v>
+      </c>
+      <c r="M60" s="15">
         <v>400</v>
       </c>
-      <c r="M32" s="15">
-        <v>512</v>
-      </c>
-      <c r="N32" s="40">
+      <c r="N60" s="40">
         <v>0.24425555661918599</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O60" s="40">
         <v>0.24697439639531199</v>
       </c>
-      <c r="P32" s="40">
+      <c r="P60" s="40">
         <v>0.24614443477357401</v>
       </c>
-      <c r="Q32" s="40">
+      <c r="Q60" s="40">
         <v>0.24718277109228801</v>
       </c>
-      <c r="R32" s="40">
+      <c r="R60" s="40">
         <v>1.15E-3</v>
       </c>
-      <c r="S32" s="41">
+      <c r="S60" s="41">
         <v>0.24613928878684599</v>
       </c>
     </row>
@@ -7082,10 +8688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED12A95D-6B4E-4050-8800-A1B9AE46B969}">
-  <dimension ref="B1:N41"/>
+  <dimension ref="B1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7107,21 +8713,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -7139,22 +8743,22 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -7174,10 +8778,10 @@
     </row>
     <row r="5" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -7216,17 +8820,17 @@
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>22</v>
+      <c r="B8" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5">
         <v>4</v>
@@ -7236,21 +8840,29 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="14"/>
+      <c r="J8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="38">
+        <v>26</v>
+      </c>
+      <c r="L8" s="38">
+        <v>2</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0.2</v>
+      </c>
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>22</v>
+      <c r="B9" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9">
         <v>11</v>
@@ -7270,14 +8882,14 @@
       <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>22</v>
+      <c r="B10" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9">
         <v>12</v>
@@ -7292,17 +8904,17 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>22</v>
+      <c r="B11" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="9">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5">
         <v>4</v>
@@ -7319,17 +8931,17 @@
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>22</v>
+      <c r="B12" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="33">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="15">
         <v>4</v>
@@ -7346,22 +8958,22 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="33">
-        <v>16</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="D13" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="56">
+        <v>22</v>
+      </c>
+      <c r="F13" s="55">
         <v>4</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="57">
         <v>0.17</v>
       </c>
       <c r="H13" s="11"/>
@@ -7373,22 +8985,22 @@
       <c r="N13" s="11"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="54">
         <v>7</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="58">
         <v>4</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="59">
         <v>0.17</v>
       </c>
       <c r="H14" s="11"/>
@@ -7400,22 +9012,22 @@
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="54">
         <v>8</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="58">
         <v>4</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="59">
         <v>0.17</v>
       </c>
       <c r="H15" s="11"/>
@@ -7427,22 +9039,22 @@
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="54">
         <v>9</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="58">
         <v>4</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="59">
         <v>0.17</v>
       </c>
       <c r="H16" s="11"/>
@@ -7454,24 +9066,12 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="33">
-        <v>13</v>
-      </c>
-      <c r="F17" s="15">
-        <v>4</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0.17</v>
-      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="11"/>
       <c r="I17" s="6"/>
       <c r="J17" s="11"/>
@@ -7482,10 +9082,10 @@
     </row>
     <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -7700,11 +9300,21 @@
       <c r="H26" s="43">
         <v>43329</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="36"/>
+      <c r="J26" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="15">
+        <v>18</v>
+      </c>
+      <c r="L26" s="15">
+        <v>2</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N26" s="36">
+        <v>43331</v>
+      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
@@ -7728,6 +9338,21 @@
       <c r="H27" s="43">
         <v>43329</v>
       </c>
+      <c r="J27" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="15">
+        <v>19</v>
+      </c>
+      <c r="L27" s="15">
+        <v>2</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N27" s="36">
+        <v>43331</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
@@ -7751,6 +9376,21 @@
       <c r="H28" s="43">
         <v>43329</v>
       </c>
+      <c r="J28" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="15">
+        <v>20</v>
+      </c>
+      <c r="L28" s="15">
+        <v>2</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N28" s="36">
+        <v>43331</v>
+      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="39" t="s">
@@ -7774,6 +9414,21 @@
       <c r="H29" s="43">
         <v>43330</v>
       </c>
+      <c r="J29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="15">
+        <v>21</v>
+      </c>
+      <c r="L29" s="15">
+        <v>2</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N29" s="36">
+        <v>43331</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="39" t="s">
@@ -7783,7 +9438,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="42">
         <v>0</v>
@@ -7797,6 +9452,11 @@
       <c r="H30" s="43">
         <v>43330</v>
       </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="36"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="39" t="s">
@@ -7806,7 +9466,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="42">
         <v>1</v>
@@ -7852,7 +9512,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="42">
         <v>4</v>
@@ -7875,7 +9535,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="42">
         <v>3</v>
@@ -7967,7 +9627,7 @@
         <v>16</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="42">
         <v>5</v>
@@ -8013,7 +9673,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="42">
         <v>2</v>
@@ -8029,13 +9689,128 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
+      <c r="B41" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="42">
+        <v>16</v>
+      </c>
+      <c r="F41" s="42">
+        <v>4</v>
+      </c>
+      <c r="G41" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H41" s="43">
+        <v>43331</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="42">
+        <v>15</v>
+      </c>
+      <c r="F42" s="42">
+        <v>4</v>
+      </c>
+      <c r="G42" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H42" s="43">
+        <v>43331</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="42">
+        <v>13</v>
+      </c>
+      <c r="F43" s="42">
+        <v>4</v>
+      </c>
+      <c r="G43" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H43" s="43">
+        <v>43331</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="42">
+        <v>14</v>
+      </c>
+      <c r="F44" s="42">
+        <v>4</v>
+      </c>
+      <c r="G44" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H44" s="43">
+        <v>43331</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="42">
+        <v>17</v>
+      </c>
+      <c r="F45" s="42">
+        <v>4</v>
+      </c>
+      <c r="G45" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="H45" s="43">
+        <v>43332</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="39"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8044,11 +9819,12 @@
     <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Results/Neural Networks/Results.xlsx
+++ b/Results/Neural Networks/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Neural Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037BF7F8-4D53-4490-92DC-8606C368377E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C4A9B-CDF2-44E0-B184-2EDCA93E3D46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Layer Results" sheetId="8" r:id="rId1"/>
@@ -968,24 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,6 +987,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1055,538 +1055,6 @@
   </cellStyles>
   <dxfs count="78">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1704,6 +1172,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1711,15 +1188,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2006,6 +1474,538 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2326,87 +2326,87 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B626D81A-C02C-4E76-AFEC-DB56EAC289A8}" name="Table62" displayName="Table62" ref="C4:S60" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B626D81A-C02C-4E76-AFEC-DB56EAC289A8}" name="Table62" displayName="Table62" ref="C4:S60" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="C4:S60" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C5:S60">
     <sortCondition descending="1" ref="S4:S60"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="13" xr3:uid="{452FFD92-6934-49FF-9D05-6F560AF5344A}" name="Seed" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{E211E446-DB45-4B2F-8FDE-865764964C4D}" name="fst neurons" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{2EC2EDFF-0EFF-4F71-9940-8CC8668BC8E6}" name="fst activation" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{22296FAD-856C-4ECC-AF57-6A26A43504CF}" name="fst L2 regularization?" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{65D1305B-A0A6-4CAC-A5C1-9DDE6AE12195}" name="fst lambda" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{1BC0484B-7EB1-43A5-AD2A-4E6B52D74DE6}" name="snd neurons" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{1EC5378D-3595-4261-8F58-0AFAC8260C63}" name="snd activation" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{5C688FFA-D11B-4D06-8E43-6B55E9DA6959}" name="snd L2 regularization?" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{9F9B91EE-FC3B-4A59-BC66-DC774FCDE125}" name="snd lambda" dataDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{C5D2E6BF-EF52-4FB1-A6D3-1C816201B2DA}" name="batch size" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{E0656082-56E5-4465-89B4-696632D69AF8}" name="epochs" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{DBCA6EB0-E4C0-42EF-BE92-1A9E8442469D}" name="Fold 1" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{EC12F9E1-C75D-4875-A833-0F15BC178545}" name="Fold 2" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{26A3F004-7925-4AC1-B8AA-61B5BFFF8E9C}" name="Fold 3" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{515B2D70-36D2-4551-8AF8-FB856656F166}" name="Fold 4" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{B7C360CC-32DA-421D-97D5-43E7B4BF762C}" name="Std" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{06DFEA4B-3831-4FEC-B841-9586DC6F5715}" name="Average" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{452FFD92-6934-49FF-9D05-6F560AF5344A}" name="Seed" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{E211E446-DB45-4B2F-8FDE-865764964C4D}" name="fst neurons" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{2EC2EDFF-0EFF-4F71-9940-8CC8668BC8E6}" name="fst activation" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{22296FAD-856C-4ECC-AF57-6A26A43504CF}" name="fst L2 regularization?" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{65D1305B-A0A6-4CAC-A5C1-9DDE6AE12195}" name="fst lambda" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{1BC0484B-7EB1-43A5-AD2A-4E6B52D74DE6}" name="snd neurons" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{1EC5378D-3595-4261-8F58-0AFAC8260C63}" name="snd activation" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{5C688FFA-D11B-4D06-8E43-6B55E9DA6959}" name="snd L2 regularization?" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{9F9B91EE-FC3B-4A59-BC66-DC774FCDE125}" name="snd lambda" dataDxfId="46"/>
+    <tableColumn id="19" xr3:uid="{C5D2E6BF-EF52-4FB1-A6D3-1C816201B2DA}" name="batch size" dataDxfId="45"/>
+    <tableColumn id="20" xr3:uid="{E0656082-56E5-4465-89B4-696632D69AF8}" name="epochs" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{DBCA6EB0-E4C0-42EF-BE92-1A9E8442469D}" name="Fold 1" dataDxfId="43" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{EC12F9E1-C75D-4875-A833-0F15BC178545}" name="Fold 2" dataDxfId="42" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{26A3F004-7925-4AC1-B8AA-61B5BFFF8E9C}" name="Fold 3" dataDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{515B2D70-36D2-4551-8AF8-FB856656F166}" name="Fold 4" dataDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{B7C360CC-32DA-421D-97D5-43E7B4BF762C}" name="Std" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{06DFEA4B-3831-4FEC-B841-9586DC6F5715}" name="Average" dataDxfId="38" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50F8C802-D311-4C69-8481-D273E90B8433}" name="Table2" displayName="Table2" ref="B7:G17" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50F8C802-D311-4C69-8481-D273E90B8433}" name="Table2" displayName="Table2" ref="B7:G17" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="B7:G17" xr:uid="{70C82073-811F-4A54-B2B3-3DB77FF5C36C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{18FC7DFE-397D-4DDB-859B-4A104BD44CCD}" name="Name " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{01B6744D-B816-40D4-84B3-175F903B295E}" name="Tmux Session" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{47B77FC0-D447-4D1E-8BFB-6E36FCD91316}" name="Problem" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BAF46EA2-DA73-4B0F-AEB3-6697ED34B0D4}" name="Seed" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{AE7FC2B8-0BBE-4228-9773-538D5A9CA57B}" name="Iterations" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{36E77298-3202-4BD7-B390-CD219E2979DF}" name="memory_frac" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{18FC7DFE-397D-4DDB-859B-4A104BD44CCD}" name="Name " dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{01B6744D-B816-40D4-84B3-175F903B295E}" name="Tmux Session" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{47B77FC0-D447-4D1E-8BFB-6E36FCD91316}" name="Problem" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{BAF46EA2-DA73-4B0F-AEB3-6697ED34B0D4}" name="Seed" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{AE7FC2B8-0BBE-4228-9773-538D5A9CA57B}" name="Iterations" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{36E77298-3202-4BD7-B390-CD219E2979DF}" name="memory_frac" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F37C1BB-14AB-4ED5-B695-8219BE02F724}" name="Table4" displayName="Table4" ref="J21:N30" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F37C1BB-14AB-4ED5-B695-8219BE02F724}" name="Table4" displayName="Table4" ref="J21:N30" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="J21:N30" xr:uid="{AD4FD850-4C47-4712-B179-3C0B538018A4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6186C0A3-B1B9-48C3-87BB-452371F2A06B}" name="Problem" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{E63CCF47-A735-4887-9F29-B0454106EC9E}" name="Seed" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{A0A69E40-405F-4807-B314-BF1FEBC75551}" name="Iterations" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{8F5D51A8-8898-4C0F-94B9-62EF59F4A6C2}" name="memory_frac" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{12B3A7AC-1E5D-4371-9B5A-57C8BFBF0B25}" name="Completed" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{6186C0A3-B1B9-48C3-87BB-452371F2A06B}" name="Problem" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{E63CCF47-A735-4887-9F29-B0454106EC9E}" name="Seed" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A0A69E40-405F-4807-B314-BF1FEBC75551}" name="Iterations" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8F5D51A8-8898-4C0F-94B9-62EF59F4A6C2}" name="memory_frac" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{12B3A7AC-1E5D-4371-9B5A-57C8BFBF0B25}" name="Completed" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FBFF0E64-1CE7-40BA-A8FD-1E70546B81F2}" name="Table5" displayName="Table5" ref="J7:M9" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FBFF0E64-1CE7-40BA-A8FD-1E70546B81F2}" name="Table5" displayName="Table5" ref="J7:M9" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="J7:M9" xr:uid="{4B443EFB-2A03-42D5-9ACF-9FF9F1212F43}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{960C5177-250E-4233-AF2A-BA6973714243}" name="Problem" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{3115131B-F046-4B1D-9D89-92E1E8B330C7}" name="Seed" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{58062F58-4774-43B7-BE3D-A3867AFE7A44}" name="Iterations" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{BEC89436-CE5F-4668-8732-3B2902052FC8}" name="memory_frac" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{960C5177-250E-4233-AF2A-BA6973714243}" name="Problem" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{3115131B-F046-4B1D-9D89-92E1E8B330C7}" name="Seed" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{58062F58-4774-43B7-BE3D-A3867AFE7A44}" name="Iterations" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BEC89436-CE5F-4668-8732-3B2902052FC8}" name="memory_frac" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4ADA31A-F24C-4F99-BDA3-3D90F7BFCB10}" name="Table3" displayName="Table3" ref="B21:H46" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4ADA31A-F24C-4F99-BDA3-3D90F7BFCB10}" name="Table3" displayName="Table3" ref="B21:H46" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B21:H46" xr:uid="{E48B09AF-DF99-4634-B72D-76260B2094E2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9FBD64CA-D43C-4696-B8DA-24C92108326A}" name="Name " dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{078173AE-DF7C-4E92-B4B6-A3FF25932F07}" name="Tmux Session" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{EE8E8CA3-BADD-4408-9166-BD1D4AE032B6}" name="Problem" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{D6C58D65-DD4C-4644-8CEE-AD9275A25E8B}" name="Seed" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{254C4F23-D96E-4A1E-BC1F-1690DAA9AAC5}" name="Iterations" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{C9647215-55F5-4756-819F-DB4FC6BBE28E}" name="memory_frac" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{26F1C347-D9D8-4020-8F4D-46C153498856}" name="Completed" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{9FBD64CA-D43C-4696-B8DA-24C92108326A}" name="Name " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{078173AE-DF7C-4E92-B4B6-A3FF25932F07}" name="Tmux Session" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{EE8E8CA3-BADD-4408-9166-BD1D4AE032B6}" name="Problem" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D6C58D65-DD4C-4644-8CEE-AD9275A25E8B}" name="Seed" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{254C4F23-D96E-4A1E-BC1F-1690DAA9AAC5}" name="Iterations" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C9647215-55F5-4756-819F-DB4FC6BBE28E}" name="memory_frac" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{26F1C347-D9D8-4020-8F4D-46C153498856}" name="Completed" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2711,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5F8B0E-17AA-4631-8565-91D998A20F4E}">
   <dimension ref="B2:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,22 +2727,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -5445,7 +5445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FC45D7-5B1D-4989-90D7-BD2FD38564A0}">
   <dimension ref="B2:S60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -5461,25 +5461,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="49"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="56"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -8713,19 +8713,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -8743,22 +8743,22 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -8958,22 +8958,22 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="50">
         <v>22</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="49">
         <v>4</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="51">
         <v>0.17</v>
       </c>
       <c r="H13" s="11"/>
@@ -8985,22 +8985,22 @@
       <c r="N13" s="11"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="48">
         <v>7</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="52">
         <v>4</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="53">
         <v>0.17</v>
       </c>
       <c r="H14" s="11"/>
@@ -9012,22 +9012,22 @@
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="48">
         <v>8</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="52">
         <v>4</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="53">
         <v>0.17</v>
       </c>
       <c r="H15" s="11"/>
@@ -9039,22 +9039,22 @@
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="48">
         <v>9</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="52">
         <v>4</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="53">
         <v>0.17</v>
       </c>
       <c r="H16" s="11"/>

--- a/Results/Neural Networks/Results.xlsx
+++ b/Results/Neural Networks/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Neural Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C4A9B-CDF2-44E0-B184-2EDCA93E3D46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E7CD45-F078-4B18-8E47-88BAC672DB53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="50">
   <si>
     <t>Accuracy</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>leaky relu</t>
+  </si>
+  <si>
+    <t>Two Layer Neural Network Random Search</t>
   </si>
 </sst>
 </file>
@@ -856,13 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -915,9 +912,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,6 +983,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2326,10 +2329,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B626D81A-C02C-4E76-AFEC-DB56EAC289A8}" name="Table62" displayName="Table62" ref="C4:S60" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
-  <autoFilter ref="C4:S60" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
-  <sortState ref="C5:S60">
-    <sortCondition descending="1" ref="S4:S60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B626D81A-C02C-4E76-AFEC-DB56EAC289A8}" name="Table62" displayName="Table62" ref="C4:S68" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+  <autoFilter ref="C4:S68" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
+  <sortState ref="C5:S68">
+    <sortCondition descending="1" ref="S4:S68"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="13" xr3:uid="{452FFD92-6934-49FF-9D05-6F560AF5344A}" name="Seed" dataDxfId="54"/>
@@ -2397,8 +2400,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4ADA31A-F24C-4F99-BDA3-3D90F7BFCB10}" name="Table3" displayName="Table3" ref="B21:H46" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B21:H46" xr:uid="{E48B09AF-DF99-4634-B72D-76260B2094E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4ADA31A-F24C-4F99-BDA3-3D90F7BFCB10}" name="Table3" displayName="Table3" ref="B21:H47" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B21:H47" xr:uid="{E48B09AF-DF99-4634-B72D-76260B2094E2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9FBD64CA-D43C-4696-B8DA-24C92108326A}" name="Name " dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{078173AE-DF7C-4E92-B4B6-A3FF25932F07}" name="Tmux Session" dataDxfId="5"/>
@@ -2712,7 +2715,7 @@
   <dimension ref="B2:O64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,43 +2751,43 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2792,7 +2795,7 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>7</v>
       </c>
       <c r="D5" s="5">
@@ -2828,7 +2831,7 @@
       <c r="N5" s="1">
         <v>1.5499999999999999E-3</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="34">
         <v>0.32099151893701999</v>
       </c>
     </row>
@@ -2836,7 +2839,7 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
       <c r="D6" s="5">
@@ -2872,7 +2875,7 @@
       <c r="N6" s="1">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="34">
         <v>0.32064719196122299</v>
       </c>
     </row>
@@ -2880,7 +2883,7 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>7</v>
       </c>
       <c r="D7" s="5">
@@ -2916,7 +2919,7 @@
       <c r="N7" s="1">
         <v>1.97E-3</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="34">
         <v>0.31949883869913998</v>
       </c>
     </row>
@@ -2924,43 +2927,43 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="42">
         <v>12</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>50</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>1E-3</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>500</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>1024</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="40">
+      <c r="I8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37">
         <v>0.31961392475668898</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="37">
         <v>0.31477367444056598</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="37">
         <v>0.32012549593658302</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="37">
         <v>0.32051658136355898</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="37">
         <v>2.32E-3</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="38">
         <v>0.31875741755103199</v>
       </c>
     </row>
@@ -2968,7 +2971,7 @@
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>7</v>
       </c>
       <c r="D9" s="5">
@@ -3004,7 +3007,7 @@
       <c r="N9" s="1">
         <v>1.6900000000000001E-3</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="34">
         <v>0.318728798171168</v>
       </c>
     </row>
@@ -3012,43 +3015,43 @@
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="42">
         <v>4</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>33</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>1E-3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>10</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <v>512</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="40">
+      <c r="I10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
         <v>0.31734941744165801</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="37">
         <v>0.31556070703525302</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="37">
         <v>0.32022566368573802</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="37">
         <v>0.317744070402186</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="37">
         <v>1.66E-3</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="38">
         <v>0.31771996461965002</v>
       </c>
     </row>
@@ -3056,7 +3059,7 @@
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>15</v>
       </c>
       <c r="D11" s="5">
@@ -3092,7 +3095,7 @@
       <c r="N11" s="1">
         <v>1.92E-3</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="34">
         <v>0.315996540630746</v>
       </c>
     </row>
@@ -3100,7 +3103,7 @@
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0</v>
       </c>
       <c r="D12" s="5">
@@ -3136,7 +3139,7 @@
       <c r="N12" s="1">
         <v>2.2100000000000002E-3</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="34">
         <v>0.31585612661373003</v>
       </c>
     </row>
@@ -3144,7 +3147,7 @@
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>11</v>
       </c>
       <c r="D13" s="5">
@@ -3180,7 +3183,7 @@
       <c r="N13" s="1">
         <v>1.48E-3</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="34">
         <v>0.31533740053096099</v>
       </c>
     </row>
@@ -3188,43 +3191,43 @@
       <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
         <v>47</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>1E-3</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>300</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <v>256</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
+      <c r="I14" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
         <v>0.31599715237318798</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <v>0.31124991502442201</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>0.31658027195254002</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="22">
         <v>0.31515043109268298</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="22">
         <v>2.0799999999999998E-3</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="23">
         <v>0.31474444224761</v>
       </c>
     </row>
@@ -3232,7 +3235,7 @@
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>0</v>
       </c>
       <c r="D15" s="5">
@@ -3268,7 +3271,7 @@
       <c r="N15" s="1">
         <v>2.16E-3</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="34">
         <v>0.31452890245007797</v>
       </c>
     </row>
@@ -3276,7 +3279,7 @@
       <c r="B16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>13</v>
       </c>
       <c r="D16" s="5">
@@ -3312,7 +3315,7 @@
       <c r="N16" s="1">
         <v>2.15E-3</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="34">
         <v>0.31449402257299502</v>
       </c>
     </row>
@@ -3320,43 +3323,43 @@
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>9</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>54</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>0.01</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>300</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <v>1024</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="21">
+      <c r="I17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
         <v>0.31484880031365597</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="19">
         <v>0.31309586413064899</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="19">
         <v>0.31811140804620203</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <v>0.31124387365293599</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="19">
         <v>2.5300000000000001E-3</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="20">
         <v>0.31432498929147301</v>
       </c>
     </row>
@@ -3364,43 +3367,43 @@
       <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>45</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>50</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>768</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="40">
+      <c r="I18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="37">
         <v>0.314043880786118</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="37">
         <v>0.31168993708861598</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="37">
         <v>0.31643002086097799</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="37">
         <v>0.31435623988543798</v>
       </c>
-      <c r="N18" s="40">
+      <c r="N18" s="37">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="38">
         <v>0.31413001945296598</v>
       </c>
     </row>
@@ -3408,7 +3411,7 @@
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>5</v>
       </c>
       <c r="D19" s="5">
@@ -3444,7 +3447,7 @@
       <c r="N19" s="1">
         <v>1.24E-3</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="34">
         <v>0.313763333730257</v>
       </c>
     </row>
@@ -3452,7 +3455,7 @@
       <c r="B20" s="3">
         <v>16</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>13</v>
       </c>
       <c r="D20" s="5">
@@ -3488,7 +3491,7 @@
       <c r="N20" s="1">
         <v>1.2099999999999999E-3</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="34">
         <v>0.31327859274463998</v>
       </c>
     </row>
@@ -3496,7 +3499,7 @@
       <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>10</v>
       </c>
       <c r="D21" s="5">
@@ -3532,7 +3535,7 @@
       <c r="N21" s="1">
         <v>1.41E-3</v>
       </c>
-      <c r="O21" s="37">
+      <c r="O21" s="34">
         <v>0.31284125275886598</v>
       </c>
     </row>
@@ -3540,43 +3543,43 @@
       <c r="B22" s="3">
         <v>18</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>17</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <v>0.05</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>200</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="13">
         <v>256</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="40">
+      <c r="I22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="37">
         <v>0.31063817608759098</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="37">
         <v>0.31147886995708302</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="37">
         <v>0.31450179049945898</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="37">
         <v>0.31299681609650798</v>
       </c>
-      <c r="N22" s="40">
+      <c r="N22" s="37">
         <v>1.48E-3</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="38">
         <v>0.31240391262989398</v>
       </c>
     </row>
@@ -3584,7 +3587,7 @@
       <c r="B23" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>16</v>
       </c>
       <c r="D23" s="5">
@@ -3620,7 +3623,7 @@
       <c r="N23" s="1">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="34">
         <v>0.311682166823257</v>
       </c>
     </row>
@@ -3628,7 +3631,7 @@
       <c r="B24" s="3">
         <v>20</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>6</v>
       </c>
       <c r="D24" s="5">
@@ -3664,7 +3667,7 @@
       <c r="N24" s="1">
         <v>1.2800000000000001E-3</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="34">
         <v>0.31148898645241602</v>
       </c>
     </row>
@@ -3672,7 +3675,7 @@
       <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>11</v>
       </c>
       <c r="D25" s="5">
@@ -3708,7 +3711,7 @@
       <c r="N25" s="1">
         <v>1.16E-3</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="34">
         <v>0.31115807513183003</v>
       </c>
     </row>
@@ -3716,43 +3719,43 @@
       <c r="B26" s="3">
         <v>22</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="42">
         <v>16</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <v>18</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="13">
         <v>0.01</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="13">
         <v>300</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="13">
         <v>256</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="40">
+      <c r="I26" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="37">
         <v>0.31099949559230899</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="37">
         <v>0.302267011529813</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="37">
         <v>0.31817580160117198</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="37">
         <v>0.310864665688941</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="37">
         <v>5.64E-3</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="38">
         <v>0.31057674334555402</v>
       </c>
     </row>
@@ -3760,7 +3763,7 @@
       <c r="B27" s="2">
         <v>23</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>11</v>
       </c>
       <c r="D27" s="5">
@@ -3796,7 +3799,7 @@
       <c r="N27" s="1">
         <v>2.31E-3</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="34">
         <v>0.31054633524092101</v>
       </c>
     </row>
@@ -3804,7 +3807,7 @@
       <c r="B28" s="3">
         <v>24</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>13</v>
       </c>
       <c r="D28" s="5">
@@ -3840,7 +3843,7 @@
       <c r="N28" s="1">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="34">
         <v>0.31042380847339501</v>
       </c>
     </row>
@@ -3848,7 +3851,7 @@
       <c r="B29" s="2">
         <v>25</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>0</v>
       </c>
       <c r="D29" s="5">
@@ -3884,7 +3887,7 @@
       <c r="N29" s="1">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="34">
         <v>0.31000882728349599</v>
       </c>
     </row>
@@ -3892,43 +3895,43 @@
       <c r="B30" s="3">
         <v>26</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="42">
         <v>14</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>2</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="13">
         <v>1E-3</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="13">
         <v>300</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="13">
         <v>512</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="40">
+      <c r="I30" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="37">
         <v>0.30815544606057299</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="37">
         <v>0.30838440099205999</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="37">
         <v>0.31255925103225701</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="37">
         <v>0.31012771440009401</v>
       </c>
-      <c r="N30" s="40">
+      <c r="N30" s="37">
         <v>1.7600000000000001E-3</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O30" s="38">
         <v>0.30980670283414802</v>
       </c>
     </row>
@@ -3936,7 +3939,7 @@
       <c r="B31" s="2">
         <v>27</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>6</v>
       </c>
       <c r="D31" s="5">
@@ -3972,7 +3975,7 @@
       <c r="N31" s="1">
         <v>4.8500000000000001E-3</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="34">
         <v>0.30910373902069699</v>
       </c>
     </row>
@@ -3980,7 +3983,7 @@
       <c r="B32" s="3">
         <v>28</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>2</v>
       </c>
       <c r="D32" s="5">
@@ -4016,7 +4019,7 @@
       <c r="N32" s="1">
         <v>3.2699999999999999E-3</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="34">
         <v>0.30890608636217498</v>
       </c>
     </row>
@@ -4024,7 +4027,7 @@
       <c r="B33" s="2">
         <v>29</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>8</v>
       </c>
       <c r="D33" s="5">
@@ -4060,7 +4063,7 @@
       <c r="N33" s="1">
         <v>1.83E-3</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="34">
         <v>0.30766919203318799</v>
       </c>
     </row>
@@ -4068,43 +4071,43 @@
       <c r="B34" s="3">
         <v>30</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="42">
         <v>6</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <v>18</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="13">
         <v>0.05</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="13">
         <v>500</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="13">
         <v>1024</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="40">
+      <c r="I34" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="37">
         <v>0.30885662058025998</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="37">
         <v>0.30996562101067598</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="37">
         <v>0.30541514182753299</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="37">
         <v>0.30607805964759299</v>
       </c>
-      <c r="N34" s="40">
+      <c r="N34" s="37">
         <v>1.89E-3</v>
       </c>
-      <c r="O34" s="41">
+      <c r="O34" s="38">
         <v>0.307578862108766</v>
       </c>
     </row>
@@ -4112,7 +4115,7 @@
       <c r="B35" s="2">
         <v>31</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>12</v>
       </c>
       <c r="D35" s="5">
@@ -4148,7 +4151,7 @@
       <c r="N35" s="1">
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="34">
         <v>0.30704672007839401</v>
       </c>
     </row>
@@ -4156,43 +4159,43 @@
       <c r="B36" s="3">
         <v>32</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="42">
         <v>13</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="13">
         <v>2</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="13">
         <v>0.1</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="13">
         <v>400</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="13">
         <v>256</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="40">
+      <c r="I36" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="37">
         <v>0.30631307440399003</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="37">
         <v>0.30599110652721401</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="37">
         <v>0.30881369150688398</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="37">
         <v>0.30364540479790703</v>
       </c>
-      <c r="N36" s="40">
+      <c r="N36" s="37">
         <v>1.83E-3</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="38">
         <v>0.30619082158550598</v>
       </c>
     </row>
@@ -4200,7 +4203,7 @@
       <c r="B37" s="2">
         <v>33</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>5</v>
       </c>
       <c r="D37" s="5">
@@ -4236,7 +4239,7 @@
       <c r="N37" s="1">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="O37" s="37">
+      <c r="O37" s="34">
         <v>0.30502279265240301</v>
       </c>
     </row>
@@ -4244,7 +4247,7 @@
       <c r="B38" s="3">
         <v>34</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>8</v>
       </c>
       <c r="D38" s="5">
@@ -4280,7 +4283,7 @@
       <c r="N38" s="1">
         <v>2.8300000000000001E-3</v>
       </c>
-      <c r="O38" s="37">
+      <c r="O38" s="34">
         <v>0.30498254665201602</v>
       </c>
     </row>
@@ -4288,7 +4291,7 @@
       <c r="B39" s="2">
         <v>35</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>11</v>
       </c>
       <c r="D39" s="5">
@@ -4324,7 +4327,7 @@
       <c r="N39" s="1">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="O39" s="37">
+      <c r="O39" s="34">
         <v>0.304338610335883</v>
       </c>
     </row>
@@ -4332,43 +4335,43 @@
       <c r="B40" s="3">
         <v>36</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="42">
         <v>14</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>67</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="13">
         <v>0.1</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="13">
         <v>400</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="13">
         <v>512</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="40">
+      <c r="I40" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="37">
         <v>0.30242441806589498</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="37">
         <v>0.29677209327336901</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="37">
         <v>0.30566556122115801</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="37">
         <v>0.30495116802331101</v>
       </c>
-      <c r="N40" s="40">
+      <c r="N40" s="37">
         <v>3.49E-3</v>
       </c>
-      <c r="O40" s="41">
+      <c r="O40" s="38">
         <v>0.30245330791195901</v>
       </c>
     </row>
@@ -4376,7 +4379,7 @@
       <c r="B41" s="2">
         <v>37</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>2</v>
       </c>
       <c r="D41" s="5">
@@ -4412,7 +4415,7 @@
       <c r="N41" s="1">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="O41" s="37">
+      <c r="O41" s="34">
         <v>0.302218986650786</v>
       </c>
     </row>
@@ -4420,7 +4423,7 @@
       <c r="B42" s="3">
         <v>38</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>8</v>
       </c>
       <c r="D42" s="5">
@@ -4456,7 +4459,7 @@
       <c r="N42" s="1">
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="O42" s="37">
+      <c r="O42" s="34">
         <v>0.29078196226195502</v>
       </c>
     </row>
@@ -4464,7 +4467,7 @@
       <c r="B43" s="2">
         <v>39</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>14</v>
       </c>
       <c r="D43" s="5">
@@ -4500,7 +4503,7 @@
       <c r="N43" s="1">
         <v>6.8399999999999997E-3</v>
       </c>
-      <c r="O43" s="37">
+      <c r="O43" s="34">
         <v>0.28990638760633702</v>
       </c>
     </row>
@@ -4508,43 +4511,43 @@
       <c r="B44" s="3">
         <v>40</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>12</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="13">
         <v>27</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="13">
         <v>0.05</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="13">
         <v>100</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="13">
         <v>256</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="40">
+      <c r="I44" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="37">
         <v>0.28064508050505599</v>
       </c>
-      <c r="K44" s="40">
+      <c r="K44" s="37">
         <v>0.28731697021486802</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="37">
         <v>0.29117700720630502</v>
       </c>
-      <c r="M44" s="40">
+      <c r="M44" s="37">
         <v>0.29266268380131</v>
       </c>
-      <c r="N44" s="40">
+      <c r="N44" s="37">
         <v>4.6499999999999996E-3</v>
       </c>
-      <c r="O44" s="41">
+      <c r="O44" s="38">
         <v>0.287950431217457</v>
       </c>
     </row>
@@ -4552,7 +4555,7 @@
       <c r="B45" s="2">
         <v>41</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>15</v>
       </c>
       <c r="D45" s="5">
@@ -4588,7 +4591,7 @@
       <c r="N45" s="1">
         <v>2.103E-2</v>
       </c>
-      <c r="O45" s="37">
+      <c r="O45" s="34">
         <v>0.28344734882113198</v>
       </c>
     </row>
@@ -4596,7 +4599,7 @@
       <c r="B46" s="3">
         <v>42</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>8</v>
       </c>
       <c r="D46" s="5">
@@ -4632,7 +4635,7 @@
       <c r="N46" s="1">
         <v>9.3500000000000007E-3</v>
       </c>
-      <c r="O46" s="37">
+      <c r="O46" s="34">
         <v>0.28025628665293201</v>
       </c>
     </row>
@@ -4640,7 +4643,7 @@
       <c r="B47" s="2">
         <v>43</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>15</v>
       </c>
       <c r="D47" s="5">
@@ -4676,7 +4679,7 @@
       <c r="N47" s="1">
         <v>2.511E-2</v>
       </c>
-      <c r="O47" s="37">
+      <c r="O47" s="34">
         <v>0.27391440834547998</v>
       </c>
     </row>
@@ -4684,43 +4687,43 @@
       <c r="B48" s="3">
         <v>44</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="42">
         <v>15</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="13">
         <v>12</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="13">
         <v>0.1</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="13">
         <v>300</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="13">
         <v>512</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="40">
+      <c r="I48" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="37">
         <v>0.24769703541605101</v>
       </c>
-      <c r="K48" s="40">
+      <c r="K48" s="37">
         <v>0.24697439639531199</v>
       </c>
-      <c r="L48" s="40">
+      <c r="L48" s="37">
         <v>0.30617713240307798</v>
       </c>
-      <c r="M48" s="40">
+      <c r="M48" s="37">
         <v>0.25311415592694297</v>
       </c>
-      <c r="N48" s="40">
+      <c r="N48" s="37">
         <v>2.4760000000000001E-2</v>
       </c>
-      <c r="O48" s="41">
+      <c r="O48" s="38">
         <v>0.263490689315652</v>
       </c>
     </row>
@@ -4728,7 +4731,7 @@
       <c r="B49" s="2">
         <v>45</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>3</v>
       </c>
       <c r="D49" s="5">
@@ -4764,7 +4767,7 @@
       <c r="N49" s="1">
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="O49" s="37">
+      <c r="O49" s="34">
         <v>0.252000897885301</v>
       </c>
     </row>
@@ -4772,43 +4775,43 @@
       <c r="B50" s="3">
         <v>46</v>
       </c>
-      <c r="C50" s="19">
-        <v>1</v>
-      </c>
-      <c r="D50" s="20">
+      <c r="C50" s="17">
+        <v>1</v>
+      </c>
+      <c r="D50" s="18">
         <v>10</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>0.5</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="18">
         <v>10</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="18">
         <v>128</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="21">
+      <c r="I50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="19">
         <v>0.25365701836257998</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="19">
         <v>0.25251939856386302</v>
       </c>
-      <c r="L50" s="21">
+      <c r="L50" s="19">
         <v>0.24625891225467</v>
       </c>
-      <c r="M50" s="21">
+      <c r="M50" s="19">
         <v>0.25218044574693999</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N50" s="19">
         <v>2.8800000000000002E-3</v>
       </c>
-      <c r="O50" s="22">
+      <c r="O50" s="20">
         <v>0.25115394281395498</v>
       </c>
     </row>
@@ -4816,7 +4819,7 @@
       <c r="B51" s="2">
         <v>47</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>10</v>
       </c>
       <c r="D51" s="5">
@@ -4852,7 +4855,7 @@
       <c r="N51" s="1">
         <v>3.7100000000000002E-3</v>
       </c>
-      <c r="O51" s="37">
+      <c r="O51" s="34">
         <v>0.25062358971085602</v>
       </c>
     </row>
@@ -4860,43 +4863,43 @@
       <c r="B52" s="3">
         <v>48</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="42">
         <v>3</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="13">
         <v>34</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="13">
         <v>0.05</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="13">
         <v>300</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="13">
         <v>256</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="40">
+      <c r="I52" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="37">
         <v>0.253657018365406</v>
       </c>
-      <c r="K52" s="40">
+      <c r="K52" s="37">
         <v>0.246974396390301</v>
       </c>
-      <c r="L52" s="40">
+      <c r="L52" s="37">
         <v>0.246144434782743</v>
       </c>
-      <c r="M52" s="40">
+      <c r="M52" s="37">
         <v>0.25215898115886598</v>
       </c>
-      <c r="N52" s="40">
+      <c r="N52" s="37">
         <v>3.2299999999999998E-3</v>
       </c>
-      <c r="O52" s="41">
+      <c r="O52" s="38">
         <v>0.24973370550527099</v>
       </c>
     </row>
@@ -4904,7 +4907,7 @@
       <c r="B53" s="2">
         <v>49</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>4</v>
       </c>
       <c r="D53" s="5">
@@ -4940,7 +4943,7 @@
       <c r="N53" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O53" s="37">
+      <c r="O53" s="34">
         <v>0.24964516436845399</v>
       </c>
     </row>
@@ -4948,7 +4951,7 @@
       <c r="B54" s="3">
         <v>50</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>4</v>
       </c>
       <c r="D54" s="5">
@@ -4984,7 +4987,7 @@
       <c r="N54" s="1">
         <v>2.5799999999999998E-3</v>
       </c>
-      <c r="O54" s="37">
+      <c r="O54" s="34">
         <v>0.24950385601705299</v>
       </c>
     </row>
@@ -4992,7 +4995,7 @@
       <c r="B55" s="2">
         <v>51</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>14</v>
       </c>
       <c r="D55" s="5">
@@ -5028,7 +5031,7 @@
       <c r="N55" s="1">
         <v>2.5799999999999998E-3</v>
       </c>
-      <c r="O55" s="37">
+      <c r="O55" s="34">
         <v>0.249503856015654</v>
       </c>
     </row>
@@ -5036,43 +5039,43 @@
       <c r="B56" s="3">
         <v>52</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="42">
         <v>5</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="13">
         <v>41</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="13">
         <v>0.5</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="13">
         <v>300</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="13">
         <v>256</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="40">
+      <c r="I56" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="37">
         <v>0.244255556617267</v>
       </c>
-      <c r="K56" s="40">
+      <c r="K56" s="37">
         <v>0.25251939855858502</v>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="37">
         <v>0.25356042800144502</v>
       </c>
-      <c r="M56" s="40">
+      <c r="M56" s="37">
         <v>0.247182771082052</v>
       </c>
-      <c r="N56" s="40">
+      <c r="N56" s="37">
         <v>3.82E-3</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="38">
         <v>0.24937954052953001</v>
       </c>
     </row>
@@ -5080,7 +5083,7 @@
       <c r="B57" s="2">
         <v>53</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>4</v>
       </c>
       <c r="D57" s="5">
@@ -5116,7 +5119,7 @@
       <c r="N57" s="1">
         <v>2.2100000000000002E-3</v>
       </c>
-      <c r="O57" s="37">
+      <c r="O57" s="34">
         <v>0.248651534739735</v>
       </c>
     </row>
@@ -5124,7 +5127,7 @@
       <c r="B58" s="3">
         <v>54</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>3</v>
       </c>
       <c r="D58" s="5">
@@ -5160,7 +5163,7 @@
       <c r="N58" s="1">
         <v>2.1900000000000001E-3</v>
       </c>
-      <c r="O58" s="37">
+      <c r="O58" s="34">
         <v>0.248231187438191</v>
       </c>
     </row>
@@ -5168,7 +5171,7 @@
       <c r="B59" s="2">
         <v>55</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>0</v>
       </c>
       <c r="D59" s="5">
@@ -5204,7 +5207,7 @@
       <c r="N59" s="1">
         <v>3.0699999999999998E-3</v>
       </c>
-      <c r="O59" s="37">
+      <c r="O59" s="34">
         <v>0.24787791682602101</v>
       </c>
     </row>
@@ -5212,43 +5215,43 @@
       <c r="B60" s="3">
         <v>56</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="42">
         <v>7</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="13">
         <v>14</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="13">
         <v>0.1</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="13">
         <v>200</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="13">
         <v>768</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I60" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="40">
+      <c r="I60" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="37">
         <v>0.24425555704522101</v>
       </c>
-      <c r="K60" s="40">
+      <c r="K60" s="37">
         <v>0.25187904034977898</v>
       </c>
-      <c r="L60" s="40">
+      <c r="L60" s="37">
         <v>0.246144435011699</v>
       </c>
-      <c r="M60" s="40">
+      <c r="M60" s="37">
         <v>0.24847780223326099</v>
       </c>
-      <c r="N60" s="40">
+      <c r="N60" s="37">
         <v>2.8400000000000001E-3</v>
       </c>
-      <c r="O60" s="41">
+      <c r="O60" s="38">
         <v>0.247689207954707</v>
       </c>
     </row>
@@ -5256,7 +5259,7 @@
       <c r="B61" s="2">
         <v>57</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>2</v>
       </c>
       <c r="D61" s="5">
@@ -5292,7 +5295,7 @@
       <c r="N61" s="1">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="O61" s="37">
+      <c r="O61" s="34">
         <v>0.247407485574202</v>
       </c>
     </row>
@@ -5300,7 +5303,7 @@
       <c r="B62" s="3">
         <v>58</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>12</v>
       </c>
       <c r="D62" s="5">
@@ -5336,7 +5339,7 @@
       <c r="N62" s="1">
         <v>1.7899999999999999E-3</v>
       </c>
-      <c r="O62" s="37">
+      <c r="O62" s="34">
         <v>0.246899491380389</v>
       </c>
     </row>
@@ -5344,43 +5347,43 @@
       <c r="B63" s="2">
         <v>59</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="17">
         <v>9</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="18">
         <v>8</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="18">
         <v>0.01</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="18">
         <v>400</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="18">
         <v>512</v>
       </c>
-      <c r="H63" s="20" t="s">
+      <c r="H63" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="21">
+      <c r="I63" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="19">
         <v>0.24425555661918599</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="19">
         <v>0.24860570023610401</v>
       </c>
-      <c r="L63" s="21">
+      <c r="L63" s="19">
         <v>0.24614443477357401</v>
       </c>
-      <c r="M63" s="21">
+      <c r="M63" s="19">
         <v>0.24847780201651101</v>
       </c>
-      <c r="N63" s="21">
+      <c r="N63" s="19">
         <v>1.8E-3</v>
       </c>
-      <c r="O63" s="22">
+      <c r="O63" s="20">
         <v>0.24687087197417701</v>
       </c>
     </row>
@@ -5388,43 +5391,43 @@
       <c r="B64" s="3">
         <v>60</v>
       </c>
-      <c r="C64" s="45">
+      <c r="C64" s="42">
         <v>2</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="13">
         <v>25</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="13">
         <v>0.01</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F64" s="13">
         <v>50</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="13">
         <v>768</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I64" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="40">
+      <c r="I64" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="37">
         <v>0.24425555704522101</v>
       </c>
-      <c r="K64" s="40">
+      <c r="K64" s="37">
         <v>0.24860569991881601</v>
       </c>
-      <c r="L64" s="40">
+      <c r="L64" s="37">
         <v>0.24625891275645601</v>
       </c>
-      <c r="M64" s="40">
+      <c r="M64" s="37">
         <v>0.24718277108855599</v>
       </c>
-      <c r="N64" s="40">
+      <c r="N64" s="37">
         <v>1.58E-3</v>
       </c>
-      <c r="O64" s="41">
+      <c r="O64" s="38">
         <v>0.24657573465935601</v>
       </c>
     </row>
@@ -5443,10 +5446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FC45D7-5B1D-4989-90D7-BD2FD38564A0}">
-  <dimension ref="B2:S60"/>
+  <dimension ref="B2:S68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5462,7 +5465,7 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -5485,55 +5488,55 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5541,7 +5544,7 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>14</v>
       </c>
       <c r="D5" s="5">
@@ -5589,7 +5592,7 @@
       <c r="R5" s="1">
         <v>2.0300000000000001E-3</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="34">
         <v>0.31533650590923501</v>
       </c>
     </row>
@@ -5597,7 +5600,7 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>15</v>
       </c>
       <c r="D6" s="5">
@@ -5645,7 +5648,7 @@
       <c r="R6" s="1">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="34">
         <v>0.31527390098652602</v>
       </c>
     </row>
@@ -5653,7 +5656,7 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>21</v>
       </c>
       <c r="D7" s="5">
@@ -5701,7 +5704,7 @@
       <c r="R7" s="1">
         <v>1.64E-3</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="34">
         <v>0.31446898060745998</v>
       </c>
     </row>
@@ -5709,7 +5712,7 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>16</v>
       </c>
       <c r="D8" s="5">
@@ -5757,7 +5760,7 @@
       <c r="R8" s="1">
         <v>1.81E-3</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="34">
         <v>0.31442515717965602</v>
       </c>
     </row>
@@ -5765,70 +5768,70 @@
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21</v>
+      <c r="C9" s="7">
+        <v>11</v>
       </c>
       <c r="D9" s="5">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>66</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="H9" s="5">
-        <v>17</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L9" s="5">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M9" s="5">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N9" s="1">
-        <v>0.314133316163419</v>
+        <v>0.31492392614751202</v>
       </c>
       <c r="O9" s="1">
-        <v>0.31356450626398003</v>
+        <v>0.310477192144618</v>
       </c>
       <c r="P9" s="1">
-        <v>0.31501336163089599</v>
+        <v>0.31549273604876299</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.31188065686136501</v>
+        <v>0.31587307266940301</v>
       </c>
       <c r="R9" s="1">
-        <v>1.14E-3</v>
-      </c>
-      <c r="S9" s="37">
-        <v>0.31364796181051302</v>
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="S9" s="34">
+        <v>0.31419173024885699</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
-        <v>3</v>
+      <c r="C10" s="7">
+        <v>21</v>
       </c>
       <c r="D10" s="5">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="b">
         <v>1</v>
@@ -5837,7 +5840,7 @@
         <v>1E-3</v>
       </c>
       <c r="H10" s="5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
@@ -5846,42 +5849,42 @@
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="5">
         <v>1024</v>
       </c>
       <c r="M10" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" s="1">
-        <v>0.31317814477306299</v>
+        <v>0.314133316163419</v>
       </c>
       <c r="O10" s="1">
-        <v>0.31166847321115798</v>
+        <v>0.31356450626398003</v>
       </c>
       <c r="P10" s="1">
-        <v>0.31452683245596502</v>
+        <v>0.31501336163089599</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.31310413914115198</v>
+        <v>0.31188065686136501</v>
       </c>
       <c r="R10" s="1">
-        <v>1.01E-3</v>
-      </c>
-      <c r="S10" s="37">
-        <v>0.31311939740898098</v>
+        <v>1.14E-3</v>
+      </c>
+      <c r="S10" s="34">
+        <v>0.31364796181051302</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
+      <c r="C11" s="7">
+        <v>3</v>
       </c>
       <c r="D11" s="5">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>13</v>
@@ -5893,169 +5896,169 @@
         <v>1E-3</v>
       </c>
       <c r="H11" s="5">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J11" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L11" s="5">
         <v>1024</v>
       </c>
       <c r="M11" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" s="1">
-        <v>0.31214427020091801</v>
+        <v>0.31317814477306299</v>
       </c>
       <c r="O11" s="1">
-        <v>0.30863839791699599</v>
+        <v>0.31166847321115798</v>
       </c>
       <c r="P11" s="1">
-        <v>0.31333912870441399</v>
+        <v>0.31452683245596502</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.31159088468886798</v>
+        <v>0.31310413914115198</v>
       </c>
       <c r="R11" s="1">
-        <v>1.73E-3</v>
-      </c>
-      <c r="S11" s="37">
-        <v>0.31142817023227498</v>
+        <v>1.01E-3</v>
+      </c>
+      <c r="S11" s="34">
+        <v>0.31311939740898098</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="46">
-        <v>14</v>
-      </c>
-      <c r="D12" s="15">
-        <v>50</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="C12" s="52">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="H12" s="13">
+        <v>53</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="15">
-        <v>60</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="J12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="13">
         <v>1024</v>
       </c>
-      <c r="M12" s="15">
-        <v>10</v>
-      </c>
-      <c r="N12" s="40">
-        <v>0.31294561249140301</v>
-      </c>
-      <c r="O12" s="40">
-        <v>0.307940800840663</v>
-      </c>
-      <c r="P12" s="40">
-        <v>0.31283828980671102</v>
-      </c>
-      <c r="Q12" s="40">
-        <v>0.310864665678386</v>
-      </c>
-      <c r="R12" s="40">
-        <v>2.0300000000000001E-3</v>
-      </c>
-      <c r="S12" s="41">
-        <v>0.31114734245710401</v>
+      <c r="M12" s="13">
+        <v>200</v>
+      </c>
+      <c r="N12" s="37">
+        <v>0.31214427020091801</v>
+      </c>
+      <c r="O12" s="37">
+        <v>0.30863839791699599</v>
+      </c>
+      <c r="P12" s="37">
+        <v>0.31333912870441399</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>0.31159088468886798</v>
+      </c>
+      <c r="R12" s="37">
+        <v>1.73E-3</v>
+      </c>
+      <c r="S12" s="38">
+        <v>0.31142817023227498</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
+      <c r="C13" s="7">
+        <v>14</v>
       </c>
       <c r="D13" s="5">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>60</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M13" s="5">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.31294561249140301</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.307940800840663</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.31283828980671102</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.310864665678386</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="S13" s="34">
+        <v>0.31114734245710401</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
         <v>47</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>38</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="5">
-        <v>512</v>
-      </c>
-      <c r="M13" s="5">
-        <v>100</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.30767964910610202</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.30913923677599803</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.31208345407778698</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.311497871402729</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1.7799999999999999E-3</v>
-      </c>
-      <c r="S13" s="37">
-        <v>0.31010005159050702</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
-        <v>10</v>
-      </c>
-      <c r="C14" s="8">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="F14" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5">
         <v>1E-3</v>
@@ -6064,51 +6067,51 @@
         <v>38</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J14" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="L14" s="5">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="M14" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N14" s="1">
-        <v>0.31015880199458001</v>
+        <v>0.30767964910610202</v>
       </c>
       <c r="O14" s="1">
-        <v>0.30788356295207803</v>
+        <v>0.30913923677599803</v>
       </c>
       <c r="P14" s="1">
-        <v>0.31105315678011702</v>
+        <v>0.31208345407778698</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.31033878297629702</v>
+        <v>0.311497871402729</v>
       </c>
       <c r="R14" s="1">
-        <v>1.1900000000000001E-3</v>
-      </c>
-      <c r="S14" s="37">
-        <v>0.309858575746292</v>
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="S14" s="34">
+        <v>0.31010005159050702</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>15</v>
       </c>
       <c r="D15" s="5">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F15" s="5" t="b">
         <v>0</v>
@@ -6117,107 +6120,107 @@
         <v>1E-3</v>
       </c>
       <c r="H15" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="J15" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K15" s="5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L15" s="5">
-        <v>128</v>
+        <v>768</v>
       </c>
       <c r="M15" s="5">
         <v>10</v>
       </c>
       <c r="N15" s="1">
+        <v>0.31015880199458001</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.30788356295207803</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.31105315678011702</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.31033878297629702</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="S15" s="34">
+        <v>0.309858575746292</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
+        <v>12</v>
+      </c>
+      <c r="C16" s="52">
+        <v>15</v>
+      </c>
+      <c r="D16" s="13">
+        <v>41</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="H16" s="13">
+        <v>37</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="13">
+        <v>128</v>
+      </c>
+      <c r="M16" s="13">
+        <v>10</v>
+      </c>
+      <c r="N16" s="37">
         <v>0.30976886284569199</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O16" s="37">
         <v>0.30871710114079198</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P16" s="37">
         <v>0.30832000744050198</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q16" s="37">
         <v>0.308439165746974</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R16" s="37">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="S15" s="37">
+      <c r="S16" s="38">
         <v>0.30881128462629598</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
-        <v>12</v>
-      </c>
-      <c r="C16" s="46">
-        <v>13</v>
-      </c>
-      <c r="D16" s="15">
-        <v>72</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H16" s="15">
-        <v>20</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="L16" s="15">
-        <v>768</v>
-      </c>
-      <c r="M16" s="15">
-        <v>500</v>
-      </c>
-      <c r="N16" s="40">
-        <v>0.30964007517825898</v>
-      </c>
-      <c r="O16" s="40">
-        <v>0.30527204518182399</v>
-      </c>
-      <c r="P16" s="40">
-        <v>0.30991911438770398</v>
-      </c>
-      <c r="Q16" s="40">
-        <v>0.30998819455500598</v>
-      </c>
-      <c r="R16" s="40">
-        <v>1.99E-3</v>
-      </c>
-      <c r="S16" s="41">
-        <v>0.30870485617793803</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="8">
-        <v>1</v>
+      <c r="C17" s="7">
+        <v>13</v>
       </c>
       <c r="D17" s="5">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>13</v>
@@ -6229,51 +6232,51 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H17" s="5">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="5">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="L17" s="5">
-        <v>512</v>
+        <v>768</v>
       </c>
       <c r="M17" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N17" s="1">
-        <v>0.30849530103556</v>
+        <v>0.30964007517825898</v>
       </c>
       <c r="O17" s="1">
-        <v>0.30482844477988003</v>
+        <v>0.30527204518182399</v>
       </c>
       <c r="P17" s="1">
-        <v>0.30892816894986502</v>
+        <v>0.30991911438770398</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.30883983827718697</v>
+        <v>0.30998819455500598</v>
       </c>
       <c r="R17" s="1">
-        <v>1.7099999999999999E-3</v>
-      </c>
-      <c r="S17" s="37">
-        <v>0.30777293730643501</v>
+        <v>1.99E-3</v>
+      </c>
+      <c r="S17" s="34">
+        <v>0.30870485617793803</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
+      <c r="B18" s="18">
         <v>14</v>
       </c>
-      <c r="C18" s="8">
-        <v>17</v>
+      <c r="C18" s="7">
+        <v>11</v>
       </c>
       <c r="D18" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
@@ -6285,7 +6288,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="5">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>13</v>
@@ -6294,42 +6297,42 @@
         <v>1</v>
       </c>
       <c r="K18" s="5">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L18" s="5">
         <v>768</v>
       </c>
       <c r="M18" s="5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N18" s="1">
-        <v>0.30671016856848399</v>
+        <v>0.30708579735970498</v>
       </c>
       <c r="O18" s="1">
-        <v>0.30531139690721398</v>
+        <v>0.30593029106008801</v>
       </c>
       <c r="P18" s="1">
-        <v>0.30608769647787998</v>
+        <v>0.31064175328551502</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.30599577883375401</v>
+        <v>0.30971988724032201</v>
       </c>
       <c r="R18" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="S18" s="37">
-        <v>0.30602626022409402</v>
+        <v>1.91E-3</v>
+      </c>
+      <c r="S18" s="34">
+        <v>0.30834443100626102</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="8">
-        <v>18</v>
+      <c r="C19" s="7">
+        <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>13</v>
@@ -6338,122 +6341,122 @@
         <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H19" s="5">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="L19" s="5">
         <v>512</v>
       </c>
       <c r="M19" s="5">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N19" s="1">
-        <v>0.308541807546799</v>
+        <v>0.30849530103556</v>
       </c>
       <c r="O19" s="1">
-        <v>0.30145135961048403</v>
+        <v>0.30482844477988003</v>
       </c>
       <c r="P19" s="1">
-        <v>0.30329373131003201</v>
+        <v>0.30892816894986502</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.30883983828571698</v>
+        <v>0.30883983827718697</v>
       </c>
       <c r="R19" s="1">
-        <v>3.2299999999999998E-3</v>
-      </c>
-      <c r="S19" s="37">
-        <v>0.30553168122959001</v>
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="S19" s="34">
+        <v>0.30777293730643501</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="20">
+      <c r="B20" s="18">
         <v>16</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="52">
+        <v>24</v>
+      </c>
+      <c r="D20" s="13">
+        <v>54</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H20" s="13">
+        <v>42</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L20" s="13">
+        <v>256</v>
+      </c>
+      <c r="M20" s="13">
         <v>10</v>
       </c>
-      <c r="D20" s="15">
-        <v>8</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="H20" s="15">
-        <v>4</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="L20" s="15">
-        <v>256</v>
-      </c>
-      <c r="M20" s="15">
-        <v>10</v>
-      </c>
-      <c r="N20" s="40">
-        <v>0.30329015386678498</v>
-      </c>
-      <c r="O20" s="40">
-        <v>0.29936572330060102</v>
-      </c>
-      <c r="P20" s="40">
-        <v>0.30880295924068601</v>
-      </c>
-      <c r="Q20" s="40">
-        <v>0.30709762817349701</v>
-      </c>
-      <c r="R20" s="40">
-        <v>3.64E-3</v>
-      </c>
-      <c r="S20" s="41">
-        <v>0.30463911394660698</v>
+      <c r="N20" s="37">
+        <v>0.306606422912304</v>
+      </c>
+      <c r="O20" s="37">
+        <v>0.306227216301377</v>
+      </c>
+      <c r="P20" s="37">
+        <v>0.305497422468402</v>
+      </c>
+      <c r="Q20" s="37">
+        <v>0.30683289807923803</v>
+      </c>
+      <c r="R20" s="37">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="S20" s="38">
+        <v>0.30629098945567101</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="8">
-        <v>4</v>
+      <c r="C21" s="7">
+        <v>17</v>
       </c>
       <c r="D21" s="5">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H21" s="5">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>13</v>
@@ -6462,322 +6465,322 @@
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="5">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="M21" s="5">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N21" s="1">
-        <v>0.30230994057083099</v>
+        <v>0.30671016856848399</v>
       </c>
       <c r="O21" s="1">
-        <v>0.29896862957930798</v>
+        <v>0.30531139690721398</v>
       </c>
       <c r="P21" s="1">
-        <v>0.29497265060758898</v>
+        <v>0.30608769647787998</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.30023968805248502</v>
+        <v>0.30599577883375401</v>
       </c>
       <c r="R21" s="1">
-        <v>2.6800000000000001E-3</v>
-      </c>
-      <c r="S21" s="37">
-        <v>0.29912272620359298</v>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="S21" s="34">
+        <v>0.30602626022409402</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
+      <c r="B22" s="18">
         <v>18</v>
       </c>
-      <c r="C22" s="8">
-        <v>13</v>
+      <c r="C22" s="7">
+        <v>18</v>
       </c>
       <c r="D22" s="5">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J22" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="L22" s="5">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M22" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N22" s="1">
-        <v>0.30856327205883199</v>
+        <v>0.308541807546799</v>
       </c>
       <c r="O22" s="1">
-        <v>0.248605700264144</v>
+        <v>0.30145135961048403</v>
       </c>
       <c r="P22" s="1">
-        <v>0.312530631681814</v>
+        <v>0.30329373131003201</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.30934425641998797</v>
+        <v>0.30883983828571698</v>
       </c>
       <c r="R22" s="1">
-        <v>2.6689999999999998E-2</v>
-      </c>
-      <c r="S22" s="37">
-        <v>0.29476095206354003</v>
+        <v>3.2299999999999998E-3</v>
+      </c>
+      <c r="S22" s="34">
+        <v>0.30553168122959001</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="8">
-        <v>16</v>
+      <c r="C23" s="7">
+        <v>10</v>
       </c>
       <c r="D23" s="5">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H23" s="5">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="L23" s="5">
-        <v>768</v>
+        <v>256</v>
       </c>
       <c r="M23" s="5">
         <v>10</v>
       </c>
       <c r="N23" s="1">
-        <v>0.24769703547383701</v>
+        <v>0.30329015386678498</v>
       </c>
       <c r="O23" s="1">
-        <v>0.30326868967033399</v>
+        <v>0.29936572330060102</v>
       </c>
       <c r="P23" s="1">
-        <v>0.30967585002940801</v>
+        <v>0.30880295924068601</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.30576682274863398</v>
+        <v>0.30709762817349701</v>
       </c>
       <c r="R23" s="1">
-        <v>2.545E-2</v>
-      </c>
-      <c r="S23" s="37">
-        <v>0.29160208681224797</v>
+        <v>3.64E-3</v>
+      </c>
+      <c r="S23" s="34">
+        <v>0.30463911394660698</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="20">
+      <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="46">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15">
-        <v>47</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="52">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13">
+        <v>59</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
+      <c r="F24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
         <v>0.01</v>
       </c>
-      <c r="H24" s="15">
-        <v>58</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="H24" s="13">
+        <v>68</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L24" s="13">
         <v>1024</v>
       </c>
-      <c r="M24" s="15">
-        <v>300</v>
-      </c>
-      <c r="N24" s="40">
-        <v>0.24425555657824599</v>
-      </c>
-      <c r="O24" s="40">
-        <v>0.25190050475349102</v>
-      </c>
-      <c r="P24" s="40">
-        <v>0.25356042798939799</v>
-      </c>
-      <c r="Q24" s="40">
-        <v>0.25215898109660201</v>
-      </c>
-      <c r="R24" s="40">
-        <v>3.64E-3</v>
-      </c>
-      <c r="S24" s="41">
-        <v>0.250468866092871</v>
+      <c r="M24" s="13">
+        <v>200</v>
+      </c>
+      <c r="N24" s="37">
+        <v>0.30230994057083099</v>
+      </c>
+      <c r="O24" s="37">
+        <v>0.29896862957930798</v>
+      </c>
+      <c r="P24" s="37">
+        <v>0.29497265060758898</v>
+      </c>
+      <c r="Q24" s="37">
+        <v>0.30023968805248502</v>
+      </c>
+      <c r="R24" s="37">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="S24" s="38">
+        <v>0.29912272620359298</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>13</v>
       </c>
       <c r="D25" s="5">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F25" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H25" s="5">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="J25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="5">
         <v>1024</v>
       </c>
       <c r="M25" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N25" s="1">
-        <v>0.247697035375751</v>
+        <v>0.30856327205883199</v>
       </c>
       <c r="O25" s="1">
-        <v>0.24697439637921301</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P25" s="1">
-        <v>0.25356042798939799</v>
+        <v>0.312530631681814</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.25215898109660201</v>
+        <v>0.30934425641998797</v>
       </c>
       <c r="R25" s="1">
-        <v>2.82E-3</v>
-      </c>
-      <c r="S25" s="37">
-        <v>0.25009770836673101</v>
+        <v>2.6689999999999998E-2</v>
+      </c>
+      <c r="S25" s="34">
+        <v>0.29476095206354003</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="20">
+      <c r="B26" s="18">
         <v>22</v>
       </c>
-      <c r="C26" s="8">
-        <v>18</v>
+      <c r="C26" s="7">
+        <v>16</v>
       </c>
       <c r="D26" s="5">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F26" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>0.5</v>
+        <v>1E-3</v>
       </c>
       <c r="H26" s="5">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L26" s="5">
-        <v>256</v>
+        <v>768</v>
       </c>
       <c r="M26" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N26" s="1">
-        <v>0.25439038961817301</v>
+        <v>0.24769703547383701</v>
       </c>
       <c r="O26" s="1">
-        <v>0.248605700264144</v>
+        <v>0.30326868967033399</v>
       </c>
       <c r="P26" s="1">
-        <v>0.246144434782743</v>
+        <v>0.30967585002940801</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.24847780202749201</v>
+        <v>0.30576682274863398</v>
       </c>
       <c r="R26" s="1">
-        <v>3.0400000000000002E-3</v>
-      </c>
-      <c r="S26" s="37">
-        <v>0.249404582502009</v>
+        <v>2.545E-2</v>
+      </c>
+      <c r="S26" s="34">
+        <v>0.29160208681224797</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>23</v>
       </c>
-      <c r="C27" s="8">
-        <v>10</v>
+      <c r="C27" s="7">
+        <v>24</v>
       </c>
       <c r="D27" s="5">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>33</v>
@@ -6786,110 +6789,110 @@
         <v>0</v>
       </c>
       <c r="G27" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>32</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L27" s="5">
+        <v>256</v>
+      </c>
+      <c r="M27" s="5">
+        <v>500</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.30817333318085399</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.30084677548029098</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.247182771082052</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2.843E-2</v>
+      </c>
+      <c r="S27" s="34">
+        <v>0.27620217095548599</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
+        <v>24</v>
+      </c>
+      <c r="C28" s="52">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>47</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
         <v>0.01</v>
       </c>
-      <c r="H27" s="5">
-        <v>18</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="L27" s="5">
-        <v>128</v>
-      </c>
-      <c r="M27" s="5">
-        <v>100</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.24425555662974099</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.25190050477300102</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.25403622496311201</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0.24718277108130601</v>
-      </c>
-      <c r="R27" s="1">
-        <v>3.8400000000000001E-3</v>
-      </c>
-      <c r="S27" s="37">
-        <v>0.24934376629448701</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="20">
-        <v>24</v>
-      </c>
-      <c r="C28" s="46">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15">
-        <v>59</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="H28" s="15">
-        <v>49</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="15">
+      <c r="H28" s="13">
+        <v>58</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
         <v>0.5</v>
       </c>
-      <c r="L28" s="15">
-        <v>512</v>
-      </c>
-      <c r="M28" s="15">
-        <v>100</v>
-      </c>
-      <c r="N28" s="40">
-        <v>0.24769703541605101</v>
-      </c>
-      <c r="O28" s="40">
-        <v>0.24860570023610401</v>
-      </c>
-      <c r="P28" s="40">
-        <v>0.25356042801253298</v>
-      </c>
-      <c r="Q28" s="40">
-        <v>0.24718277109228801</v>
-      </c>
-      <c r="R28" s="40">
-        <v>2.5300000000000001E-3</v>
-      </c>
-      <c r="S28" s="41">
-        <v>0.24926148554835301</v>
+      <c r="L28" s="13">
+        <v>1024</v>
+      </c>
+      <c r="M28" s="13">
+        <v>300</v>
+      </c>
+      <c r="N28" s="37">
+        <v>0.24425555657824599</v>
+      </c>
+      <c r="O28" s="37">
+        <v>0.25190050475349102</v>
+      </c>
+      <c r="P28" s="37">
+        <v>0.25356042798939799</v>
+      </c>
+      <c r="Q28" s="37">
+        <v>0.25215898109660201</v>
+      </c>
+      <c r="R28" s="37">
+        <v>3.64E-3</v>
+      </c>
+      <c r="S28" s="38">
+        <v>0.250468866092871</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>25</v>
       </c>
-      <c r="C29" s="8">
-        <v>2</v>
+      <c r="C29" s="7">
+        <v>13</v>
       </c>
       <c r="D29" s="5">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>33</v>
@@ -6898,69 +6901,69 @@
         <v>1</v>
       </c>
       <c r="G29" s="5">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="5">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="L29" s="5">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M29" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N29" s="1">
-        <v>0.25439038961817301</v>
+        <v>0.247697035375751</v>
       </c>
       <c r="O29" s="1">
-        <v>0.248605700264144</v>
+        <v>0.24697439637921301</v>
       </c>
       <c r="P29" s="1">
-        <v>0.24625891224678101</v>
+        <v>0.25356042798939799</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.247182771082052</v>
+        <v>0.25215898109660201</v>
       </c>
       <c r="R29" s="1">
-        <v>3.16E-3</v>
-      </c>
-      <c r="S29" s="37">
-        <v>0.249109445025918</v>
+        <v>2.82E-3</v>
+      </c>
+      <c r="S29" s="34">
+        <v>0.25009770836673101</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="20">
+      <c r="B30" s="18">
         <v>26</v>
       </c>
-      <c r="C30" s="8">
-        <v>1</v>
+      <c r="C30" s="7">
+        <v>18</v>
       </c>
       <c r="D30" s="5">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F30" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="5">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" s="5" t="b">
         <v>1</v>
@@ -6969,543 +6972,543 @@
         <v>0.05</v>
       </c>
       <c r="L30" s="5">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="M30" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N30" s="1">
-        <v>0.25365701836257998</v>
+        <v>0.25439038961817301</v>
       </c>
       <c r="O30" s="1">
-        <v>0.24860570025732001</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P30" s="1">
-        <v>0.24625891225467</v>
+        <v>0.246144434782743</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.24718277108130601</v>
+        <v>0.24847780202749201</v>
       </c>
       <c r="R30" s="1">
-        <v>2.8600000000000001E-3</v>
-      </c>
-      <c r="S30" s="37">
-        <v>0.24892610204812601</v>
+        <v>3.0400000000000002E-3</v>
+      </c>
+      <c r="S30" s="34">
+        <v>0.249404582502009</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>27</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>10</v>
       </c>
       <c r="D31" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F31" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="5">
+        <v>18</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="5">
+        <v>128</v>
+      </c>
+      <c r="M31" s="5">
+        <v>100</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.24425555662974099</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.25190050477300102</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.25403622496311201</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.24718277108130601</v>
+      </c>
+      <c r="R31" s="1">
+        <v>3.8400000000000001E-3</v>
+      </c>
+      <c r="S31" s="34">
+        <v>0.24934376629448701</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
+        <v>28</v>
+      </c>
+      <c r="C32" s="52">
+        <v>4</v>
+      </c>
+      <c r="D32" s="13">
+        <v>59</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H32" s="13">
+        <v>49</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="13">
         <v>0.5</v>
       </c>
-      <c r="H31" s="5">
-        <v>19</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L31" s="5">
-        <v>256</v>
-      </c>
-      <c r="M31" s="5">
-        <v>10</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.24769703538662499</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0.248605700264144</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.24625891224678101</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0.25218044575653598</v>
-      </c>
-      <c r="R31" s="1">
-        <v>2.1800000000000001E-3</v>
-      </c>
-      <c r="S31" s="37">
-        <v>0.24868552028781701</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="20">
-        <v>28</v>
-      </c>
-      <c r="C32" s="46">
-        <v>20</v>
-      </c>
-      <c r="D32" s="15">
-        <v>32</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="15">
-        <v>44</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="15">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L32" s="15">
-        <v>256</v>
-      </c>
-      <c r="M32" s="15">
-        <v>10</v>
-      </c>
-      <c r="N32" s="40">
-        <v>0.24769703538662499</v>
-      </c>
-      <c r="O32" s="40">
-        <v>0.248605700264144</v>
-      </c>
-      <c r="P32" s="40">
-        <v>0.246144434782743</v>
-      </c>
-      <c r="Q32" s="40">
-        <v>0.25215898115886598</v>
-      </c>
-      <c r="R32" s="40">
-        <v>2.2100000000000002E-3</v>
-      </c>
-      <c r="S32" s="41">
-        <v>0.24865153476119101</v>
+      <c r="L32" s="13">
+        <v>512</v>
+      </c>
+      <c r="M32" s="13">
+        <v>100</v>
+      </c>
+      <c r="N32" s="37">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O32" s="37">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P32" s="37">
+        <v>0.25356042801253298</v>
+      </c>
+      <c r="Q32" s="37">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R32" s="37">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="S32" s="38">
+        <v>0.24926148554835301</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>29</v>
       </c>
-      <c r="C33" s="8">
-        <v>17</v>
+      <c r="C33" s="7">
+        <v>24</v>
       </c>
       <c r="D33" s="5">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H33" s="5">
+        <v>25</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L33" s="5">
+        <v>768</v>
+      </c>
+      <c r="M33" s="5">
+        <v>400</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.25365701820201803</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.24625891275645601</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.24847780223326099</v>
+      </c>
+      <c r="R33" s="1">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="S33" s="34">
+        <v>0.24924985896813001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
+        <v>30</v>
+      </c>
+      <c r="C34" s="51">
         <v>2</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="D34" s="13">
+        <v>49</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>37</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1024</v>
-      </c>
-      <c r="M33" s="5">
-        <v>500</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0.247697035375751</v>
-      </c>
-      <c r="O33" s="1">
+      <c r="F34" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H34" s="13">
+        <v>63</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="L34" s="13">
+        <v>256</v>
+      </c>
+      <c r="M34" s="13">
+        <v>50</v>
+      </c>
+      <c r="N34" s="37">
+        <v>0.25439038961817301</v>
+      </c>
+      <c r="O34" s="37">
         <v>0.248605700264144</v>
       </c>
-      <c r="P33" s="1">
-        <v>0.24614443477005499</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0.25215898109660201</v>
-      </c>
-      <c r="R33" s="1">
-        <v>2.2100000000000002E-3</v>
-      </c>
-      <c r="S33" s="37">
-        <v>0.248651534739735</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="20">
-        <v>30</v>
-      </c>
-      <c r="C34" s="46">
-        <v>3</v>
-      </c>
-      <c r="D34" s="15">
-        <v>5</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H34" s="15">
-        <v>30</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="L34" s="15">
-        <v>512</v>
-      </c>
-      <c r="M34" s="15">
-        <v>200</v>
-      </c>
-      <c r="N34" s="40">
-        <v>0.24769703541605101</v>
-      </c>
-      <c r="O34" s="40">
-        <v>0.25190050478398301</v>
-      </c>
-      <c r="P34" s="40">
-        <v>0.24614443477357401</v>
-      </c>
-      <c r="Q34" s="40">
-        <v>0.24847780201651101</v>
-      </c>
-      <c r="R34" s="40">
-        <v>2.1099999999999999E-3</v>
-      </c>
-      <c r="S34" s="41">
-        <v>0.248554944316522</v>
+      <c r="P34" s="37">
+        <v>0.24625891224678101</v>
+      </c>
+      <c r="Q34" s="37">
+        <v>0.247182771082052</v>
+      </c>
+      <c r="R34" s="37">
+        <v>3.16E-3</v>
+      </c>
+      <c r="S34" s="38">
+        <v>0.249109445025918</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>31</v>
       </c>
-      <c r="C35" s="8">
-        <v>15</v>
+      <c r="C35" s="7">
+        <v>1</v>
       </c>
       <c r="D35" s="5">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="H35" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J35" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L35" s="5">
+        <v>128</v>
+      </c>
+      <c r="M35" s="5">
+        <v>10</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.25365701836257998</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.24860570025732001</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.24625891225467</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.24718277108130601</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="S35" s="34">
+        <v>0.24892610204812601</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <v>32</v>
+      </c>
+      <c r="C36" s="51">
+        <v>10</v>
+      </c>
+      <c r="D36" s="13">
+        <v>30</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
         <v>0.5</v>
       </c>
-      <c r="L35" s="5">
-        <v>1024</v>
-      </c>
-      <c r="M35" s="5">
-        <v>300</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0.247697035375751</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0.24697439637921301</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0.24625891222785601</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0.25215898109660201</v>
-      </c>
-      <c r="R35" s="1">
-        <v>2.3E-3</v>
-      </c>
-      <c r="S35" s="37">
-        <v>0.24827232779380701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="20">
-        <v>32</v>
-      </c>
-      <c r="C36" s="46">
-        <v>3</v>
-      </c>
-      <c r="D36" s="15">
-        <v>49</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="H36" s="13">
+        <v>19</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H36" s="15">
-        <v>61</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="L36" s="15">
-        <v>1024</v>
-      </c>
-      <c r="M36" s="15">
+      <c r="J36" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="13">
+        <v>256</v>
+      </c>
+      <c r="M36" s="13">
         <v>10</v>
       </c>
-      <c r="N36" s="40">
-        <v>0.247697035375751</v>
-      </c>
-      <c r="O36" s="40">
-        <v>0.24697439637921301</v>
-      </c>
-      <c r="P36" s="40">
-        <v>0.24614443477005499</v>
-      </c>
-      <c r="Q36" s="40">
-        <v>0.25215898109660201</v>
-      </c>
-      <c r="R36" s="40">
-        <v>2.33E-3</v>
-      </c>
-      <c r="S36" s="41">
-        <v>0.248243708403761</v>
+      <c r="N36" s="37">
+        <v>0.24769703538662499</v>
+      </c>
+      <c r="O36" s="37">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P36" s="37">
+        <v>0.24625891224678101</v>
+      </c>
+      <c r="Q36" s="37">
+        <v>0.25218044575653598</v>
+      </c>
+      <c r="R36" s="37">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="S36" s="38">
+        <v>0.24868552028781701</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>33</v>
       </c>
-      <c r="C37" s="8">
-        <v>14</v>
+      <c r="C37" s="7">
+        <v>20</v>
       </c>
       <c r="D37" s="5">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="5">
         <v>0.5</v>
       </c>
       <c r="H37" s="5">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L37" s="5">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M37" s="5">
         <v>10</v>
       </c>
       <c r="N37" s="1">
-        <v>0.24769703541605101</v>
+        <v>0.24769703538662499</v>
       </c>
       <c r="O37" s="1">
-        <v>0.25190050478398301</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P37" s="1">
-        <v>0.24614443477357401</v>
+        <v>0.246144434782743</v>
       </c>
       <c r="Q37" s="1">
-        <v>0.24718277109228801</v>
+        <v>0.25215898115886598</v>
       </c>
       <c r="R37" s="1">
-        <v>2.1900000000000001E-3</v>
-      </c>
-      <c r="S37" s="37">
-        <v>0.24823118745413</v>
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="S37" s="34">
+        <v>0.24865153476119101</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="20">
+      <c r="B38" s="18">
         <v>34</v>
       </c>
-      <c r="C38" s="46">
-        <v>4</v>
-      </c>
-      <c r="D38" s="15">
-        <v>50</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="15">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H38" s="15">
-        <v>58</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" s="15">
+      <c r="C38" s="51">
+        <v>17</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13">
         <v>0.1</v>
       </c>
-      <c r="L38" s="15">
-        <v>256</v>
-      </c>
-      <c r="M38" s="15">
-        <v>50</v>
-      </c>
-      <c r="N38" s="40">
-        <v>0.244255556617267</v>
-      </c>
-      <c r="O38" s="40">
+      <c r="H38" s="13">
+        <v>37</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="13">
+        <v>1024</v>
+      </c>
+      <c r="M38" s="13">
+        <v>500</v>
+      </c>
+      <c r="N38" s="37">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O38" s="37">
         <v>0.248605700264144</v>
       </c>
-      <c r="P38" s="40">
-        <v>0.24625891224678101</v>
-      </c>
-      <c r="Q38" s="40">
-        <v>0.25218044575653598</v>
-      </c>
-      <c r="R38" s="40">
-        <v>2.9499999999999999E-3</v>
-      </c>
-      <c r="S38" s="41">
-        <v>0.24782514982600001</v>
+      <c r="P38" s="37">
+        <v>0.24614443477005499</v>
+      </c>
+      <c r="Q38" s="37">
+        <v>0.25215898109660201</v>
+      </c>
+      <c r="R38" s="37">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="S38" s="38">
+        <v>0.248651534739735</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>35</v>
       </c>
-      <c r="C39" s="8">
-        <v>20</v>
+      <c r="C39" s="7">
+        <v>3</v>
       </c>
       <c r="D39" s="5">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="5">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H39" s="5">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J39" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K39" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="L39" s="5">
         <v>512</v>
       </c>
       <c r="M39" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N39" s="1">
         <v>0.24769703541605101</v>
       </c>
       <c r="O39" s="1">
-        <v>0.24860570023610401</v>
+        <v>0.25190050478398301</v>
       </c>
       <c r="P39" s="1">
-        <v>0.24625891224304899</v>
+        <v>0.24614443477357401</v>
       </c>
       <c r="Q39" s="1">
         <v>0.24847780201651101</v>
       </c>
       <c r="R39" s="1">
-        <v>9.3000000000000005E-4</v>
-      </c>
-      <c r="S39" s="37">
-        <v>0.24775986183583501</v>
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="S39" s="34">
+        <v>0.248554944316522</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="20">
+      <c r="B40" s="18">
         <v>36</v>
       </c>
-      <c r="C40" s="8">
-        <v>14</v>
+      <c r="C40" s="7">
+        <v>15</v>
       </c>
       <c r="D40" s="5">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>33</v>
@@ -7517,69 +7520,69 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H40" s="5">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J40" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="5">
         <v>0.5</v>
       </c>
       <c r="L40" s="5">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M40" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N40" s="1">
-        <v>0.24769703541605101</v>
+        <v>0.247697035375751</v>
       </c>
       <c r="O40" s="1">
-        <v>0.24860570023610401</v>
+        <v>0.24697439637921301</v>
       </c>
       <c r="P40" s="1">
-        <v>0.24625891224304899</v>
+        <v>0.24625891222785601</v>
       </c>
       <c r="Q40" s="1">
-        <v>0.24847780201651101</v>
+        <v>0.25215898109660201</v>
       </c>
       <c r="R40" s="1">
-        <v>9.3000000000000005E-4</v>
-      </c>
-      <c r="S40" s="37">
-        <v>0.24775986183583501</v>
+        <v>2.3E-3</v>
+      </c>
+      <c r="S40" s="34">
+        <v>0.24827232779380701</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>37</v>
       </c>
-      <c r="C41" s="8">
-        <v>5</v>
+      <c r="C41" s="7">
+        <v>3</v>
       </c>
       <c r="D41" s="5">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F41" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G41" s="5">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H41" s="5">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J41" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="5">
         <v>1E-3</v>
@@ -7588,92 +7591,92 @@
         <v>1024</v>
       </c>
       <c r="M41" s="5">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="N41" s="1">
         <v>0.247697035375751</v>
       </c>
       <c r="O41" s="1">
-        <v>0.248605700264144</v>
+        <v>0.24697439637921301</v>
       </c>
       <c r="P41" s="1">
-        <v>0.24625891222785601</v>
+        <v>0.24614443477005499</v>
       </c>
       <c r="Q41" s="1">
-        <v>0.248477802043058</v>
+        <v>0.25215898109660201</v>
       </c>
       <c r="R41" s="1">
-        <v>9.3000000000000005E-4</v>
-      </c>
-      <c r="S41" s="37">
-        <v>0.247759861835609</v>
+        <v>2.33E-3</v>
+      </c>
+      <c r="S41" s="34">
+        <v>0.248243708403761</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="20">
+      <c r="B42" s="18">
         <v>38</v>
       </c>
-      <c r="C42" s="46">
-        <v>19</v>
-      </c>
-      <c r="D42" s="15">
-        <v>37</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="C42" s="52">
+        <v>14</v>
+      </c>
+      <c r="D42" s="13">
+        <v>53</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H42" s="15">
-        <v>30</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="15">
+      <c r="F42" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="13">
+        <v>60</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="13">
         <v>0.01</v>
       </c>
-      <c r="L42" s="15">
-        <v>1024</v>
-      </c>
-      <c r="M42" s="15">
-        <v>400</v>
-      </c>
-      <c r="N42" s="40">
-        <v>0.247697035375751</v>
-      </c>
-      <c r="O42" s="40">
-        <v>0.248605700264144</v>
-      </c>
-      <c r="P42" s="40">
-        <v>0.24614443477005499</v>
-      </c>
-      <c r="Q42" s="40">
-        <v>0.248477802043058</v>
-      </c>
-      <c r="R42" s="40">
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="S42" s="41">
-        <v>0.24773124244556199</v>
+      <c r="L42" s="13">
+        <v>512</v>
+      </c>
+      <c r="M42" s="13">
+        <v>10</v>
+      </c>
+      <c r="N42" s="37">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O42" s="37">
+        <v>0.25190050478398301</v>
+      </c>
+      <c r="P42" s="37">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q42" s="37">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R42" s="37">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="S42" s="38">
+        <v>0.24823118745413</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>39</v>
       </c>
-      <c r="C43" s="8">
-        <v>5</v>
+      <c r="C43" s="7">
+        <v>4</v>
       </c>
       <c r="D43" s="5">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>13</v>
@@ -7682,225 +7685,225 @@
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H43" s="5">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J43" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="5">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="L43" s="5">
-        <v>768</v>
+        <v>256</v>
       </c>
       <c r="M43" s="5">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N43" s="1">
-        <v>0.24425555704522101</v>
+        <v>0.244255556617267</v>
       </c>
       <c r="O43" s="1">
-        <v>0.252519398211552</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P43" s="1">
-        <v>0.24625891275645601</v>
+        <v>0.24625891224678101</v>
       </c>
       <c r="Q43" s="1">
-        <v>0.24718277108855599</v>
+        <v>0.25218044575653598</v>
       </c>
       <c r="R43" s="1">
-        <v>3.0599999999999998E-3</v>
-      </c>
-      <c r="S43" s="37">
-        <v>0.24755416010760001</v>
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="S43" s="34">
+        <v>0.24782514982600001</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="20">
+      <c r="B44" s="18">
         <v>40</v>
       </c>
-      <c r="C44" s="46">
-        <v>5</v>
-      </c>
-      <c r="D44" s="15">
-        <v>50</v>
-      </c>
-      <c r="E44" s="15" t="s">
+      <c r="C44" s="52">
+        <v>11</v>
+      </c>
+      <c r="D44" s="13">
+        <v>13</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="H44" s="15">
-        <v>50</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J44" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="L44" s="15">
-        <v>512</v>
-      </c>
-      <c r="M44" s="15">
-        <v>300</v>
-      </c>
-      <c r="N44" s="40">
-        <v>0.24769703541605101</v>
-      </c>
-      <c r="O44" s="40">
-        <v>0.24860570023610401</v>
-      </c>
-      <c r="P44" s="40">
-        <v>0.24625891224304899</v>
-      </c>
-      <c r="Q44" s="40">
-        <v>0.24718277109228801</v>
-      </c>
-      <c r="R44" s="40">
-        <v>8.4999999999999995E-4</v>
-      </c>
-      <c r="S44" s="41">
-        <v>0.24743610497344301</v>
+      <c r="F44" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H44" s="13">
+        <v>39</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="13">
+        <v>1024</v>
+      </c>
+      <c r="M44" s="13">
+        <v>400</v>
+      </c>
+      <c r="N44" s="37">
+        <v>0.24425555657824599</v>
+      </c>
+      <c r="O44" s="37">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P44" s="37">
+        <v>0.24625891222785601</v>
+      </c>
+      <c r="Q44" s="37">
+        <v>0.25215898109660201</v>
+      </c>
+      <c r="R44" s="37">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="S44" s="38">
+        <v>0.24781978366092799</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>41</v>
       </c>
-      <c r="C45" s="8">
-        <v>16</v>
+      <c r="C45" s="7">
+        <v>20</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F45" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G45" s="5">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H45" s="5">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="J45" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K45" s="5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L45" s="5">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="M45" s="5">
         <v>50</v>
       </c>
       <c r="N45" s="1">
-        <v>0.24769703538662499</v>
+        <v>0.24769703541605101</v>
       </c>
       <c r="O45" s="1">
-        <v>0.248605700264144</v>
+        <v>0.24860570023610401</v>
       </c>
       <c r="P45" s="1">
-        <v>0.246144434782743</v>
+        <v>0.24625891224304899</v>
       </c>
       <c r="Q45" s="1">
-        <v>0.247182771082052</v>
+        <v>0.24847780201651101</v>
       </c>
       <c r="R45" s="1">
-        <v>8.8999999999999995E-4</v>
-      </c>
-      <c r="S45" s="37">
-        <v>0.247407485579866</v>
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="S45" s="34">
+        <v>0.24775986183583501</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="20">
+      <c r="B46" s="18">
         <v>42</v>
       </c>
-      <c r="C46" s="8">
-        <v>19</v>
+      <c r="C46" s="7">
+        <v>14</v>
       </c>
       <c r="D46" s="5">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F46" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G46" s="5">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H46" s="5">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J46" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L46" s="5">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="M46" s="5">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="N46" s="1">
-        <v>0.24769703547383701</v>
+        <v>0.24769703541605101</v>
       </c>
       <c r="O46" s="1">
-        <v>0.24860569991881601</v>
+        <v>0.24860570023610401</v>
       </c>
       <c r="P46" s="1">
-        <v>0.246144435011699</v>
+        <v>0.24625891224304899</v>
       </c>
       <c r="Q46" s="1">
-        <v>0.24718277108855599</v>
+        <v>0.24847780201651101</v>
       </c>
       <c r="R46" s="1">
-        <v>8.8999999999999995E-4</v>
-      </c>
-      <c r="S46" s="37">
-        <v>0.247407485574202</v>
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="S46" s="34">
+        <v>0.24775986183583501</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>43</v>
       </c>
-      <c r="C47" s="8">
-        <v>16</v>
+      <c r="C47" s="7">
+        <v>5</v>
       </c>
       <c r="D47" s="5">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F47" s="5" t="b">
         <v>1</v>
@@ -7909,178 +7912,178 @@
         <v>0.5</v>
       </c>
       <c r="H47" s="5">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J47" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="5">
-        <v>0.5</v>
+        <v>1E-3</v>
       </c>
       <c r="L47" s="5">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M47" s="5">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="N47" s="1">
-        <v>0.24769703541605101</v>
+        <v>0.247697035375751</v>
       </c>
       <c r="O47" s="1">
-        <v>0.24697439639531199</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P47" s="1">
-        <v>0.24625891224304899</v>
+        <v>0.24625891222785601</v>
       </c>
       <c r="Q47" s="1">
-        <v>0.24847780201651101</v>
+        <v>0.248477802043058</v>
       </c>
       <c r="R47" s="1">
-        <v>8.3000000000000001E-4</v>
-      </c>
-      <c r="S47" s="37">
-        <v>0.24735203551089599</v>
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="S47" s="34">
+        <v>0.247759861835609</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="20">
+      <c r="B48" s="18">
         <v>44</v>
       </c>
-      <c r="C48" s="46">
-        <v>5</v>
-      </c>
-      <c r="D48" s="15">
-        <v>24</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="15">
+      <c r="C48" s="52">
+        <v>19</v>
+      </c>
+      <c r="D48" s="13">
+        <v>37</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="H48" s="13">
+        <v>30</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="13">
         <v>0.01</v>
       </c>
-      <c r="H48" s="15">
-        <v>58</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="L48" s="15">
-        <v>768</v>
-      </c>
-      <c r="M48" s="15">
-        <v>500</v>
-      </c>
-      <c r="N48" s="40">
-        <v>0.24769703547383701</v>
-      </c>
-      <c r="O48" s="40">
-        <v>0.24697439667005999</v>
-      </c>
-      <c r="P48" s="40">
-        <v>0.246144435011699</v>
-      </c>
-      <c r="Q48" s="40">
-        <v>0.24847780223326099</v>
-      </c>
-      <c r="R48" s="40">
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="S48" s="41">
-        <v>0.247323416314783</v>
+      <c r="L48" s="13">
+        <v>1024</v>
+      </c>
+      <c r="M48" s="13">
+        <v>400</v>
+      </c>
+      <c r="N48" s="37">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O48" s="37">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P48" s="37">
+        <v>0.24614443477005499</v>
+      </c>
+      <c r="Q48" s="37">
+        <v>0.248477802043058</v>
+      </c>
+      <c r="R48" s="37">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="S48" s="38">
+        <v>0.24773124244556199</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>45</v>
       </c>
-      <c r="C49" s="8">
-        <v>4</v>
+      <c r="C49" s="7">
+        <v>5</v>
       </c>
       <c r="D49" s="5">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H49" s="5">
+        <v>65</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="H49" s="5">
-        <v>29</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5">
         <v>0.01</v>
       </c>
       <c r="L49" s="5">
-        <v>512</v>
+        <v>768</v>
       </c>
       <c r="M49" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N49" s="1">
-        <v>0.24769703541605101</v>
+        <v>0.24425555704522101</v>
       </c>
       <c r="O49" s="1">
-        <v>0.24697439639531199</v>
+        <v>0.252519398211552</v>
       </c>
       <c r="P49" s="1">
-        <v>0.24625891224304899</v>
+        <v>0.24625891275645601</v>
       </c>
       <c r="Q49" s="1">
-        <v>0.24718277109228801</v>
+        <v>0.24718277108855599</v>
       </c>
       <c r="R49" s="1">
-        <v>5.1999999999999995E-4</v>
-      </c>
-      <c r="S49" s="37">
-        <v>0.24702827864850399</v>
+        <v>3.0599999999999998E-3</v>
+      </c>
+      <c r="S49" s="34">
+        <v>0.24755416010760001</v>
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="20">
+      <c r="B50" s="18">
         <v>46</v>
       </c>
-      <c r="C50" s="8">
-        <v>17</v>
+      <c r="C50" s="7">
+        <v>5</v>
       </c>
       <c r="D50" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F50" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="5">
         <v>0.1</v>
       </c>
       <c r="H50" s="5">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J50" s="5" t="b">
         <v>1</v>
@@ -8092,13 +8095,13 @@
         <v>512</v>
       </c>
       <c r="M50" s="5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N50" s="1">
         <v>0.24769703541605101</v>
       </c>
       <c r="O50" s="1">
-        <v>0.24697439639531199</v>
+        <v>0.24860570023610401</v>
       </c>
       <c r="P50" s="1">
         <v>0.24625891224304899</v>
@@ -8107,36 +8110,36 @@
         <v>0.24718277109228801</v>
       </c>
       <c r="R50" s="1">
-        <v>5.1999999999999995E-4</v>
-      </c>
-      <c r="S50" s="37">
-        <v>0.24702827864850399</v>
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="S50" s="34">
+        <v>0.24743610497344301</v>
       </c>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>47</v>
       </c>
-      <c r="C51" s="8">
-        <v>1</v>
+      <c r="C51" s="7">
+        <v>16</v>
       </c>
       <c r="D51" s="5">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F51" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="5">
         <v>0.05</v>
       </c>
       <c r="H51" s="5">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="J51" s="5" t="b">
         <v>0</v>
@@ -8145,210 +8148,210 @@
         <v>0.05</v>
       </c>
       <c r="L51" s="5">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M51" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N51" s="1">
-        <v>0.24425555661918599</v>
+        <v>0.24769703538662499</v>
       </c>
       <c r="O51" s="1">
-        <v>0.24860570023610401</v>
+        <v>0.248605700264144</v>
       </c>
       <c r="P51" s="1">
-        <v>0.24614443477357401</v>
+        <v>0.246144434782743</v>
       </c>
       <c r="Q51" s="1">
-        <v>0.24847780201651101</v>
+        <v>0.247182771082052</v>
       </c>
       <c r="R51" s="1">
-        <v>1.8E-3</v>
-      </c>
-      <c r="S51" s="37">
-        <v>0.24687087197417701</v>
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="S51" s="34">
+        <v>0.247407485579866</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="20">
+      <c r="B52" s="18">
         <v>48</v>
       </c>
-      <c r="C52" s="46">
-        <v>2</v>
-      </c>
-      <c r="D52" s="15">
-        <v>57</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="H52" s="15">
-        <v>71</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52" s="15">
+      <c r="C52" s="52">
+        <v>24</v>
+      </c>
+      <c r="D52" s="13">
+        <v>41</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="13">
         <v>1E-3</v>
       </c>
-      <c r="L52" s="15">
-        <v>512</v>
-      </c>
-      <c r="M52" s="15">
-        <v>500</v>
-      </c>
-      <c r="N52" s="40">
-        <v>0.24425555661918599</v>
-      </c>
-      <c r="O52" s="40">
-        <v>0.24860570023610401</v>
-      </c>
-      <c r="P52" s="40">
-        <v>0.24625891224304899</v>
-      </c>
-      <c r="Q52" s="40">
-        <v>0.24718277109228801</v>
-      </c>
-      <c r="R52" s="40">
-        <v>1.58E-3</v>
-      </c>
-      <c r="S52" s="41">
-        <v>0.24657573450475001</v>
+      <c r="H52" s="13">
+        <v>19</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L52" s="13">
+        <v>1024</v>
+      </c>
+      <c r="M52" s="13">
+        <v>200</v>
+      </c>
+      <c r="N52" s="37">
+        <v>0.247697035375751</v>
+      </c>
+      <c r="O52" s="37">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P52" s="37">
+        <v>0.24614443477005499</v>
+      </c>
+      <c r="Q52" s="37">
+        <v>0.24718277110284201</v>
+      </c>
+      <c r="R52" s="37">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="S52" s="38">
+        <v>0.247407485579173</v>
       </c>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>49</v>
       </c>
-      <c r="C53" s="8">
-        <v>13</v>
+      <c r="C53" s="7">
+        <v>19</v>
       </c>
       <c r="D53" s="5">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F53" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="5">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H53" s="5">
+        <v>69</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="J53" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L53" s="5">
+        <v>768</v>
+      </c>
+      <c r="M53" s="5">
+        <v>10</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.24769703547383701</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0.246144435011699</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0.24718277108855599</v>
+      </c>
+      <c r="R53" s="1">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="S53" s="34">
+        <v>0.247407485574202</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="18">
+        <v>50</v>
+      </c>
+      <c r="C54" s="7">
+        <v>16</v>
+      </c>
+      <c r="D54" s="5">
+        <v>50</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="5">
+        <v>71</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5">
+      <c r="J54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
         <v>0.5</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L54" s="5">
         <v>512</v>
       </c>
-      <c r="M53" s="5">
-        <v>100</v>
-      </c>
-      <c r="N53" s="1">
-        <v>0.24425555661918599</v>
-      </c>
-      <c r="O53" s="1">
-        <v>0.24860570023610401</v>
-      </c>
-      <c r="P53" s="1">
+      <c r="M54" s="5">
+        <v>10</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P54" s="1">
         <v>0.24625891224304899</v>
       </c>
-      <c r="Q53" s="1">
-        <v>0.24718277109228801</v>
-      </c>
-      <c r="R53" s="1">
-        <v>1.58E-3</v>
-      </c>
-      <c r="S53" s="37">
-        <v>0.24657573450475001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="20">
-        <v>50</v>
-      </c>
-      <c r="C54" s="8">
-        <v>0</v>
-      </c>
-      <c r="D54" s="5">
-        <v>25</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H54" s="5">
-        <v>8</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L54" s="5">
-        <v>1024</v>
-      </c>
-      <c r="M54" s="5">
-        <v>300</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0.24425555657824599</v>
-      </c>
-      <c r="O54" s="1">
-        <v>0.248605700264144</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0.24625891222785601</v>
-      </c>
       <c r="Q54" s="1">
-        <v>0.24718277110284201</v>
+        <v>0.24847780201651101</v>
       </c>
       <c r="R54" s="1">
-        <v>1.58E-3</v>
-      </c>
-      <c r="S54" s="37">
-        <v>0.24657573450036599</v>
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="S54" s="34">
+        <v>0.24735203551089599</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>51</v>
       </c>
-      <c r="C55" s="8">
-        <v>3</v>
+      <c r="C55" s="7">
+        <v>5</v>
       </c>
       <c r="D55" s="5">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" s="5" t="b">
         <v>1</v>
@@ -8357,196 +8360,196 @@
         <v>0.01</v>
       </c>
       <c r="H55" s="5">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J55" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="L55" s="5">
         <v>768</v>
       </c>
       <c r="M55" s="5">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N55" s="1">
-        <v>0.24425555704522101</v>
+        <v>0.24769703547383701</v>
       </c>
       <c r="O55" s="1">
-        <v>0.24860569991881601</v>
+        <v>0.24697439667005999</v>
       </c>
       <c r="P55" s="1">
         <v>0.246144435011699</v>
       </c>
       <c r="Q55" s="1">
-        <v>0.24718277108855599</v>
+        <v>0.24847780223326099</v>
       </c>
       <c r="R55" s="1">
-        <v>1.5900000000000001E-3</v>
-      </c>
-      <c r="S55" s="37">
-        <v>0.246547115197571</v>
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="S55" s="34">
+        <v>0.247323416314783</v>
       </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="20">
+      <c r="B56" s="18">
         <v>52</v>
       </c>
-      <c r="C56" s="46">
-        <v>2</v>
-      </c>
-      <c r="D56" s="15">
-        <v>51</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H56" s="15">
-        <v>14</v>
-      </c>
-      <c r="I56" s="15" t="s">
+      <c r="C56" s="52">
+        <v>4</v>
+      </c>
+      <c r="D56" s="13">
+        <v>27</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L56" s="15">
+      <c r="F56" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="H56" s="13">
+        <v>29</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="L56" s="13">
         <v>512</v>
       </c>
-      <c r="M56" s="15">
-        <v>500</v>
-      </c>
-      <c r="N56" s="40">
-        <v>0.24425555661918599</v>
-      </c>
-      <c r="O56" s="40">
-        <v>0.24860570023610401</v>
-      </c>
-      <c r="P56" s="40">
-        <v>0.24614443477357401</v>
-      </c>
-      <c r="Q56" s="40">
+      <c r="M56" s="13">
+        <v>100</v>
+      </c>
+      <c r="N56" s="37">
+        <v>0.24769703541605101</v>
+      </c>
+      <c r="O56" s="37">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P56" s="37">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q56" s="37">
         <v>0.24718277109228801</v>
       </c>
-      <c r="R56" s="40">
-        <v>1.5900000000000001E-3</v>
-      </c>
-      <c r="S56" s="41">
-        <v>0.24654711511178501</v>
+      <c r="R56" s="37">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="S56" s="38">
+        <v>0.24702827864850399</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>53</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>17</v>
       </c>
       <c r="D57" s="5">
         <v>30</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F57" s="5" t="b">
         <v>0</v>
       </c>
       <c r="G57" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H57" s="5">
+        <v>26</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="J57" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L57" s="5">
         <v>512</v>
       </c>
       <c r="M57" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="1">
-        <v>0.24425555661918599</v>
+        <v>0.24769703541605101</v>
       </c>
       <c r="O57" s="1">
-        <v>0.24860570023610401</v>
+        <v>0.24697439639531199</v>
       </c>
       <c r="P57" s="1">
-        <v>0.24614443477357401</v>
+        <v>0.24625891224304899</v>
       </c>
       <c r="Q57" s="1">
         <v>0.24718277109228801</v>
       </c>
       <c r="R57" s="1">
-        <v>1.5900000000000001E-3</v>
-      </c>
-      <c r="S57" s="37">
-        <v>0.24654711511178501</v>
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="S57" s="34">
+        <v>0.24702827864850399</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="20">
+      <c r="B58" s="18">
         <v>54</v>
       </c>
-      <c r="C58" s="8">
-        <v>10</v>
+      <c r="C58" s="7">
+        <v>1</v>
       </c>
       <c r="D58" s="5">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H58" s="5">
+        <v>71</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H58" s="5">
-        <v>35</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="J58" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K58" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="L58" s="5">
         <v>512</v>
       </c>
       <c r="M58" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N58" s="1">
         <v>0.24425555661918599</v>
       </c>
       <c r="O58" s="1">
-        <v>0.24697439639531199</v>
+        <v>0.24860570023610401</v>
       </c>
       <c r="P58" s="1">
         <v>0.24614443477357401</v>
@@ -8555,24 +8558,24 @@
         <v>0.24847780201651101</v>
       </c>
       <c r="R58" s="1">
-        <v>1.5200000000000001E-3</v>
-      </c>
-      <c r="S58" s="37">
-        <v>0.24646304564923799</v>
+        <v>1.8E-3</v>
+      </c>
+      <c r="S58" s="34">
+        <v>0.24687087197417701</v>
       </c>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>55</v>
       </c>
-      <c r="C59" s="8">
-        <v>0</v>
+      <c r="C59" s="7">
+        <v>2</v>
       </c>
       <c r="D59" s="5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" s="5" t="b">
         <v>0</v>
@@ -8581,95 +8584,543 @@
         <v>0.01</v>
       </c>
       <c r="H59" s="5">
+        <v>71</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="L59" s="5">
+        <v>512</v>
+      </c>
+      <c r="M59" s="5">
+        <v>500</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="S59" s="34">
+        <v>0.24657573450475001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="18">
+        <v>56</v>
+      </c>
+      <c r="C60" s="52">
+        <v>13</v>
+      </c>
+      <c r="D60" s="13">
+        <v>42</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H60" s="13">
+        <v>48</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L60" s="13">
+        <v>512</v>
+      </c>
+      <c r="M60" s="13">
+        <v>100</v>
+      </c>
+      <c r="N60" s="37">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O60" s="37">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P60" s="37">
+        <v>0.24625891224304899</v>
+      </c>
+      <c r="Q60" s="37">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R60" s="37">
+        <v>1.58E-3</v>
+      </c>
+      <c r="S60" s="38">
+        <v>0.24657573450475001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>57</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>25</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H61" s="5">
+        <v>8</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M61" s="5">
+        <v>300</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.24425555657824599</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0.248605700264144</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0.24625891222785601</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0.24718277110284201</v>
+      </c>
+      <c r="R61" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="S61" s="34">
+        <v>0.24657573450036599</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="18">
+        <v>58</v>
+      </c>
+      <c r="C62" s="7">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5">
+        <v>50</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H62" s="5">
+        <v>4</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L62" s="5">
+        <v>768</v>
+      </c>
+      <c r="M62" s="5">
+        <v>200</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.24425555704522101</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.24860569991881601</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0.246144435011699</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0.24718277108855599</v>
+      </c>
+      <c r="R62" s="1">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S62" s="34">
+        <v>0.246547115197571</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>59</v>
+      </c>
+      <c r="C63" s="7">
+        <v>11</v>
+      </c>
+      <c r="D63" s="5">
+        <v>39</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H63" s="5">
+        <v>5</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L63" s="5">
+        <v>128</v>
+      </c>
+      <c r="M63" s="5">
+        <v>200</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.24425555662974099</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0.24860570025732001</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0.246144434789139</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0.24718277108130601</v>
+      </c>
+      <c r="R63" s="1">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S63" s="34">
+        <v>0.24654711512087399</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="18">
+        <v>60</v>
+      </c>
+      <c r="C64" s="51">
+        <v>2</v>
+      </c>
+      <c r="D64" s="13">
+        <v>51</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H64" s="13">
+        <v>14</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L64" s="13">
+        <v>512</v>
+      </c>
+      <c r="M64" s="13">
+        <v>500</v>
+      </c>
+      <c r="N64" s="37">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O64" s="37">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P64" s="37">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q64" s="37">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R64" s="37">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S64" s="38">
+        <v>0.24654711511178501</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>61</v>
+      </c>
+      <c r="C65" s="7">
+        <v>17</v>
+      </c>
+      <c r="D65" s="5">
+        <v>30</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="5">
+        <v>13</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L65" s="5">
+        <v>512</v>
+      </c>
+      <c r="M65" s="5">
+        <v>300</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0.24860570023610401</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0.24718277109228801</v>
+      </c>
+      <c r="R65" s="1">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S65" s="34">
+        <v>0.24654711511178501</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" s="18">
+        <v>62</v>
+      </c>
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="D66" s="5">
+        <v>58</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H66" s="5">
+        <v>35</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L66" s="5">
+        <v>512</v>
+      </c>
+      <c r="M66" s="5">
+        <v>100</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.24425555661918599</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0.24697439639531199</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0.24614443477357401</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0.24847780201651101</v>
+      </c>
+      <c r="R66" s="1">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="S66" s="34">
+        <v>0.24646304564923799</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>63</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>54</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H67" s="5">
         <v>49</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I67" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J59" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" s="5">
+      <c r="J67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
         <v>0.1</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L67" s="5">
         <v>1024</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M67" s="5">
         <v>100</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N67" s="1">
         <v>0.24425555657824599</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O67" s="1">
         <v>0.24697439637921301</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P67" s="1">
         <v>0.24625891222785601</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q67" s="1">
         <v>0.24718277110284201</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R67" s="1">
         <v>1.16E-3</v>
       </c>
-      <c r="S59" s="37">
+      <c r="S67" s="34">
         <v>0.24616790816439099</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="20">
-        <v>56</v>
-      </c>
-      <c r="C60" s="46">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="18">
+        <v>64</v>
+      </c>
+      <c r="C68" s="52">
         <v>2</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D68" s="13">
         <v>67</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E68" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="15">
+      <c r="F68" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="13">
         <v>1E-3</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H68" s="13">
         <v>24</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I68" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" s="15">
+      <c r="J68" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
         <v>0.01</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L68" s="13">
         <v>512</v>
       </c>
-      <c r="M60" s="15">
+      <c r="M68" s="13">
         <v>400</v>
       </c>
-      <c r="N60" s="40">
+      <c r="N68" s="37">
         <v>0.24425555661918599</v>
       </c>
-      <c r="O60" s="40">
+      <c r="O68" s="37">
         <v>0.24697439639531199</v>
       </c>
-      <c r="P60" s="40">
+      <c r="P68" s="37">
         <v>0.24614443477357401</v>
       </c>
-      <c r="Q60" s="40">
+      <c r="Q68" s="37">
         <v>0.24718277109228801</v>
       </c>
-      <c r="R60" s="40">
+      <c r="R68" s="37">
         <v>1.15E-3</v>
       </c>
-      <c r="S60" s="41">
+      <c r="S68" s="38">
         <v>0.24613928878684599</v>
       </c>
     </row>
@@ -8688,10 +9139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED12A95D-6B4E-4050-8800-A1B9AE46B969}">
-  <dimension ref="B1:N46"/>
+  <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8777,378 +9228,262 @@
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="53"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="9">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="C22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="39">
+        <v>6</v>
+      </c>
+      <c r="F22" s="39">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G22" s="39">
         <v>0.17</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="38">
-        <v>26</v>
-      </c>
-      <c r="L8" s="38">
-        <v>2</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="9">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="9">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="9">
-        <v>25</v>
-      </c>
-      <c r="F11" s="5">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="33">
-        <v>23</v>
-      </c>
-      <c r="F12" s="15">
-        <v>4</v>
-      </c>
-      <c r="G12" s="27">
-        <v>0.17</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="50">
-        <v>22</v>
-      </c>
-      <c r="F13" s="49">
-        <v>4</v>
-      </c>
-      <c r="G13" s="51">
-        <v>0.17</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="48">
-        <v>7</v>
-      </c>
-      <c r="F14" s="52">
-        <v>4</v>
-      </c>
-      <c r="G14" s="53">
-        <v>0.17</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="48">
-        <v>8</v>
-      </c>
-      <c r="F15" s="52">
-        <v>4</v>
-      </c>
-      <c r="G15" s="53">
-        <v>0.17</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="48">
-        <v>9</v>
-      </c>
-      <c r="F16" s="52">
-        <v>4</v>
-      </c>
-      <c r="G16" s="53">
-        <v>0.17</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="42">
-        <v>6</v>
-      </c>
-      <c r="F22" s="42">
-        <v>4</v>
-      </c>
-      <c r="G22" s="42">
-        <v>0.17</v>
-      </c>
-      <c r="H22" s="43">
+      <c r="H22" s="40">
         <v>43329</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="5">
@@ -9160,657 +9495,680 @@
       <c r="M22" s="5">
         <v>0.8</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="31">
         <v>43327</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="39">
         <v>3</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="39">
         <v>4</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="39">
         <v>0.17</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="40">
         <v>43329</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="13">
         <v>9</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="13">
         <v>2</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="13">
         <v>0.4</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="33">
         <v>43328</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="39">
         <v>4</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="39">
         <v>4</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="39">
         <v>0.17</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="40">
         <v>43329</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="13">
         <v>10</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="13">
         <v>2</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="13">
         <v>0.4</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="33">
         <v>43328</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="42">
-        <v>0</v>
-      </c>
-      <c r="F25" s="42">
+      <c r="E25" s="39">
+        <v>0</v>
+      </c>
+      <c r="F25" s="39">
         <v>4</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="39">
         <v>0.17</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="40">
         <v>43329</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="J25" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="13">
         <v>16</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="13">
         <v>2</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="13">
         <v>0.4</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="33">
         <v>43329</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="39">
         <v>11</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="39">
         <v>4</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="39">
         <v>0.17</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="40">
         <v>43329</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="13">
         <v>18</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="13">
         <v>2</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="13">
         <v>0.2</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="33">
         <v>43331</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="39">
         <v>12</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="39">
         <v>4</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="39">
         <v>0.17</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="40">
         <v>43329</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="13">
         <v>19</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="13">
         <v>2</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="13">
         <v>0.2</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="33">
         <v>43331</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="39">
         <v>8</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="39">
         <v>4</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="39">
         <v>0.17</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="40">
         <v>43329</v>
       </c>
-      <c r="J28" s="46" t="s">
+      <c r="J28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="13">
         <v>20</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="13">
         <v>2</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="13">
         <v>0.2</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="33">
         <v>43331</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="39">
         <v>7</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="39">
         <v>4</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="39">
         <v>0.17</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="40">
         <v>43330</v>
       </c>
-      <c r="J29" s="46" t="s">
+      <c r="J29" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="13">
         <v>21</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="13">
         <v>2</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="13">
         <v>0.2</v>
       </c>
-      <c r="N29" s="36">
+      <c r="N29" s="33">
         <v>43331</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="42">
-        <v>0</v>
-      </c>
-      <c r="F30" s="42">
+      <c r="E30" s="39">
+        <v>0</v>
+      </c>
+      <c r="F30" s="39">
         <v>4</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="39">
         <v>0.17</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="40">
         <v>43330</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="36"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="33"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="42">
-        <v>1</v>
-      </c>
-      <c r="F31" s="42">
+      <c r="E31" s="39">
+        <v>1</v>
+      </c>
+      <c r="F31" s="39">
         <v>4</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="39">
         <v>0.17</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="39">
         <v>15</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="39">
         <v>4</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="39">
         <v>0.17</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="39">
         <v>4</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="39">
         <v>4</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="39">
         <v>0.17</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="39">
         <v>3</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="39">
         <v>4</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="39">
         <v>0.17</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="39">
         <v>2</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="39">
         <v>4</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="39">
         <v>0.17</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="39">
         <v>13</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="39">
         <v>4</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="39">
         <v>0.17</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="39">
         <v>14</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="39">
         <v>4</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="39">
         <v>0.17</v>
       </c>
-      <c r="H37" s="43">
+      <c r="H37" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="39">
         <v>5</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="39">
         <v>4</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="39">
         <v>0.17</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H38" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="39">
         <v>5</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="39">
         <v>4</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="39">
         <v>0.17</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="39">
         <v>2</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="39">
         <v>4</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="39">
         <v>0.17</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="40">
         <v>43330</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="39">
         <v>16</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="39">
         <v>4</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="39">
         <v>0.17</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="40">
         <v>43331</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="39">
         <v>15</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="39">
         <v>4</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="39">
         <v>0.17</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="40">
         <v>43331</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="39">
         <v>13</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="39">
         <v>4</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="39">
         <v>0.17</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="40">
         <v>43331</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="39">
         <v>14</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="39">
         <v>4</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="39">
         <v>0.17</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H44" s="40">
         <v>43331</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="39">
         <v>17</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="39">
         <v>4</v>
       </c>
-      <c r="G45" s="42">
+      <c r="G45" s="39">
         <v>0.17</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="40">
         <v>43332</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
+      <c r="B46" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="39">
+        <v>11</v>
+      </c>
+      <c r="F46" s="39">
+        <v>4</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0.17</v>
+      </c>
+      <c r="H46" s="40">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="36"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Results/Neural Networks/Results.xlsx
+++ b/Results/Neural Networks/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Neural Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E7CD45-F078-4B18-8E47-88BAC672DB53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773509EA-0F40-429E-A5A8-89FC36125D31}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Layer Results" sheetId="8" r:id="rId1"/>
@@ -22,12 +22,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="55">
   <si>
     <t>Accuracy</t>
   </si>
@@ -178,13 +183,29 @@
   <si>
     <t>Two Layer Neural Network Random Search</t>
   </si>
+  <si>
+    <t>fstNeurons</t>
+  </si>
+  <si>
+    <t>sndNeurons</t>
+  </si>
+  <si>
+    <t>leaky relu, dropout rate 0.08, batch size 756, 100 epochs</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>63, 68 appears best</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -839,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,6 +1031,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1056,7 +1085,133 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="84">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2304,112 +2459,129 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C4:O64" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C4:O64" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
   <autoFilter ref="C4:O64" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C5:O64">
     <sortCondition descending="1" ref="O4:O64"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="13" xr3:uid="{EE2C5B4A-1B3A-4EB1-A894-4751D2C028F6}" name="Seed" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="neurons" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="lambda for regularization" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="epochs" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="batch size" dataDxfId="68"/>
-    <tableColumn id="1" xr3:uid="{24F530F9-DE02-4399-8645-3C0C5F5DF324}" name="activation function" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{ECF95DDC-BE5B-412C-975B-DD91E0308F9D}" name="L2 regularization?" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="65" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="64" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="63" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="62" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="61" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="60" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{EE2C5B4A-1B3A-4EB1-A894-4751D2C028F6}" name="Seed" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="neurons" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="lambda for regularization" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="epochs" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="batch size" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{24F530F9-DE02-4399-8645-3C0C5F5DF324}" name="activation function" dataDxfId="73"/>
+    <tableColumn id="12" xr3:uid="{ECF95DDC-BE5B-412C-975B-DD91E0308F9D}" name="L2 regularization?" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="71" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="70" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="69" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="68" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="67" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="66" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B626D81A-C02C-4E76-AFEC-DB56EAC289A8}" name="Table62" displayName="Table62" ref="C4:S68" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B626D81A-C02C-4E76-AFEC-DB56EAC289A8}" name="Table62" displayName="Table62" ref="C4:S68" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="C4:S68" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C5:S68">
     <sortCondition descending="1" ref="S4:S68"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="13" xr3:uid="{452FFD92-6934-49FF-9D05-6F560AF5344A}" name="Seed" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{E211E446-DB45-4B2F-8FDE-865764964C4D}" name="fst neurons" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{2EC2EDFF-0EFF-4F71-9940-8CC8668BC8E6}" name="fst activation" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{22296FAD-856C-4ECC-AF57-6A26A43504CF}" name="fst L2 regularization?" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{65D1305B-A0A6-4CAC-A5C1-9DDE6AE12195}" name="fst lambda" dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{1BC0484B-7EB1-43A5-AD2A-4E6B52D74DE6}" name="snd neurons" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{1EC5378D-3595-4261-8F58-0AFAC8260C63}" name="snd activation" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{5C688FFA-D11B-4D06-8E43-6B55E9DA6959}" name="snd L2 regularization?" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{9F9B91EE-FC3B-4A59-BC66-DC774FCDE125}" name="snd lambda" dataDxfId="46"/>
-    <tableColumn id="19" xr3:uid="{C5D2E6BF-EF52-4FB1-A6D3-1C816201B2DA}" name="batch size" dataDxfId="45"/>
-    <tableColumn id="20" xr3:uid="{E0656082-56E5-4465-89B4-696632D69AF8}" name="epochs" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{DBCA6EB0-E4C0-42EF-BE92-1A9E8442469D}" name="Fold 1" dataDxfId="43" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{EC12F9E1-C75D-4875-A833-0F15BC178545}" name="Fold 2" dataDxfId="42" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{26A3F004-7925-4AC1-B8AA-61B5BFFF8E9C}" name="Fold 3" dataDxfId="41" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{515B2D70-36D2-4551-8AF8-FB856656F166}" name="Fold 4" dataDxfId="40" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{B7C360CC-32DA-421D-97D5-43E7B4BF762C}" name="Std" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{06DFEA4B-3831-4FEC-B841-9586DC6F5715}" name="Average" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{452FFD92-6934-49FF-9D05-6F560AF5344A}" name="Seed" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{E211E446-DB45-4B2F-8FDE-865764964C4D}" name="fst neurons" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{2EC2EDFF-0EFF-4F71-9940-8CC8668BC8E6}" name="fst activation" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{22296FAD-856C-4ECC-AF57-6A26A43504CF}" name="fst L2 regularization?" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{65D1305B-A0A6-4CAC-A5C1-9DDE6AE12195}" name="fst lambda" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{1BC0484B-7EB1-43A5-AD2A-4E6B52D74DE6}" name="snd neurons" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{1EC5378D-3595-4261-8F58-0AFAC8260C63}" name="snd activation" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{5C688FFA-D11B-4D06-8E43-6B55E9DA6959}" name="snd L2 regularization?" dataDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{9F9B91EE-FC3B-4A59-BC66-DC774FCDE125}" name="snd lambda" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{C5D2E6BF-EF52-4FB1-A6D3-1C816201B2DA}" name="batch size" dataDxfId="51"/>
+    <tableColumn id="20" xr3:uid="{E0656082-56E5-4465-89B4-696632D69AF8}" name="epochs" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{DBCA6EB0-E4C0-42EF-BE92-1A9E8442469D}" name="Fold 1" dataDxfId="49" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{EC12F9E1-C75D-4875-A833-0F15BC178545}" name="Fold 2" dataDxfId="48" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{26A3F004-7925-4AC1-B8AA-61B5BFFF8E9C}" name="Fold 3" dataDxfId="47" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{515B2D70-36D2-4551-8AF8-FB856656F166}" name="Fold 4" dataDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{B7C360CC-32DA-421D-97D5-43E7B4BF762C}" name="Std" dataDxfId="45" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{06DFEA4B-3831-4FEC-B841-9586DC6F5715}" name="Average" dataDxfId="44" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50F8C802-D311-4C69-8481-D273E90B8433}" name="Table2" displayName="Table2" ref="B7:G17" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="B7:G17" xr:uid="{70C82073-811F-4A54-B2B3-3DB77FF5C36C}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{18FC7DFE-397D-4DDB-859B-4A104BD44CCD}" name="Name " dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{01B6744D-B816-40D4-84B3-175F903B295E}" name="Tmux Session" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{47B77FC0-D447-4D1E-8BFB-6E36FCD91316}" name="Problem" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{BAF46EA2-DA73-4B0F-AEB3-6697ED34B0D4}" name="Seed" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{AE7FC2B8-0BBE-4228-9773-538D5A9CA57B}" name="Iterations" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{36E77298-3202-4BD7-B390-CD219E2979DF}" name="memory_frac" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2CAF1F0C-CB06-40F2-B77C-10CF295815BB}" name="Table8" displayName="Table8" ref="C72:G125" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="C72:G125" xr:uid="{1A032E26-FA9E-4C85-BD32-38A79EC8874F}"/>
+  <sortState ref="C73:G125">
+    <sortCondition descending="1" ref="F72:F125"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{674975C2-4937-412A-BA97-E9978694CA24}" name="Seed" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{44981918-CA33-4FD9-84E7-ADDF9DA7E748}" name="fstNeurons" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{347FC349-DE70-4C7A-BC2A-084717AA78C2}" name="sndNeurons" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{65E36133-2FFB-41FE-96A4-7207DEEC79A1}" name="Mean" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{B1E562DD-69C5-4221-B557-0575FF39C18E}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F37C1BB-14AB-4ED5-B695-8219BE02F724}" name="Table4" displayName="Table4" ref="J21:N30" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="J21:N30" xr:uid="{AD4FD850-4C47-4712-B179-3C0B538018A4}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6186C0A3-B1B9-48C3-87BB-452371F2A06B}" name="Problem" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{E63CCF47-A735-4887-9F29-B0454106EC9E}" name="Seed" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{A0A69E40-405F-4807-B314-BF1FEBC75551}" name="Iterations" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{8F5D51A8-8898-4C0F-94B9-62EF59F4A6C2}" name="memory_frac" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{12B3A7AC-1E5D-4371-9B5A-57C8BFBF0B25}" name="Completed" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50F8C802-D311-4C69-8481-D273E90B8433}" name="Table2" displayName="Table2" ref="B7:G17" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+  <autoFilter ref="B7:G17" xr:uid="{70C82073-811F-4A54-B2B3-3DB77FF5C36C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{18FC7DFE-397D-4DDB-859B-4A104BD44CCD}" name="Name " dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{01B6744D-B816-40D4-84B3-175F903B295E}" name="Tmux Session" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{47B77FC0-D447-4D1E-8BFB-6E36FCD91316}" name="Problem" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{BAF46EA2-DA73-4B0F-AEB3-6697ED34B0D4}" name="Seed" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{AE7FC2B8-0BBE-4228-9773-538D5A9CA57B}" name="Iterations" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{36E77298-3202-4BD7-B390-CD219E2979DF}" name="memory_frac" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FBFF0E64-1CE7-40BA-A8FD-1E70546B81F2}" name="Table5" displayName="Table5" ref="J7:M9" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="J7:M9" xr:uid="{4B443EFB-2A03-42D5-9ACF-9FF9F1212F43}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{960C5177-250E-4233-AF2A-BA6973714243}" name="Problem" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{3115131B-F046-4B1D-9D89-92E1E8B330C7}" name="Seed" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{58062F58-4774-43B7-BE3D-A3867AFE7A44}" name="Iterations" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BEC89436-CE5F-4668-8732-3B2902052FC8}" name="memory_frac" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F37C1BB-14AB-4ED5-B695-8219BE02F724}" name="Table4" displayName="Table4" ref="J21:N30" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="J21:N30" xr:uid="{AD4FD850-4C47-4712-B179-3C0B538018A4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6186C0A3-B1B9-48C3-87BB-452371F2A06B}" name="Problem" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{E63CCF47-A735-4887-9F29-B0454106EC9E}" name="Seed" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{A0A69E40-405F-4807-B314-BF1FEBC75551}" name="Iterations" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{8F5D51A8-8898-4C0F-94B9-62EF59F4A6C2}" name="memory_frac" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{12B3A7AC-1E5D-4371-9B5A-57C8BFBF0B25}" name="Completed" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4ADA31A-F24C-4F99-BDA3-3D90F7BFCB10}" name="Table3" displayName="Table3" ref="B21:H47" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FBFF0E64-1CE7-40BA-A8FD-1E70546B81F2}" name="Table5" displayName="Table5" ref="J7:M9" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="J7:M9" xr:uid="{4B443EFB-2A03-42D5-9ACF-9FF9F1212F43}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{960C5177-250E-4233-AF2A-BA6973714243}" name="Problem" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{3115131B-F046-4B1D-9D89-92E1E8B330C7}" name="Seed" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{58062F58-4774-43B7-BE3D-A3867AFE7A44}" name="Iterations" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{BEC89436-CE5F-4668-8732-3B2902052FC8}" name="memory_frac" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4ADA31A-F24C-4F99-BDA3-3D90F7BFCB10}" name="Table3" displayName="Table3" ref="B21:H47" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="B21:H47" xr:uid="{E48B09AF-DF99-4634-B72D-76260B2094E2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9FBD64CA-D43C-4696-B8DA-24C92108326A}" name="Name " dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{078173AE-DF7C-4E92-B4B6-A3FF25932F07}" name="Tmux Session" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{EE8E8CA3-BADD-4408-9166-BD1D4AE032B6}" name="Problem" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{D6C58D65-DD4C-4644-8CEE-AD9275A25E8B}" name="Seed" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{254C4F23-D96E-4A1E-BC1F-1690DAA9AAC5}" name="Iterations" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C9647215-55F5-4756-819F-DB4FC6BBE28E}" name="memory_frac" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{26F1C347-D9D8-4020-8F4D-46C153498856}" name="Completed" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9FBD64CA-D43C-4696-B8DA-24C92108326A}" name="Name " dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{078173AE-DF7C-4E92-B4B6-A3FF25932F07}" name="Tmux Session" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{EE8E8CA3-BADD-4408-9166-BD1D4AE032B6}" name="Problem" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{D6C58D65-DD4C-4644-8CEE-AD9275A25E8B}" name="Seed" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{254C4F23-D96E-4A1E-BC1F-1690DAA9AAC5}" name="Iterations" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{C9647215-55F5-4756-819F-DB4FC6BBE28E}" name="memory_frac" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{26F1C347-D9D8-4020-8F4D-46C153498856}" name="Completed" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2714,7 +2886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5F8B0E-17AA-4631-8565-91D998A20F4E}">
   <dimension ref="B2:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -5446,10 +5618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FC45D7-5B1D-4989-90D7-BD2FD38564A0}">
-  <dimension ref="B2:S68"/>
+  <dimension ref="B2:S126"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9124,6 +9296,1114 @@
         <v>0.24613928878684599</v>
       </c>
     </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73" s="62">
+        <v>1</v>
+      </c>
+      <c r="C73" s="60">
+        <v>0</v>
+      </c>
+      <c r="D73" s="60">
+        <v>63</v>
+      </c>
+      <c r="E73" s="60">
+        <v>68</v>
+      </c>
+      <c r="F73" s="63">
+        <v>0.311</v>
+      </c>
+      <c r="G73" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" s="64">
+        <v>2</v>
+      </c>
+      <c r="C74" s="60">
+        <v>0</v>
+      </c>
+      <c r="D74" s="60">
+        <v>61</v>
+      </c>
+      <c r="E74" s="60">
+        <v>70</v>
+      </c>
+      <c r="F74" s="63">
+        <v>0.311</v>
+      </c>
+      <c r="G74" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B75" s="62">
+        <v>3</v>
+      </c>
+      <c r="C75" s="60">
+        <v>0</v>
+      </c>
+      <c r="D75" s="60">
+        <v>70</v>
+      </c>
+      <c r="E75" s="60">
+        <v>70</v>
+      </c>
+      <c r="F75" s="63">
+        <v>0.311</v>
+      </c>
+      <c r="G75" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="60">
+        <v>4</v>
+      </c>
+      <c r="C76" s="60">
+        <v>0</v>
+      </c>
+      <c r="D76" s="60">
+        <v>66</v>
+      </c>
+      <c r="E76" s="60">
+        <v>53</v>
+      </c>
+      <c r="F76" s="63">
+        <v>0.31</v>
+      </c>
+      <c r="G76" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="62">
+        <v>5</v>
+      </c>
+      <c r="C77" s="60">
+        <v>0</v>
+      </c>
+      <c r="D77" s="60">
+        <v>63</v>
+      </c>
+      <c r="E77" s="60">
+        <v>61</v>
+      </c>
+      <c r="F77" s="63">
+        <v>0.31</v>
+      </c>
+      <c r="G77" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B78" s="60">
+        <v>6</v>
+      </c>
+      <c r="C78" s="60">
+        <v>0</v>
+      </c>
+      <c r="D78" s="60">
+        <v>57</v>
+      </c>
+      <c r="E78" s="60">
+        <v>66</v>
+      </c>
+      <c r="F78" s="63">
+        <v>0.31</v>
+      </c>
+      <c r="G78" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B79" s="62">
+        <v>7</v>
+      </c>
+      <c r="C79" s="60">
+        <v>0</v>
+      </c>
+      <c r="D79" s="60">
+        <v>56</v>
+      </c>
+      <c r="E79" s="60">
+        <v>68</v>
+      </c>
+      <c r="F79" s="63">
+        <v>0.31</v>
+      </c>
+      <c r="G79" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B80" s="67">
+        <v>8</v>
+      </c>
+      <c r="C80" s="60">
+        <v>0</v>
+      </c>
+      <c r="D80" s="60">
+        <v>64</v>
+      </c>
+      <c r="E80" s="60">
+        <v>62</v>
+      </c>
+      <c r="F80" s="63">
+        <v>0.31</v>
+      </c>
+      <c r="G80" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="62">
+        <v>9</v>
+      </c>
+      <c r="C81" s="60">
+        <v>0</v>
+      </c>
+      <c r="D81" s="60">
+        <v>59</v>
+      </c>
+      <c r="E81" s="60">
+        <v>61</v>
+      </c>
+      <c r="F81" s="63">
+        <v>0.30940450000000003</v>
+      </c>
+      <c r="G81" s="63">
+        <v>8.2229999999999998E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="67">
+        <v>10</v>
+      </c>
+      <c r="C82" s="60">
+        <v>0</v>
+      </c>
+      <c r="D82" s="60">
+        <v>41</v>
+      </c>
+      <c r="E82" s="60">
+        <v>64</v>
+      </c>
+      <c r="F82" s="63">
+        <v>0.309</v>
+      </c>
+      <c r="G82" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="62">
+        <v>11</v>
+      </c>
+      <c r="C83" s="60">
+        <v>0</v>
+      </c>
+      <c r="D83" s="60">
+        <v>67</v>
+      </c>
+      <c r="E83" s="60">
+        <v>55</v>
+      </c>
+      <c r="F83" s="63">
+        <v>0.309</v>
+      </c>
+      <c r="G83" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="67">
+        <v>12</v>
+      </c>
+      <c r="C84" s="60">
+        <v>0</v>
+      </c>
+      <c r="D84" s="60">
+        <v>44</v>
+      </c>
+      <c r="E84" s="60">
+        <v>57</v>
+      </c>
+      <c r="F84" s="63">
+        <v>0.309</v>
+      </c>
+      <c r="G84" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="62">
+        <v>13</v>
+      </c>
+      <c r="C85" s="60">
+        <v>0</v>
+      </c>
+      <c r="D85" s="60">
+        <v>48</v>
+      </c>
+      <c r="E85" s="60">
+        <v>62</v>
+      </c>
+      <c r="F85" s="63">
+        <v>0.309</v>
+      </c>
+      <c r="G85" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="67">
+        <v>14</v>
+      </c>
+      <c r="C86" s="60">
+        <v>0</v>
+      </c>
+      <c r="D86" s="60">
+        <v>60</v>
+      </c>
+      <c r="E86" s="60">
+        <v>56</v>
+      </c>
+      <c r="F86" s="63">
+        <v>0.309</v>
+      </c>
+      <c r="G86" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="62">
+        <v>15</v>
+      </c>
+      <c r="C87" s="60">
+        <v>0</v>
+      </c>
+      <c r="D87" s="60">
+        <v>53</v>
+      </c>
+      <c r="E87" s="60">
+        <v>55</v>
+      </c>
+      <c r="F87" s="63">
+        <v>0.309</v>
+      </c>
+      <c r="G87" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="67">
+        <v>16</v>
+      </c>
+      <c r="C88" s="60">
+        <v>0</v>
+      </c>
+      <c r="D88" s="60">
+        <v>54</v>
+      </c>
+      <c r="E88" s="60">
+        <v>36</v>
+      </c>
+      <c r="F88" s="63">
+        <v>0.308</v>
+      </c>
+      <c r="G88" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="62">
+        <v>17</v>
+      </c>
+      <c r="C89" s="60">
+        <v>0</v>
+      </c>
+      <c r="D89" s="60">
+        <v>46</v>
+      </c>
+      <c r="E89" s="60">
+        <v>55</v>
+      </c>
+      <c r="F89" s="63">
+        <v>0.308</v>
+      </c>
+      <c r="G89" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="67">
+        <v>18</v>
+      </c>
+      <c r="C90" s="60">
+        <v>0</v>
+      </c>
+      <c r="D90" s="60">
+        <v>57</v>
+      </c>
+      <c r="E90" s="60">
+        <v>42</v>
+      </c>
+      <c r="F90" s="63">
+        <v>0.308</v>
+      </c>
+      <c r="G90" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="62">
+        <v>19</v>
+      </c>
+      <c r="C91" s="60">
+        <v>0</v>
+      </c>
+      <c r="D91" s="60">
+        <v>50</v>
+      </c>
+      <c r="E91" s="60">
+        <v>42</v>
+      </c>
+      <c r="F91" s="63">
+        <v>0.308</v>
+      </c>
+      <c r="G91" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="67">
+        <v>20</v>
+      </c>
+      <c r="C92" s="60">
+        <v>0</v>
+      </c>
+      <c r="D92" s="60">
+        <v>49</v>
+      </c>
+      <c r="E92" s="60">
+        <v>67</v>
+      </c>
+      <c r="F92" s="63">
+        <v>0.308</v>
+      </c>
+      <c r="G92" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="62">
+        <v>21</v>
+      </c>
+      <c r="C93" s="60">
+        <v>0</v>
+      </c>
+      <c r="D93" s="60">
+        <v>53</v>
+      </c>
+      <c r="E93" s="60">
+        <v>29</v>
+      </c>
+      <c r="F93" s="63">
+        <v>0.307</v>
+      </c>
+      <c r="G93" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="67">
+        <v>22</v>
+      </c>
+      <c r="C94" s="60">
+        <v>0</v>
+      </c>
+      <c r="D94" s="60">
+        <v>48</v>
+      </c>
+      <c r="E94" s="60">
+        <v>41</v>
+      </c>
+      <c r="F94" s="63">
+        <v>0.307</v>
+      </c>
+      <c r="G94" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="62">
+        <v>23</v>
+      </c>
+      <c r="C95" s="60">
+        <v>0</v>
+      </c>
+      <c r="D95" s="60">
+        <v>56</v>
+      </c>
+      <c r="E95" s="60">
+        <v>49</v>
+      </c>
+      <c r="F95" s="63">
+        <v>0.307</v>
+      </c>
+      <c r="G95" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="67">
+        <v>24</v>
+      </c>
+      <c r="C96" s="60">
+        <v>0</v>
+      </c>
+      <c r="D96" s="60">
+        <v>47</v>
+      </c>
+      <c r="E96" s="60">
+        <v>43</v>
+      </c>
+      <c r="F96" s="63">
+        <v>0.307</v>
+      </c>
+      <c r="G96" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="62">
+        <v>25</v>
+      </c>
+      <c r="C97" s="60">
+        <v>0</v>
+      </c>
+      <c r="D97" s="60">
+        <v>36</v>
+      </c>
+      <c r="E97" s="60">
+        <v>46</v>
+      </c>
+      <c r="F97" s="63">
+        <v>0.307</v>
+      </c>
+      <c r="G97" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="67">
+        <v>26</v>
+      </c>
+      <c r="C98" s="60">
+        <v>0</v>
+      </c>
+      <c r="D98" s="60">
+        <v>41</v>
+      </c>
+      <c r="E98" s="60">
+        <v>40</v>
+      </c>
+      <c r="F98" s="63">
+        <v>0.307</v>
+      </c>
+      <c r="G98" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="62">
+        <v>27</v>
+      </c>
+      <c r="C99" s="60">
+        <v>0</v>
+      </c>
+      <c r="D99" s="60">
+        <v>56</v>
+      </c>
+      <c r="E99" s="60">
+        <v>43</v>
+      </c>
+      <c r="F99" s="63">
+        <v>0.307</v>
+      </c>
+      <c r="G99" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="67">
+        <v>28</v>
+      </c>
+      <c r="C100" s="60">
+        <v>0</v>
+      </c>
+      <c r="D100" s="60">
+        <v>67</v>
+      </c>
+      <c r="E100" s="60">
+        <v>22</v>
+      </c>
+      <c r="F100" s="63">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G100" s="63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="62">
+        <v>29</v>
+      </c>
+      <c r="C101" s="60">
+        <v>0</v>
+      </c>
+      <c r="D101" s="60">
+        <v>39</v>
+      </c>
+      <c r="E101" s="60">
+        <v>63</v>
+      </c>
+      <c r="F101" s="63">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G101" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="67">
+        <v>30</v>
+      </c>
+      <c r="C102" s="60">
+        <v>0</v>
+      </c>
+      <c r="D102" s="60">
+        <v>41</v>
+      </c>
+      <c r="E102" s="60">
+        <v>35</v>
+      </c>
+      <c r="F102" s="63">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G102" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="62">
+        <v>31</v>
+      </c>
+      <c r="C103" s="60">
+        <v>0</v>
+      </c>
+      <c r="D103" s="60">
+        <v>44</v>
+      </c>
+      <c r="E103" s="60">
+        <v>39</v>
+      </c>
+      <c r="F103" s="63">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G103" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="67">
+        <v>32</v>
+      </c>
+      <c r="C104" s="60">
+        <v>0</v>
+      </c>
+      <c r="D104" s="60">
+        <v>58</v>
+      </c>
+      <c r="E104" s="60">
+        <v>30</v>
+      </c>
+      <c r="F104" s="63">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G104" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="62">
+        <v>33</v>
+      </c>
+      <c r="C105" s="60">
+        <v>0</v>
+      </c>
+      <c r="D105" s="60">
+        <v>40</v>
+      </c>
+      <c r="E105" s="60">
+        <v>54</v>
+      </c>
+      <c r="F105" s="63">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G105" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="67">
+        <v>34</v>
+      </c>
+      <c r="C106" s="60">
+        <v>0</v>
+      </c>
+      <c r="D106" s="60">
+        <v>62</v>
+      </c>
+      <c r="E106" s="60">
+        <v>23</v>
+      </c>
+      <c r="F106" s="63">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G106" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="62">
+        <v>35</v>
+      </c>
+      <c r="C107" s="60">
+        <v>0</v>
+      </c>
+      <c r="D107" s="60">
+        <v>32</v>
+      </c>
+      <c r="E107" s="60">
+        <v>37</v>
+      </c>
+      <c r="F107" s="63">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G107" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="67">
+        <v>36</v>
+      </c>
+      <c r="C108" s="60">
+        <v>0</v>
+      </c>
+      <c r="D108" s="60">
+        <v>61</v>
+      </c>
+      <c r="E108" s="60">
+        <v>14</v>
+      </c>
+      <c r="F108" s="63">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G108" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="62">
+        <v>37</v>
+      </c>
+      <c r="C109" s="60">
+        <v>0</v>
+      </c>
+      <c r="D109" s="60">
+        <v>27</v>
+      </c>
+      <c r="E109" s="60">
+        <v>53</v>
+      </c>
+      <c r="F109" s="63">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G109" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="67">
+        <v>38</v>
+      </c>
+      <c r="C110" s="60">
+        <v>0</v>
+      </c>
+      <c r="D110" s="60">
+        <v>65</v>
+      </c>
+      <c r="E110" s="60">
+        <v>8</v>
+      </c>
+      <c r="F110" s="63">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G110" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="62">
+        <v>39</v>
+      </c>
+      <c r="C111" s="60">
+        <v>0</v>
+      </c>
+      <c r="D111" s="60">
+        <v>68</v>
+      </c>
+      <c r="E111" s="60">
+        <v>8</v>
+      </c>
+      <c r="F111" s="63">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G111" s="63">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="67">
+        <v>40</v>
+      </c>
+      <c r="C112" s="60">
+        <v>0</v>
+      </c>
+      <c r="D112" s="60">
+        <v>67</v>
+      </c>
+      <c r="E112" s="60">
+        <v>7</v>
+      </c>
+      <c r="F112" s="63">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G112" s="63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="62">
+        <v>41</v>
+      </c>
+      <c r="C113" s="60">
+        <v>0</v>
+      </c>
+      <c r="D113" s="60">
+        <v>21</v>
+      </c>
+      <c r="E113" s="60">
+        <v>43</v>
+      </c>
+      <c r="F113" s="63">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G113" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="67">
+        <v>42</v>
+      </c>
+      <c r="C114" s="60">
+        <v>0</v>
+      </c>
+      <c r="D114" s="60">
+        <v>45</v>
+      </c>
+      <c r="E114" s="60">
+        <v>11</v>
+      </c>
+      <c r="F114" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="G114" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="62">
+        <v>43</v>
+      </c>
+      <c r="C115" s="60">
+        <v>0</v>
+      </c>
+      <c r="D115" s="60">
+        <v>23</v>
+      </c>
+      <c r="E115" s="60">
+        <v>27</v>
+      </c>
+      <c r="F115" s="63">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G115" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="67">
+        <v>44</v>
+      </c>
+      <c r="C116" s="60">
+        <v>0</v>
+      </c>
+      <c r="D116" s="60">
+        <v>34</v>
+      </c>
+      <c r="E116" s="60">
+        <v>16</v>
+      </c>
+      <c r="F116" s="63">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G116" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="62">
+        <v>45</v>
+      </c>
+      <c r="C117" s="60">
+        <v>0</v>
+      </c>
+      <c r="D117" s="60">
+        <v>26</v>
+      </c>
+      <c r="E117" s="60">
+        <v>27</v>
+      </c>
+      <c r="F117" s="63">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G117" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="67">
+        <v>46</v>
+      </c>
+      <c r="C118" s="60">
+        <v>0</v>
+      </c>
+      <c r="D118" s="60">
+        <v>11</v>
+      </c>
+      <c r="E118" s="60">
+        <v>68</v>
+      </c>
+      <c r="F118" s="63">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G118" s="63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="62">
+        <v>47</v>
+      </c>
+      <c r="C119" s="60">
+        <v>0</v>
+      </c>
+      <c r="D119" s="60">
+        <v>13</v>
+      </c>
+      <c r="E119" s="60">
+        <v>39</v>
+      </c>
+      <c r="F119" s="63">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G119" s="63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="67">
+        <v>48</v>
+      </c>
+      <c r="C120" s="60">
+        <v>0</v>
+      </c>
+      <c r="D120" s="60">
+        <v>17</v>
+      </c>
+      <c r="E120" s="60">
+        <v>19</v>
+      </c>
+      <c r="F120" s="63">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G120" s="63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="62">
+        <v>49</v>
+      </c>
+      <c r="C121" s="60">
+        <v>0</v>
+      </c>
+      <c r="D121" s="60">
+        <v>17</v>
+      </c>
+      <c r="E121" s="60">
+        <v>12</v>
+      </c>
+      <c r="F121" s="63">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G121" s="63">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="67">
+        <v>50</v>
+      </c>
+      <c r="C122" s="60">
+        <v>0</v>
+      </c>
+      <c r="D122" s="60">
+        <v>32</v>
+      </c>
+      <c r="E122" s="60">
+        <v>6</v>
+      </c>
+      <c r="F122" s="63">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G122" s="63">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="62">
+        <v>51</v>
+      </c>
+      <c r="C123" s="60">
+        <v>0</v>
+      </c>
+      <c r="D123" s="39">
+        <v>7</v>
+      </c>
+      <c r="E123" s="39">
+        <v>24</v>
+      </c>
+      <c r="F123" s="65">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G123" s="66">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="67">
+        <v>52</v>
+      </c>
+      <c r="C124" s="60">
+        <v>0</v>
+      </c>
+      <c r="D124" s="39">
+        <v>11</v>
+      </c>
+      <c r="E124" s="39">
+        <v>23</v>
+      </c>
+      <c r="F124" s="65">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G124" s="66">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="62">
+        <v>53</v>
+      </c>
+      <c r="C125" s="60">
+        <v>0</v>
+      </c>
+      <c r="D125" s="60">
+        <v>6</v>
+      </c>
+      <c r="E125" s="60">
+        <v>14</v>
+      </c>
+      <c r="F125" s="63">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G125" s="63">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="67">
+        <v>54</v>
+      </c>
+      <c r="C126" s="60">
+        <v>0</v>
+      </c>
+      <c r="D126" s="60">
+        <v>52</v>
+      </c>
+      <c r="E126" s="60">
+        <v>62</v>
+      </c>
+      <c r="F126" s="63">
+        <v>0.309</v>
+      </c>
+      <c r="G126" s="63">
+        <v>2E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
@@ -9131,8 +10411,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
